--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G3" t="n">
         <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I3" t="n">
         <v>2.78</v>
@@ -817,7 +817,7 @@
         <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,7 +826,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O3" t="n">
         <v>1.27</v>
@@ -835,13 +835,13 @@
         <v>1.72</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R3" t="n">
         <v>1.28</v>
       </c>
       <c r="S3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -940,10 +940,10 @@
         <v>1.59</v>
       </c>
       <c r="G4" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="H4" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I4" t="n">
         <v>13</v>
@@ -1078,16 +1078,16 @@
         <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="I5" t="n">
         <v>3.4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="K5" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>2.46</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="G7" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="H7" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="I7" t="n">
         <v>1.47</v>
@@ -1357,7 +1357,7 @@
         <v>4.2</v>
       </c>
       <c r="K7" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1489,7 +1489,7 @@
         <v>2.58</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
         <v>3.65</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q8" t="n">
         <v>2.08</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H9" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="I9" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J9" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="K9" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q9" t="n">
         <v>1.59</v>
@@ -1771,13 +1771,13 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="O10" t="n">
         <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q10" t="n">
         <v>1.9</v>
@@ -1786,7 +1786,7 @@
         <v>1.25</v>
       </c>
       <c r="S10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T10" t="n">
         <v>1.01</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q11" t="n">
         <v>1.39</v>
@@ -2020,19 +2020,19 @@
         <v>2.62</v>
       </c>
       <c r="G12" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H12" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I12" t="n">
         <v>2.78</v>
       </c>
       <c r="J12" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="K12" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2158,7 +2158,7 @@
         <v>4.4</v>
       </c>
       <c r="H13" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="I13" t="n">
         <v>2.34</v>
@@ -2167,7 +2167,7 @@
         <v>2.9</v>
       </c>
       <c r="K13" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q13" t="n">
         <v>1.27</v>
@@ -2614,13 +2614,13 @@
         <v>13.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z16" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AA16" t="n">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="AB16" t="n">
         <v>6.8</v>
@@ -2629,7 +2629,7 @@
         <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G17" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I17" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2725,7 +2725,7 @@
         <v>1.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.11</v>
+        <v>2.8</v>
       </c>
       <c r="R17" t="n">
         <v>1.12</v>
@@ -2743,7 +2743,7 @@
         <v>1.33</v>
       </c>
       <c r="W17" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2851,7 +2851,7 @@
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O18" t="n">
         <v>1.41</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="G19" t="n">
         <v>9.6</v>
@@ -2974,7 +2974,7 @@
         <v>1.58</v>
       </c>
       <c r="J19" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K19" t="n">
         <v>4.9</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q19" t="n">
         <v>1.8</v>
@@ -3100,13 +3100,13 @@
         <v>2.06</v>
       </c>
       <c r="G20" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H20" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
         <v>3.55</v>
@@ -3142,13 +3142,13 @@
         <v>1.74</v>
       </c>
       <c r="U20" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V20" t="n">
         <v>1.33</v>
       </c>
       <c r="W20" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X20" t="n">
         <v>18.5</v>
@@ -3199,7 +3199,7 @@
         <v>110</v>
       </c>
       <c r="AN20" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO20" t="n">
         <v>55</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
         <v>2.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="J3" t="n">
         <v>3.05</v>
@@ -832,10 +832,10 @@
         <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R3" t="n">
         <v>1.28</v>
@@ -850,7 +850,7 @@
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
         <v>1.33</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="G4" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
         <v>3.45</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q4" t="n">
         <v>2.28</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q6" t="n">
         <v>1.42</v>
@@ -1345,10 +1345,10 @@
         <v>5.6</v>
       </c>
       <c r="G7" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="H7" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="I7" t="n">
         <v>1.47</v>
@@ -1375,7 +1375,7 @@
         <v>1.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1489,7 +1489,7 @@
         <v>2.58</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
         <v>3.65</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G9" t="n">
         <v>3.9</v>
@@ -1624,7 +1624,7 @@
         <v>2.76</v>
       </c>
       <c r="J9" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="K9" t="n">
         <v>5.8</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q9" t="n">
         <v>1.59</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="G10" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="H10" t="n">
         <v>4.1</v>
@@ -1759,10 +1759,10 @@
         <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,7 +1771,7 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="O10" t="n">
         <v>1.01</v>
@@ -1780,13 +1780,13 @@
         <v>1.72</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="R10" t="n">
         <v>1.25</v>
       </c>
       <c r="S10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T10" t="n">
         <v>1.01</v>
@@ -1795,10 +1795,10 @@
         <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="G12" t="n">
         <v>3.65</v>
       </c>
       <c r="H12" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I12" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J12" t="n">
         <v>2.78</v>
       </c>
-      <c r="J12" t="n">
-        <v>2.72</v>
-      </c>
       <c r="K12" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
         <v>4.4</v>
       </c>
       <c r="H13" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="I13" t="n">
         <v>2.34</v>
@@ -2167,7 +2167,7 @@
         <v>2.9</v>
       </c>
       <c r="K13" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q13" t="n">
         <v>1.27</v>
@@ -2713,19 +2713,19 @@
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N17" t="n">
-        <v>1.25</v>
+        <v>2.26</v>
       </c>
       <c r="O17" t="n">
-        <v>1.11</v>
+        <v>1.52</v>
       </c>
       <c r="P17" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="R17" t="n">
         <v>1.12</v>
@@ -2830,7 +2830,7 @@
         <v>2.04</v>
       </c>
       <c r="G18" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H18" t="n">
         <v>4.4</v>
@@ -2851,7 +2851,7 @@
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O18" t="n">
         <v>1.41</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="G19" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="H19" t="n">
         <v>1.52</v>
       </c>
       <c r="I19" t="n">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="J19" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="K19" t="n">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3100,19 +3100,19 @@
         <v>2.06</v>
       </c>
       <c r="G20" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J20" t="n">
         <v>3.55</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3127,7 +3127,7 @@
         <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q20" t="n">
         <v>1.87</v>
@@ -3139,16 +3139,16 @@
         <v>3.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U20" t="n">
         <v>2.16</v>
       </c>
       <c r="V20" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W20" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="X20" t="n">
         <v>18.5</v>
@@ -3169,7 +3169,7 @@
         <v>10</v>
       </c>
       <c r="AD20" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE20" t="n">
         <v>55</v>
@@ -3184,7 +3184,7 @@
         <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ20" t="n">
         <v>32</v>
@@ -3202,7 +3202,7 @@
         <v>18.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -679,100 +679,100 @@
         <v>1000</v>
       </c>
       <c r="J2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L2" t="n">
         <v>1.01</v>
       </c>
-      <c r="K2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q2" t="n">
         <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -832,10 +832,10 @@
         <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
         <v>1.28</v>
@@ -850,7 +850,7 @@
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W3" t="n">
         <v>1.33</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="H4" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
         <v>980</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>1.21</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>1.28</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>15.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.3</v>
+        <v>2.54</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>1.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1.72</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R10" t="n">
         <v>1.25</v>
@@ -1885,7 +1885,7 @@
         <v>1.27</v>
       </c>
       <c r="G11" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H11" t="n">
         <v>10</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q11" t="n">
         <v>1.39</v>
@@ -2563,10 +2563,10 @@
         <v>1.51</v>
       </c>
       <c r="H16" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="I16" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J16" t="n">
         <v>4.4</v>
@@ -2599,10 +2599,10 @@
         <v>3.95</v>
       </c>
       <c r="T16" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="U16" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2716,10 +2716,10 @@
         <v>1.12</v>
       </c>
       <c r="N17" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="O17" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P17" t="n">
         <v>1.43</v>
@@ -2731,10 +2731,10 @@
         <v>1.12</v>
       </c>
       <c r="S17" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="U17" t="n">
         <v>1.56</v>
@@ -2746,7 +2746,7 @@
         <v>1.61</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Y17" t="n">
         <v>1000</v>
@@ -2830,7 +2830,7 @@
         <v>2.04</v>
       </c>
       <c r="G18" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H18" t="n">
         <v>4.4</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="G20" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I20" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J20" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
         <v>3.9</v>
@@ -3130,7 +3130,7 @@
         <v>1.96</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R20" t="n">
         <v>1.37</v>
@@ -3142,67 +3142,67 @@
         <v>1.72</v>
       </c>
       <c r="U20" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V20" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="W20" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="X20" t="n">
         <v>18.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Z20" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AA20" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG20" t="n">
         <v>12</v>
       </c>
-      <c r="AC20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>13</v>
-      </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI20" t="n">
         <v>60</v>
       </c>
       <c r="AJ20" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AK20" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL20" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM20" t="n">
         <v>110</v>
       </c>
       <c r="AN20" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO20" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AO22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -937,34 +937,34 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="G4" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="H4" t="n">
-        <v>2.04</v>
+        <v>4.3</v>
       </c>
       <c r="I4" t="n">
-        <v>14.5</v>
+        <v>7.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>980</v>
+        <v>6</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P4" t="n">
         <v>1.52</v>
@@ -973,76 +973,76 @@
         <v>2.28</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="G7" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="H7" t="n">
         <v>1.33</v>
       </c>
       <c r="I7" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="J7" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K7" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="Q7" t="n">
         <v>1.89</v>
@@ -1483,16 +1483,16 @@
         <v>3.65</v>
       </c>
       <c r="H8" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I8" t="n">
         <v>2.58</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q8" t="n">
         <v>2.08</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,36 +1598,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LKP Motor Lublin</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.84</v>
+        <v>2.34</v>
       </c>
       <c r="G9" t="n">
-        <v>3.9</v>
+        <v>2.42</v>
       </c>
       <c r="H9" t="n">
-        <v>2.14</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.76</v>
+        <v>3.45</v>
       </c>
       <c r="J9" t="n">
-        <v>2.64</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>5.8</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.69</v>
+        <v>1.86</v>
       </c>
       <c r="G10" t="n">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>6.2</v>
+        <v>3.7</v>
       </c>
       <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1.01</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.97</v>
-      </c>
       <c r="R10" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.27</v>
+        <v>1.69</v>
       </c>
       <c r="G11" t="n">
-        <v>1.33</v>
+        <v>1.99</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K11" t="n">
         <v>6.2</v>
       </c>
-      <c r="K11" t="n">
-        <v>7.4</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>3.05</v>
+        <v>1.72</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.39</v>
+        <v>1.97</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,36 +2003,36 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>LKP Motor Lublin</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="G12" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="H12" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="I12" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J12" t="n">
-        <v>2.78</v>
+        <v>2.64</v>
       </c>
       <c r="K12" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.26</v>
+        <v>2.04</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,36 +2138,36 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>1.27</v>
       </c>
       <c r="G13" t="n">
-        <v>4.4</v>
+        <v>1.33</v>
       </c>
       <c r="H13" t="n">
-        <v>1.89</v>
+        <v>10</v>
       </c>
       <c r="I13" t="n">
-        <v>2.34</v>
+        <v>14</v>
       </c>
       <c r="J13" t="n">
-        <v>2.9</v>
+        <v>6.2</v>
       </c>
       <c r="K13" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,36 +2273,36 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,36 +2408,36 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.24</v>
+        <v>3.15</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,66 +2543,66 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.84</v>
+        <v>1.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="R16" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2611,64 +2611,64 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1.01</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.84</v>
-      </c>
       <c r="R17" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,66 +2813,66 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.04</v>
+        <v>1.49</v>
       </c>
       <c r="G18" t="n">
-        <v>2.08</v>
+        <v>1.51</v>
       </c>
       <c r="H18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J18" t="n">
         <v>4.4</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>4.6</v>
       </c>
-      <c r="J18" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="P18" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="R18" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S18" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="T18" t="n">
-        <v>1.99</v>
+        <v>2.34</v>
       </c>
       <c r="U18" t="n">
-        <v>1.97</v>
+        <v>1.7</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,64 +2881,64 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Z18" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AA18" t="n">
-        <v>110</v>
+        <v>470</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AC18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF18" t="n">
         <v>7.6</v>
       </c>
-      <c r="AD18" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AI18" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AJ18" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AL18" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="AN18" t="n">
-        <v>17.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO18" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6.4</v>
+        <v>2.44</v>
       </c>
       <c r="G19" t="n">
-        <v>10.5</v>
+        <v>2.72</v>
       </c>
       <c r="H19" t="n">
-        <v>1.52</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>1.71</v>
+        <v>3.9</v>
       </c>
       <c r="J19" t="n">
-        <v>3.85</v>
+        <v>2.82</v>
       </c>
       <c r="K19" t="n">
-        <v>5.8</v>
+        <v>3.2</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P19" t="n">
-        <v>1.89</v>
+        <v>1.45</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.74</v>
+        <v>2.84</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,126 +3083,396 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="G20" t="n">
-        <v>2.3</v>
+        <v>2.06</v>
       </c>
       <c r="H20" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="I20" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="J20" t="n">
         <v>3.45</v>
       </c>
       <c r="K20" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chilean Primera Division</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Audax Italiano</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Nublense</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L22" t="n">
         <v>1.01</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M22" t="n">
         <v>1.06</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N22" t="n">
         <v>3.7</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="O22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q22" t="n">
         <v>1.89</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R22" t="n">
         <v>1.37</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S22" t="n">
         <v>3.2</v>
       </c>
-      <c r="T20" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="X20" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y20" t="n">
+      <c r="T22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X22" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y22" t="n">
         <v>15</v>
       </c>
-      <c r="Z20" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB20" t="n">
+      <c r="Z22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB22" t="n">
         <v>11</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC22" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AD20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE20" t="n">
+      <c r="AD22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE22" t="n">
         <v>48</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF22" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG22" t="n">
         <v>12</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH22" t="n">
         <v>18</v>
       </c>
-      <c r="AI20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ20" t="n">
+      <c r="AI22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>980</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK22" t="n">
         <v>25</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL22" t="n">
         <v>980</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM22" t="n">
         <v>110</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN22" t="n">
         <v>18</v>
       </c>
-      <c r="AO20" t="n">
-        <v>48</v>
+      <c r="AO22" t="n">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -682,7 +682,7 @@
         <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -808,16 +808,16 @@
         <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="I3" t="n">
         <v>2.74</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -838,10 +838,10 @@
         <v>1.93</v>
       </c>
       <c r="R3" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G4" t="n">
         <v>2.06</v>
       </c>
       <c r="H4" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
         <v>7.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>980</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,13 +961,13 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O4" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="Q4" t="n">
         <v>2.28</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="H5" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.7</v>
+        <v>3.95</v>
       </c>
       <c r="K5" t="n">
-        <v>7.2</v>
+        <v>5.3</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>2.46</v>
+        <v>2.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1225,16 +1225,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
         <v>2.54</v>
@@ -1243,76 +1243,76 @@
         <v>1.51</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1360,16 +1360,16 @@
         <v>6.6</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
         <v>1.89</v>
@@ -1378,76 +1378,76 @@
         <v>1.89</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1483,7 +1483,7 @@
         <v>3.65</v>
       </c>
       <c r="H8" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I8" t="n">
         <v>2.58</v>
@@ -1495,16 +1495,16 @@
         <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
         <v>1.75</v>
@@ -1513,76 +1513,76 @@
         <v>2.08</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1615,109 +1615,109 @@
         <v>2.34</v>
       </c>
       <c r="G9" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
         <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -1756,103 +1756,103 @@
         <v>5.1</v>
       </c>
       <c r="I10" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="n">
         <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="G11" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="H11" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N11" t="n">
         <v>3.35</v>
       </c>
-      <c r="K11" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.72</v>
-      </c>
       <c r="O11" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P11" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="S11" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V11" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="G12" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H12" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="J12" t="n">
-        <v>2.64</v>
+        <v>3.55</v>
       </c>
       <c r="K12" t="n">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="G13" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I13" t="n">
         <v>14</v>
       </c>
       <c r="J13" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="K13" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="G14" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="H14" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="I14" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="J14" t="n">
-        <v>2.78</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>6.6</v>
+        <v>5.1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G15" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="H15" t="n">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="I15" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="J15" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="K15" t="n">
-        <v>7.6</v>
+        <v>5.9</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2833,13 +2833,13 @@
         <v>1.51</v>
       </c>
       <c r="H18" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I18" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K18" t="n">
         <v>4.6</v>
@@ -2971,7 +2971,7 @@
         <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J19" t="n">
         <v>2.82</v>
@@ -2998,76 +2998,76 @@
         <v>2.84</v>
       </c>
       <c r="R19" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="S19" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="T19" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="U19" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="V19" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W19" t="n">
         <v>1.58</v>
       </c>
       <c r="X19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
@@ -3100,10 +3100,10 @@
         <v>2.04</v>
       </c>
       <c r="G20" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H20" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I20" t="n">
         <v>4.6</v>
@@ -3187,7 +3187,7 @@
         <v>75</v>
       </c>
       <c r="AJ20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK20" t="n">
         <v>23</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="G21" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="H21" t="n">
         <v>1.52</v>
       </c>
       <c r="I21" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K21" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3367,25 +3367,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="G22" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I22" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J22" t="n">
         <v>3.5</v>
       </c>
       <c r="K22" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
@@ -3400,7 +3400,7 @@
         <v>1.92</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R22" t="n">
         <v>1.37</v>
@@ -3409,22 +3409,22 @@
         <v>3.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U22" t="n">
         <v>2.1</v>
       </c>
       <c r="V22" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="W22" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="X22" t="n">
         <v>18</v>
       </c>
       <c r="Y22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Z22" t="n">
         <v>32</v>
@@ -3433,43 +3433,43 @@
         <v>95</v>
       </c>
       <c r="AB22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG22" t="n">
         <v>11</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>12</v>
       </c>
       <c r="AH22" t="n">
         <v>18</v>
       </c>
       <c r="AI22" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ22" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AK22" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL22" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AM22" t="n">
         <v>110</v>
       </c>
       <c r="AN22" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AO22" t="n">
         <v>55</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -805,7 +805,7 @@
         <v>2.9</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H3" t="n">
         <v>2.16</v>
@@ -841,10 +841,10 @@
         <v>1.29</v>
       </c>
       <c r="S3" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="U3" t="n">
         <v>1.01</v>
@@ -853,7 +853,7 @@
         <v>1.58</v>
       </c>
       <c r="W3" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G4" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H4" t="n">
         <v>4.5</v>
@@ -949,7 +949,7 @@
         <v>7.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
         <v>980</v>
@@ -967,7 +967,7 @@
         <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="Q4" t="n">
         <v>2.28</v>
@@ -982,13 +982,13 @@
         <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="V4" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1075,16 +1075,16 @@
         <v>2.36</v>
       </c>
       <c r="G5" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="H5" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="K5" t="n">
         <v>5.3</v>
@@ -1120,10 +1120,10 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="W5" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1243,10 +1243,10 @@
         <v>1.51</v>
       </c>
       <c r="R6" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="S6" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="G7" t="n">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="H7" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="I7" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="J7" t="n">
         <v>4.4</v>
@@ -1366,22 +1366,22 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.89</v>
+        <v>3.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R7" t="n">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1390,7 +1390,7 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="W7" t="n">
         <v>1.06</v>
@@ -1495,31 +1495,31 @@
         <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
         <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T8" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U8" t="n">
         <v>2</v>
@@ -1540,16 +1540,16 @@
         <v>18</v>
       </c>
       <c r="AA8" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC8" t="n">
         <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
         <v>36</v>
@@ -1567,7 +1567,7 @@
         <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK8" t="n">
         <v>55</v>
@@ -1582,7 +1582,7 @@
         <v>55</v>
       </c>
       <c r="AO8" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -1615,7 +1615,7 @@
         <v>2.34</v>
       </c>
       <c r="G9" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
@@ -1642,22 +1642,22 @@
         <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q9" t="n">
         <v>1.68</v>
       </c>
       <c r="R9" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="S9" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="T9" t="n">
         <v>1.57</v>
       </c>
       <c r="U9" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V9" t="n">
         <v>1.42</v>
@@ -1669,7 +1669,7 @@
         <v>19</v>
       </c>
       <c r="Y9" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z9" t="n">
         <v>26</v>
@@ -1714,10 +1714,10 @@
         <v>980</v>
       </c>
       <c r="AN9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -1762,7 +1762,7 @@
         <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
         <v>1.42</v>
@@ -1771,7 +1771,7 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
@@ -1780,10 +1780,10 @@
         <v>1.86</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="R10" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="S10" t="n">
         <v>3.5</v>
@@ -1792,7 +1792,7 @@
         <v>1.8</v>
       </c>
       <c r="U10" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
         <v>1.23</v>
@@ -1810,7 +1810,7 @@
         <v>44</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB10" t="n">
         <v>9</v>
@@ -1846,7 +1846,7 @@
         <v>40</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN10" t="n">
         <v>14</v>
@@ -1882,28 +1882,28 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G11" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="H11" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
         <v>3.35</v>
@@ -1912,34 +1912,34 @@
         <v>1.35</v>
       </c>
       <c r="P11" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q11" t="n">
         <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S11" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U11" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V11" t="n">
         <v>1.2</v>
       </c>
       <c r="W11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X11" t="n">
         <v>16</v>
       </c>
       <c r="Y11" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="Z11" t="n">
         <v>980</v>
@@ -1984,7 +1984,7 @@
         <v>160</v>
       </c>
       <c r="AN11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO11" t="n">
         <v>130</v>
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
         <v>3.8</v>
       </c>
       <c r="H12" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="I12" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
         <v>4.2</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2161,25 +2161,25 @@
         <v>10.5</v>
       </c>
       <c r="I13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J13" t="n">
         <v>6.6</v>
       </c>
       <c r="K13" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P13" t="n">
         <v>3.05</v>
@@ -2188,76 +2188,76 @@
         <v>1.39</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14">
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I14" t="n">
-        <v>2.78</v>
+        <v>2.54</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="K14" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2425,31 +2425,31 @@
         <v>3.05</v>
       </c>
       <c r="G15" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H15" t="n">
         <v>1.97</v>
       </c>
       <c r="I15" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="J15" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K15" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="P15" t="n">
         <v>3.55</v>
@@ -2458,76 +2458,76 @@
         <v>1.28</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2692,34 +2692,34 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P17" t="n">
         <v>1.24</v>
@@ -2728,76 +2728,76 @@
         <v>1.01</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2833,10 +2833,10 @@
         <v>1.51</v>
       </c>
       <c r="H18" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J18" t="n">
         <v>4.5</v>
@@ -2869,7 +2869,7 @@
         <v>3.95</v>
       </c>
       <c r="T18" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="U18" t="n">
         <v>1.7</v>
@@ -2905,7 +2905,7 @@
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AG18" t="n">
         <v>10.5</v>
@@ -2965,7 +2965,7 @@
         <v>2.44</v>
       </c>
       <c r="G19" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
@@ -2986,10 +2986,10 @@
         <v>1.12</v>
       </c>
       <c r="N19" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="P19" t="n">
         <v>1.45</v>
@@ -3004,16 +3004,16 @@
         <v>6</v>
       </c>
       <c r="T19" t="n">
-        <v>1.99</v>
+        <v>2.2</v>
       </c>
       <c r="U19" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="V19" t="n">
         <v>1.35</v>
       </c>
       <c r="W19" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X19" t="n">
         <v>8</v>
@@ -3028,7 +3028,7 @@
         <v>100</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC19" t="n">
         <v>7.4</v>
@@ -3100,10 +3100,10 @@
         <v>2.04</v>
       </c>
       <c r="G20" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I20" t="n">
         <v>4.6</v>
@@ -3187,7 +3187,7 @@
         <v>75</v>
       </c>
       <c r="AJ20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK20" t="n">
         <v>23</v>
@@ -3235,16 +3235,16 @@
         <v>6.8</v>
       </c>
       <c r="G21" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="H21" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="I21" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="J21" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K21" t="n">
         <v>4.8</v>
@@ -3376,7 +3376,7 @@
         <v>3.8</v>
       </c>
       <c r="I22" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J22" t="n">
         <v>3.5</v>
@@ -3385,7 +3385,7 @@
         <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
@@ -3397,7 +3397,7 @@
         <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q22" t="n">
         <v>1.88</v>
@@ -3412,7 +3412,7 @@
         <v>1.74</v>
       </c>
       <c r="U22" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V22" t="n">
         <v>1.29</v>
@@ -3424,7 +3424,7 @@
         <v>18</v>
       </c>
       <c r="Y22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z22" t="n">
         <v>32</v>
@@ -3442,7 +3442,7 @@
         <v>17.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF22" t="n">
         <v>14</v>
@@ -3457,7 +3457,7 @@
         <v>60</v>
       </c>
       <c r="AJ22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK22" t="n">
         <v>23</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="G3" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
         <v>2.16</v>
       </c>
       <c r="I3" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="J3" t="n">
         <v>3.1</v>
@@ -832,10 +832,10 @@
         <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
         <v>1.29</v>
@@ -850,10 +850,10 @@
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W3" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -1075,16 +1075,16 @@
         <v>2.36</v>
       </c>
       <c r="G5" t="n">
-        <v>2.96</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="K5" t="n">
         <v>5.3</v>
@@ -1120,10 +1120,10 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W5" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="G7" t="n">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="H7" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="I7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J7" t="n">
         <v>4.4</v>
@@ -1372,16 +1372,16 @@
         <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="R7" t="n">
         <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1642,10 +1642,10 @@
         <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
         <v>1.5</v>
@@ -1675,7 +1675,7 @@
         <v>26</v>
       </c>
       <c r="AA9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB9" t="n">
         <v>13.5</v>
@@ -1717,7 +1717,7 @@
         <v>17</v>
       </c>
       <c r="AO9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G10" t="n">
         <v>1.86</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.9</v>
       </c>
       <c r="H10" t="n">
         <v>5.1</v>
@@ -1759,10 +1759,10 @@
         <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L10" t="n">
         <v>1.42</v>
@@ -1798,7 +1798,7 @@
         <v>1.23</v>
       </c>
       <c r="W10" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="X10" t="n">
         <v>17</v>
@@ -1885,7 +1885,7 @@
         <v>1.75</v>
       </c>
       <c r="G11" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H11" t="n">
         <v>4.9</v>
@@ -1900,7 +1900,7 @@
         <v>4.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -1915,10 +1915,10 @@
         <v>1.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R11" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S11" t="n">
         <v>3.6</v>
@@ -1930,7 +1930,7 @@
         <v>1.78</v>
       </c>
       <c r="V11" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W11" t="n">
         <v>2.08</v>
@@ -2323,13 +2323,13 @@
         <v>1.56</v>
       </c>
       <c r="R14" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
         <v>2.12</v>
       </c>
       <c r="T14" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="U14" t="n">
         <v>1.01</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="G15" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="H15" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="I15" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="J15" t="n">
         <v>4.4</v>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="L15" t="n">
         <v>1.19</v>
@@ -2446,19 +2446,19 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q15" t="n">
         <v>1.28</v>
       </c>
       <c r="R15" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="S15" t="n">
         <v>1.77</v>
@@ -2470,58 +2470,58 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="W15" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN15" t="n">
         <v>1000</v>
@@ -2560,19 +2560,19 @@
         <v>3.05</v>
       </c>
       <c r="G16" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H16" t="n">
         <v>2.06</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="J16" t="n">
-        <v>2.48</v>
+        <v>2.72</v>
       </c>
       <c r="K16" t="n">
-        <v>5.3</v>
+        <v>980</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2581,22 +2581,22 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>2.16</v>
+        <v>1.35</v>
       </c>
       <c r="O16" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="P16" t="n">
         <v>1.35</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R16" t="n">
         <v>1.18</v>
       </c>
       <c r="S16" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T16" t="n">
         <v>1.01</v>
@@ -2605,10 +2605,10 @@
         <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="W16" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G17" t="n">
         <v>2.5</v>
@@ -2707,7 +2707,7 @@
         <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>6.2</v>
+        <v>980</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2716,22 +2716,22 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="O17" t="n">
         <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="R17" t="n">
         <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T17" t="n">
         <v>1.01</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G18" t="n">
         <v>1.51</v>
@@ -2836,7 +2836,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
         <v>4.5</v>
@@ -2845,7 +2845,7 @@
         <v>4.6</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
@@ -2869,40 +2869,40 @@
         <v>3.95</v>
       </c>
       <c r="T18" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="U18" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="X18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
         <v>23</v>
       </c>
       <c r="Z18" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="n">
-        <v>470</v>
+        <v>400</v>
       </c>
       <c r="AB18" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF18" t="n">
         <v>7.4</v>
@@ -2911,28 +2911,28 @@
         <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AI18" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK18" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM18" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="AN18" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19">
@@ -3097,31 +3097,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G20" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H20" t="n">
         <v>4.4</v>
       </c>
       <c r="I20" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J20" t="n">
         <v>3.45</v>
       </c>
       <c r="K20" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
         <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O20" t="n">
         <v>1.41</v>
@@ -3133,7 +3133,7 @@
         <v>2.2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S20" t="n">
         <v>4.1</v>
@@ -3145,10 +3145,10 @@
         <v>1.97</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="X20" t="n">
         <v>11</v>
@@ -3238,10 +3238,10 @@
         <v>8</v>
       </c>
       <c r="H21" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="I21" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="J21" t="n">
         <v>4.2</v>
@@ -3250,94 +3250,94 @@
         <v>4.8</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3385,7 +3385,7 @@
         <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
@@ -3418,7 +3418,7 @@
         <v>1.29</v>
       </c>
       <c r="W22" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="X22" t="n">
         <v>18</v>
@@ -3439,7 +3439,7 @@
         <v>9.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AE22" t="n">
         <v>55</v>
@@ -3469,7 +3469,7 @@
         <v>110</v>
       </c>
       <c r="AN22" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO22" t="n">
         <v>55</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -706,7 +706,7 @@
         <v>1.15</v>
       </c>
       <c r="S2" t="n">
-        <v>1.36</v>
+        <v>1.02</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
@@ -811,103 +811,103 @@
         <v>2.16</v>
       </c>
       <c r="I3" t="n">
-        <v>2.68</v>
+        <v>2.44</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="T3" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="W3" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4">
@@ -1075,7 +1075,7 @@
         <v>2.36</v>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="H5" t="n">
         <v>2.56</v>
@@ -1120,10 +1120,10 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W5" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1210,7 +1210,7 @@
         <v>1.21</v>
       </c>
       <c r="G6" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="H6" t="n">
         <v>15.5</v>
@@ -1219,10 +1219,10 @@
         <v>23</v>
       </c>
       <c r="J6" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="K6" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1243,10 +1243,10 @@
         <v>1.51</v>
       </c>
       <c r="R6" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>2.06</v>
+        <v>1.52</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1258,7 +1258,7 @@
         <v>1.04</v>
       </c>
       <c r="W6" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>38</v>
+        <v>16.5</v>
       </c>
       <c r="H7" t="n">
         <v>1.34</v>
@@ -1360,16 +1360,16 @@
         <v>6.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="P7" t="n">
         <v>1.89</v>
@@ -1378,58 +1378,58 @@
         <v>1.89</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="V7" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="W7" t="n">
         <v>1.06</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF7" t="n">
         <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="8">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="G8" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="H8" t="n">
         <v>2.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="J8" t="n">
         <v>3.15</v>
@@ -1501,34 +1501,34 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
         <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="T8" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U8" t="n">
         <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="X8" t="n">
         <v>14.5</v>
@@ -1537,19 +1537,19 @@
         <v>11.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AB8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD8" t="n">
         <v>14</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>12</v>
       </c>
       <c r="AE8" t="n">
         <v>36</v>
@@ -1558,7 +1558,7 @@
         <v>28</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH8" t="n">
         <v>23</v>
@@ -1567,13 +1567,13 @@
         <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK8" t="n">
         <v>55</v>
       </c>
       <c r="AL8" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="n">
         <v>140</v>
@@ -1582,7 +1582,7 @@
         <v>55</v>
       </c>
       <c r="AO8" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1642,10 +1642,10 @@
         <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="R9" t="n">
         <v>1.5</v>
@@ -1717,7 +1717,7 @@
         <v>17</v>
       </c>
       <c r="AO9" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -1750,7 +1750,7 @@
         <v>1.84</v>
       </c>
       <c r="G10" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="H10" t="n">
         <v>5.1</v>
@@ -1759,7 +1759,7 @@
         <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
         <v>3.85</v>
@@ -1789,7 +1789,7 @@
         <v>3.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
@@ -1798,7 +1798,7 @@
         <v>1.23</v>
       </c>
       <c r="W10" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="X10" t="n">
         <v>17</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G11" t="n">
         <v>1.93</v>
@@ -1891,7 +1891,7 @@
         <v>4.9</v>
       </c>
       <c r="I11" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
         <v>3.55</v>
@@ -1915,13 +1915,13 @@
         <v>1.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="R11" t="n">
         <v>1.3</v>
       </c>
       <c r="S11" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="T11" t="n">
         <v>1.78</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="G12" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H12" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="I12" t="n">
-        <v>2.74</v>
+        <v>2.48</v>
       </c>
       <c r="J12" t="n">
         <v>3.3</v>
       </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2050,13 +2050,13 @@
         <v>2.18</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="R12" t="n">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="S12" t="n">
-        <v>1.69</v>
+        <v>2.4</v>
       </c>
       <c r="T12" t="n">
         <v>1.01</v>
@@ -2065,10 +2065,10 @@
         <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="W12" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="G13" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="H13" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="I13" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="J13" t="n">
         <v>6.6</v>
       </c>
       <c r="K13" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
@@ -2185,49 +2185,49 @@
         <v>3.05</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="R13" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="S13" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
         <v>1.8</v>
       </c>
       <c r="U13" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V13" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W13" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="X13" t="n">
         <v>980</v>
       </c>
       <c r="Y13" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="Z13" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AA13" t="n">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="AB13" t="n">
         <v>14</v>
       </c>
       <c r="AC13" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD13" t="n">
         <v>980</v>
       </c>
       <c r="AE13" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AF13" t="n">
         <v>11</v>
@@ -2236,10 +2236,10 @@
         <v>12.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI13" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ13" t="n">
         <v>12</v>
@@ -2251,13 +2251,13 @@
         <v>980</v>
       </c>
       <c r="AM13" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="AO13" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
@@ -2290,7 +2290,7 @@
         <v>2.8</v>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
         <v>2.26</v>
@@ -2311,7 +2311,7 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>2.46</v>
+        <v>4.6</v>
       </c>
       <c r="O14" t="n">
         <v>1.17</v>
@@ -2323,10 +2323,10 @@
         <v>1.56</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="S14" t="n">
-        <v>2.12</v>
+        <v>2.38</v>
       </c>
       <c r="T14" t="n">
         <v>1.43</v>
@@ -2338,7 +2338,7 @@
         <v>1.64</v>
       </c>
       <c r="W14" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2422,61 +2422,61 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="G15" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="H15" t="n">
         <v>1.93</v>
       </c>
       <c r="I15" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="J15" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="K15" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="P15" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="R15" t="n">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="S15" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="U15" t="n">
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="W15" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="X15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Y15" t="n">
         <v>980</v>
@@ -2500,7 +2500,7 @@
         <v>980</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG15" t="n">
         <v>980</v>
@@ -2512,7 +2512,7 @@
         <v>980</v>
       </c>
       <c r="AJ15" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK15" t="n">
         <v>980</v>
@@ -2524,10 +2524,10 @@
         <v>55</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -2698,7 +2698,7 @@
         <v>2.5</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
         <v>5.1</v>
@@ -2827,37 +2827,37 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G18" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="H18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I18" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="I18" t="n">
-        <v>9</v>
-      </c>
       <c r="J18" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K18" t="n">
         <v>4.5</v>
       </c>
-      <c r="K18" t="n">
-        <v>4.6</v>
-      </c>
       <c r="L18" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O18" t="n">
         <v>1.37</v>
       </c>
       <c r="P18" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q18" t="n">
         <v>2.12</v>
@@ -2869,16 +2869,16 @@
         <v>3.95</v>
       </c>
       <c r="T18" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="U18" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V18" t="n">
         <v>1.12</v>
       </c>
       <c r="W18" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="X18" t="n">
         <v>13</v>
@@ -2890,7 +2890,7 @@
         <v>75</v>
       </c>
       <c r="AA18" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="AB18" t="n">
         <v>6.8</v>
@@ -2905,7 +2905,7 @@
         <v>190</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AG18" t="n">
         <v>10.5</v>
@@ -2917,22 +2917,22 @@
         <v>170</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK18" t="n">
         <v>18.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM18" t="n">
         <v>230</v>
       </c>
       <c r="AN18" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="G19" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="J19" t="n">
         <v>2.82</v>
       </c>
       <c r="K19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
@@ -3007,13 +3007,13 @@
         <v>2.2</v>
       </c>
       <c r="U19" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="V19" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="W19" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X19" t="n">
         <v>8</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G20" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I20" t="n">
         <v>4.4</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.5</v>
       </c>
       <c r="J20" t="n">
         <v>3.45</v>
@@ -3133,7 +3133,7 @@
         <v>2.2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S20" t="n">
         <v>4.1</v>
@@ -3145,16 +3145,16 @@
         <v>1.97</v>
       </c>
       <c r="V20" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W20" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="X20" t="n">
         <v>11</v>
       </c>
       <c r="Y20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z20" t="n">
         <v>32</v>
@@ -3187,7 +3187,7 @@
         <v>75</v>
       </c>
       <c r="AJ20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK20" t="n">
         <v>23</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G21" t="n">
         <v>8</v>
@@ -3241,10 +3241,10 @@
         <v>1.52</v>
       </c>
       <c r="I21" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="J21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K21" t="n">
         <v>4.8</v>
@@ -3277,10 +3277,10 @@
         <v>1.9</v>
       </c>
       <c r="U21" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V21" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="W21" t="n">
         <v>1.14</v>
@@ -3379,13 +3379,13 @@
         <v>4.4</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K22" t="n">
         <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
@@ -3415,10 +3415,10 @@
         <v>2.12</v>
       </c>
       <c r="V22" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W22" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="X22" t="n">
         <v>18</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H3" t="n">
         <v>2.16</v>
       </c>
       <c r="I3" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J3" t="n">
         <v>3.25</v>
@@ -829,31 +829,31 @@
         <v>3.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
         <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U3" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V3" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X3" t="n">
         <v>16</v>
@@ -898,7 +898,7 @@
         <v>55</v>
       </c>
       <c r="AL3" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM3" t="n">
         <v>130</v>
@@ -943,16 +943,16 @@
         <v>2.02</v>
       </c>
       <c r="H4" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I4" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>980</v>
+        <v>5.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,16 +961,16 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
@@ -982,7 +982,7 @@
         <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
         <v>1.16</v>
@@ -1075,13 +1075,13 @@
         <v>2.36</v>
       </c>
       <c r="G5" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="H5" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
         <v>3.95</v>
@@ -1120,10 +1120,10 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="W5" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1210,7 +1210,7 @@
         <v>1.21</v>
       </c>
       <c r="G6" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="H6" t="n">
         <v>15.5</v>
@@ -1219,7 +1219,7 @@
         <v>23</v>
       </c>
       <c r="J6" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="K6" t="n">
         <v>8.199999999999999</v>
@@ -1243,10 +1243,10 @@
         <v>1.51</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
-        <v>1.52</v>
+        <v>2.04</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1258,7 +1258,7 @@
         <v>1.04</v>
       </c>
       <c r="W6" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1351,10 +1351,10 @@
         <v>1.34</v>
       </c>
       <c r="I7" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="J7" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="K7" t="n">
         <v>6.6</v>
@@ -1366,22 +1366,22 @@
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P7" t="n">
         <v>1.89</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="R7" t="n">
         <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T7" t="n">
         <v>2.28</v>
@@ -1390,7 +1390,7 @@
         <v>1.6</v>
       </c>
       <c r="V7" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="W7" t="n">
         <v>1.06</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G8" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="H8" t="n">
         <v>2.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J8" t="n">
         <v>3.15</v>
@@ -1501,7 +1501,7 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1510,13 +1510,13 @@
         <v>1.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R8" t="n">
         <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T8" t="n">
         <v>1.81</v>
@@ -1528,7 +1528,7 @@
         <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="X8" t="n">
         <v>14.5</v>
@@ -1537,7 +1537,7 @@
         <v>11.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA8" t="n">
         <v>42</v>
@@ -1546,10 +1546,10 @@
         <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE8" t="n">
         <v>36</v>
@@ -1558,7 +1558,7 @@
         <v>28</v>
       </c>
       <c r="AG8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH8" t="n">
         <v>23</v>
@@ -1573,7 +1573,7 @@
         <v>55</v>
       </c>
       <c r="AL8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM8" t="n">
         <v>140</v>
@@ -1642,13 +1642,13 @@
         <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q9" t="n">
         <v>1.63</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
         <v>2.72</v>
@@ -1657,7 +1657,7 @@
         <v>1.57</v>
       </c>
       <c r="U9" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V9" t="n">
         <v>1.42</v>
@@ -1912,13 +1912,13 @@
         <v>1.35</v>
       </c>
       <c r="P11" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R11" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S11" t="n">
         <v>3.25</v>
@@ -1930,7 +1930,7 @@
         <v>1.78</v>
       </c>
       <c r="V11" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W11" t="n">
         <v>2.08</v>
@@ -2020,13 +2020,13 @@
         <v>3.35</v>
       </c>
       <c r="G12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H12" t="n">
         <v>2.06</v>
       </c>
       <c r="I12" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="J12" t="n">
         <v>3.3</v>
@@ -2038,91 +2038,91 @@
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R12" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="S12" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="V12" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W12" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="13">
@@ -2155,7 +2155,7 @@
         <v>1.3</v>
       </c>
       <c r="G13" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H13" t="n">
         <v>9.6</v>
@@ -2290,7 +2290,7 @@
         <v>2.8</v>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
         <v>2.26</v>
@@ -2338,7 +2338,7 @@
         <v>1.64</v>
       </c>
       <c r="W14" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G15" t="n">
         <v>4.1</v>
@@ -2431,10 +2431,10 @@
         <v>1.93</v>
       </c>
       <c r="I15" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K15" t="n">
         <v>6</v>
@@ -2446,22 +2446,22 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O15" t="n">
         <v>1.09</v>
       </c>
       <c r="P15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R15" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="S15" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="T15" t="n">
         <v>1.34</v>
@@ -2470,7 +2470,7 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="W15" t="n">
         <v>1.32</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H17" t="n">
         <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="J17" t="n">
         <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>980</v>
+        <v>5.3</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2740,10 +2740,10 @@
         <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="W17" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2845,19 +2845,19 @@
         <v>4.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.37</v>
       </c>
       <c r="P18" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q18" t="n">
         <v>2.12</v>
@@ -2869,7 +2869,7 @@
         <v>3.95</v>
       </c>
       <c r="T18" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="U18" t="n">
         <v>1.7</v>
@@ -2890,7 +2890,7 @@
         <v>75</v>
       </c>
       <c r="AA18" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AB18" t="n">
         <v>6.8</v>
@@ -2932,7 +2932,7 @@
         <v>9.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G19" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="J19" t="n">
         <v>2.82</v>
@@ -3010,10 +3010,10 @@
         <v>1.69</v>
       </c>
       <c r="V19" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W19" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X19" t="n">
         <v>8</v>
@@ -3106,7 +3106,7 @@
         <v>4.3</v>
       </c>
       <c r="I20" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J20" t="n">
         <v>3.45</v>
@@ -3121,7 +3121,7 @@
         <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O20" t="n">
         <v>1.41</v>
@@ -3130,10 +3130,10 @@
         <v>1.79</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S20" t="n">
         <v>4.1</v>
@@ -3148,7 +3148,7 @@
         <v>1.29</v>
       </c>
       <c r="W20" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="X20" t="n">
         <v>11</v>
@@ -3295,10 +3295,10 @@
         <v>9.6</v>
       </c>
       <c r="AA21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB21" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AC21" t="n">
         <v>10.5</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="G22" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="H22" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="J22" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L22" t="n">
         <v>1.33</v>
@@ -3400,7 +3400,7 @@
         <v>1.94</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R22" t="n">
         <v>1.37</v>
@@ -3409,16 +3409,16 @@
         <v>3.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U22" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V22" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="W22" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="X22" t="n">
         <v>18</v>
@@ -3439,13 +3439,13 @@
         <v>9.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG22" t="n">
         <v>11</v>
@@ -3457,10 +3457,10 @@
         <v>60</v>
       </c>
       <c r="AJ22" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AK22" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AL22" t="n">
         <v>38</v>
@@ -3472,7 +3472,7 @@
         <v>17</v>
       </c>
       <c r="AO22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AO24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -814,7 +814,7 @@
         <v>2.42</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K3" t="n">
         <v>3.8</v>
@@ -832,10 +832,10 @@
         <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R3" t="n">
         <v>1.31</v>
@@ -853,7 +853,7 @@
         <v>1.7</v>
       </c>
       <c r="W3" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X3" t="n">
         <v>16</v>
@@ -907,7 +907,7 @@
         <v>60</v>
       </c>
       <c r="AO3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="G4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H4" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>5.2</v>
+        <v>3.85</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -964,10 +964,10 @@
         <v>2.48</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P4" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q4" t="n">
         <v>2.4</v>
@@ -982,13 +982,13 @@
         <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="V4" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W4" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,34 +1072,34 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G5" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="H5" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="J5" t="n">
         <v>3.95</v>
       </c>
       <c r="K5" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>2.8</v>
+        <v>6.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P5" t="n">
         <v>2.8</v>
@@ -1108,76 +1108,76 @@
         <v>1.44</v>
       </c>
       <c r="R5" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="S5" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>2.78</v>
       </c>
       <c r="V5" t="n">
         <v>1.52</v>
       </c>
       <c r="W5" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="6">
@@ -1210,19 +1210,19 @@
         <v>1.21</v>
       </c>
       <c r="G6" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H6" t="n">
-        <v>15.5</v>
+        <v>2.86</v>
       </c>
       <c r="I6" t="n">
         <v>23</v>
       </c>
       <c r="J6" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1258,7 +1258,7 @@
         <v>1.04</v>
       </c>
       <c r="W6" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1369,7 +1369,7 @@
         <v>3.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P7" t="n">
         <v>1.89</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G9" t="n">
         <v>2.34</v>
       </c>
-      <c r="G9" t="n">
-        <v>2.38</v>
-      </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I9" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L9" t="n">
         <v>1.34</v>
@@ -1636,34 +1636,34 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O9" t="n">
         <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="S9" t="n">
         <v>2.72</v>
       </c>
       <c r="T9" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="U9" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="V9" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W9" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X9" t="n">
         <v>19</v>
@@ -1717,7 +1717,7 @@
         <v>17</v>
       </c>
       <c r="AO9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -1780,7 +1780,7 @@
         <v>1.86</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R10" t="n">
         <v>1.33</v>
@@ -1798,7 +1798,7 @@
         <v>1.23</v>
       </c>
       <c r="W10" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X10" t="n">
         <v>17</v>
@@ -1807,7 +1807,7 @@
         <v>17.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="n">
         <v>140</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,106 +1873,106 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>LKP Motor Lublin</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.76</v>
+        <v>3.3</v>
       </c>
       <c r="G11" t="n">
-        <v>1.93</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>4.9</v>
+        <v>2.06</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>2.36</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>3.35</v>
+        <v>4.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>1.81</v>
+        <v>2.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.87</v>
+        <v>1.6</v>
       </c>
       <c r="R11" t="n">
-        <v>1.31</v>
+        <v>1.48</v>
       </c>
       <c r="S11" t="n">
-        <v>3.25</v>
+        <v>2.46</v>
       </c>
       <c r="T11" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="U11" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="V11" t="n">
-        <v>1.2</v>
+        <v>1.74</v>
       </c>
       <c r="W11" t="n">
-        <v>2.08</v>
+        <v>1.33</v>
       </c>
       <c r="X11" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="Y11" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="n">
         <v>980</v>
       </c>
       <c r="AA11" t="n">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH11" t="n">
         <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AJ11" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AK11" t="n">
         <v>980</v>
@@ -1981,19 +1981,19 @@
         <v>980</v>
       </c>
       <c r="AM11" t="n">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="AN11" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AO11" t="n">
-        <v>130</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,106 +2008,106 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LKP Motor Lublin</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N12" t="n">
         <v>3.35</v>
       </c>
-      <c r="G12" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="O12" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S12" t="n">
         <v>3.3</v>
       </c>
-      <c r="K12" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.46</v>
-      </c>
       <c r="T12" t="n">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="U12" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="V12" t="n">
-        <v>1.73</v>
+        <v>1.21</v>
       </c>
       <c r="W12" t="n">
-        <v>1.32</v>
+        <v>2.04</v>
       </c>
       <c r="X12" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="Y12" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="Z12" t="n">
         <v>980</v>
       </c>
       <c r="AA12" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AB12" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AE12" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AF12" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AG12" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AH12" t="n">
         <v>980</v>
       </c>
       <c r="AI12" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AK12" t="n">
         <v>980</v>
@@ -2116,13 +2116,13 @@
         <v>980</v>
       </c>
       <c r="AM12" t="n">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>15.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
         <v>2.26</v>
@@ -2338,7 +2338,7 @@
         <v>1.64</v>
       </c>
       <c r="W14" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2707,7 +2707,7 @@
         <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>5.3</v>
+        <v>980</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2857,7 +2857,7 @@
         <v>1.37</v>
       </c>
       <c r="P18" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q18" t="n">
         <v>2.12</v>
@@ -2974,13 +2974,13 @@
         <v>3.9</v>
       </c>
       <c r="J19" t="n">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="K19" t="n">
         <v>3.25</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="M19" t="n">
         <v>1.12</v>
@@ -3103,10 +3103,10 @@
         <v>2.1</v>
       </c>
       <c r="H20" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I20" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J20" t="n">
         <v>3.45</v>
@@ -3130,7 +3130,7 @@
         <v>1.79</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R20" t="n">
         <v>1.29</v>
@@ -3148,7 +3148,7 @@
         <v>1.29</v>
       </c>
       <c r="W20" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="X20" t="n">
         <v>11</v>
@@ -3163,7 +3163,7 @@
         <v>110</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC20" t="n">
         <v>7.6</v>
@@ -3199,7 +3199,7 @@
         <v>130</v>
       </c>
       <c r="AN20" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO20" t="n">
         <v>80</v>
@@ -3235,10 +3235,10 @@
         <v>7</v>
       </c>
       <c r="G21" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="I21" t="n">
         <v>1.6</v>
@@ -3247,7 +3247,7 @@
         <v>4.1</v>
       </c>
       <c r="K21" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3277,13 +3277,13 @@
         <v>1.9</v>
       </c>
       <c r="U21" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V21" t="n">
         <v>2.66</v>
       </c>
       <c r="W21" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X21" t="n">
         <v>20</v>
@@ -3370,16 +3370,16 @@
         <v>2.08</v>
       </c>
       <c r="G22" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I22" t="n">
         <v>3.9</v>
       </c>
       <c r="J22" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K22" t="n">
         <v>3.9</v>
@@ -3418,7 +3418,7 @@
         <v>1.34</v>
       </c>
       <c r="W22" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X22" t="n">
         <v>18</v>
@@ -3436,7 +3436,7 @@
         <v>10.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD22" t="n">
         <v>16</v>
@@ -3460,7 +3460,7 @@
         <v>32</v>
       </c>
       <c r="AK22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL22" t="n">
         <v>38</v>
@@ -3473,6 +3473,276 @@
       </c>
       <c r="AO22" t="n">
         <v>50</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="X23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Ind Medellin</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>America de Cali S.A</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I24" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="X24" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -805,13 +805,13 @@
         <v>3.35</v>
       </c>
       <c r="G3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
         <v>2.16</v>
       </c>
       <c r="I3" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="J3" t="n">
         <v>3.3</v>
@@ -844,16 +844,16 @@
         <v>3.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V3" t="n">
         <v>1.7</v>
       </c>
       <c r="W3" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X3" t="n">
         <v>16</v>
@@ -871,7 +871,7 @@
         <v>16</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
         <v>13.5</v>
@@ -907,7 +907,7 @@
         <v>60</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4">
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="G4" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H4" t="n">
         <v>5.6</v>
@@ -949,7 +949,7 @@
         <v>7.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
         <v>3.85</v>
@@ -970,7 +970,7 @@
         <v>1.57</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
@@ -982,13 +982,13 @@
         <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="V4" t="n">
         <v>1.15</v>
       </c>
       <c r="W4" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1081,7 +1081,7 @@
         <v>2.56</v>
       </c>
       <c r="I5" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="J5" t="n">
         <v>3.95</v>
@@ -1096,19 +1096,19 @@
         <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P5" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q5" t="n">
         <v>1.44</v>
       </c>
       <c r="R5" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S5" t="n">
         <v>2.08</v>
@@ -1120,16 +1120,16 @@
         <v>2.78</v>
       </c>
       <c r="V5" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W5" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X5" t="n">
         <v>40</v>
       </c>
       <c r="Y5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z5" t="n">
         <v>30</v>
@@ -1138,7 +1138,7 @@
         <v>48</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC5" t="n">
         <v>13.5</v>
@@ -1150,7 +1150,7 @@
         <v>30</v>
       </c>
       <c r="AF5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG5" t="n">
         <v>16</v>
@@ -1177,7 +1177,7 @@
         <v>13.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -1213,13 +1213,13 @@
         <v>1.27</v>
       </c>
       <c r="H6" t="n">
-        <v>2.86</v>
+        <v>16</v>
       </c>
       <c r="I6" t="n">
         <v>23</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="K6" t="n">
         <v>8.4</v>
@@ -1258,7 +1258,7 @@
         <v>1.04</v>
       </c>
       <c r="W6" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1348,13 +1348,13 @@
         <v>16.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="I7" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="J7" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="K7" t="n">
         <v>6.6</v>
@@ -1366,10 +1366,10 @@
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O7" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P7" t="n">
         <v>1.89</v>
@@ -1384,13 +1384,13 @@
         <v>3.05</v>
       </c>
       <c r="T7" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="V7" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="W7" t="n">
         <v>1.06</v>
@@ -1480,10 +1480,10 @@
         <v>3.2</v>
       </c>
       <c r="G8" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I8" t="n">
         <v>2.6</v>
@@ -1504,7 +1504,7 @@
         <v>3.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
         <v>1.75</v>
@@ -1516,7 +1516,7 @@
         <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T8" t="n">
         <v>1.81</v>
@@ -1525,10 +1525,10 @@
         <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X8" t="n">
         <v>14.5</v>
@@ -1645,7 +1645,7 @@
         <v>2.26</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R9" t="n">
         <v>1.52</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="G10" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H10" t="n">
         <v>5.1</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L10" t="n">
         <v>1.42</v>
@@ -1771,34 +1771,34 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="R10" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S10" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="T10" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="V10" t="n">
         <v>1.23</v>
       </c>
       <c r="W10" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="X10" t="n">
         <v>17</v>
@@ -1816,7 +1816,7 @@
         <v>9</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
         <v>21</v>
@@ -1843,10 +1843,10 @@
         <v>22</v>
       </c>
       <c r="AL10" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
         <v>14</v>
@@ -1885,16 +1885,16 @@
         <v>3.3</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="H11" t="n">
         <v>2.06</v>
       </c>
       <c r="I11" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
         <v>4.3</v>
@@ -1906,7 +1906,7 @@
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
         <v>1.2</v>
@@ -1930,10 +1930,10 @@
         <v>2.3</v>
       </c>
       <c r="V11" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="W11" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="X11" t="n">
         <v>980</v>
@@ -1963,7 +1963,7 @@
         <v>980</v>
       </c>
       <c r="AG11" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AH11" t="n">
         <v>980</v>
@@ -2017,61 +2017,61 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="G12" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="H12" t="n">
         <v>4.8</v>
       </c>
       <c r="I12" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O12" t="n">
         <v>1.35</v>
       </c>
       <c r="P12" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.8</v>
       </c>
-      <c r="Q12" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.78</v>
-      </c>
       <c r="V12" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W12" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y12" t="n">
         <v>980</v>
@@ -2086,7 +2086,7 @@
         <v>9.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
         <v>980</v>
@@ -2119,10 +2119,10 @@
         <v>160</v>
       </c>
       <c r="AN12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G13" t="n">
         <v>1.33</v>
       </c>
       <c r="H13" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="I13" t="n">
         <v>11.5</v>
@@ -2191,7 +2191,7 @@
         <v>1.83</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="T13" t="n">
         <v>1.8</v>
@@ -2203,7 +2203,7 @@
         <v>1.09</v>
       </c>
       <c r="W13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="X13" t="n">
         <v>980</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
         <v>2.26</v>
       </c>
       <c r="I14" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="J14" t="n">
         <v>3.8</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2332,13 +2332,13 @@
         <v>1.43</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="V14" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W14" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="G16" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.06</v>
+        <v>1.43</v>
       </c>
       <c r="I16" t="n">
-        <v>2.86</v>
+        <v>2.76</v>
       </c>
       <c r="J16" t="n">
-        <v>2.72</v>
+        <v>2.54</v>
       </c>
       <c r="K16" t="n">
         <v>980</v>
@@ -2581,22 +2581,22 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="O16" t="n">
         <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="R16" t="n">
         <v>1.18</v>
       </c>
       <c r="S16" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="T16" t="n">
         <v>1.01</v>
@@ -2605,10 +2605,10 @@
         <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W16" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="G17" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I17" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K17" t="n">
-        <v>980</v>
+        <v>5.4</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2725,13 +2725,13 @@
         <v>1.58</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R17" t="n">
         <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="T17" t="n">
         <v>1.01</v>
@@ -2740,10 +2740,10 @@
         <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W17" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2851,7 +2851,7 @@
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O18" t="n">
         <v>1.37</v>
@@ -3103,13 +3103,13 @@
         <v>2.1</v>
       </c>
       <c r="H20" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I20" t="n">
         <v>4.4</v>
       </c>
       <c r="J20" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
         <v>3.5</v>
@@ -3262,10 +3262,10 @@
         <v>1.28</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R21" t="n">
         <v>1.39</v>
@@ -3310,7 +3310,7 @@
         <v>980</v>
       </c>
       <c r="AF21" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AG21" t="n">
         <v>980</v>
@@ -3367,31 +3367,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="H22" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="I22" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="J22" t="n">
         <v>3.55</v>
       </c>
       <c r="K22" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O22" t="n">
         <v>1.3</v>
@@ -3400,7 +3400,7 @@
         <v>1.94</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R22" t="n">
         <v>1.37</v>
@@ -3409,16 +3409,16 @@
         <v>3.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U22" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V22" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W22" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="X22" t="n">
         <v>18</v>
@@ -3439,13 +3439,13 @@
         <v>9.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AE22" t="n">
         <v>50</v>
       </c>
       <c r="AF22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG22" t="n">
         <v>11</v>
@@ -3457,10 +3457,10 @@
         <v>60</v>
       </c>
       <c r="AJ22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK22" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AL22" t="n">
         <v>38</v>
@@ -3526,7 +3526,7 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="O23" t="n">
         <v>1.48</v>
@@ -3535,7 +3535,7 @@
         <v>1.58</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="R23" t="n">
         <v>1.17</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="G24" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H24" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="I24" t="n">
         <v>7.6</v>
       </c>
       <c r="J24" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="K24" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3673,7 +3673,7 @@
         <v>1.94</v>
       </c>
       <c r="R24" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S24" t="n">
         <v>3</v>
@@ -3688,10 +3688,10 @@
         <v>1.15</v>
       </c>
       <c r="W24" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y24" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO24"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>SK Poltava</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.35</v>
+        <v>1.09</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>1.24</v>
       </c>
       <c r="H3" t="n">
-        <v>2.16</v>
+        <v>15</v>
       </c>
       <c r="I3" t="n">
-        <v>2.44</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>48</v>
       </c>
       <c r="L3" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>3.4</v>
+        <v>1.86</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="P3" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.99</v>
+        <v>1.08</v>
       </c>
       <c r="R3" t="n">
-        <v>1.31</v>
+        <v>1.86</v>
       </c>
       <c r="S3" t="n">
-        <v>3.6</v>
+        <v>1.66</v>
       </c>
       <c r="T3" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.33</v>
+        <v>5.3</v>
       </c>
       <c r="X3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FC Metaloglobus Bucuresti</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.76</v>
+        <v>3.45</v>
       </c>
       <c r="G4" t="n">
-        <v>2.02</v>
+        <v>4.1</v>
       </c>
       <c r="H4" t="n">
-        <v>5.6</v>
+        <v>2.16</v>
       </c>
       <c r="I4" t="n">
-        <v>7.6</v>
+        <v>2.44</v>
       </c>
       <c r="J4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N4" t="n">
         <v>3.05</v>
       </c>
-      <c r="K4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.48</v>
-      </c>
       <c r="O4" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="P4" t="n">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.42</v>
+        <v>2.14</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U4" t="n">
-        <v>1.55</v>
+        <v>1.94</v>
       </c>
       <c r="V4" t="n">
-        <v>1.15</v>
+        <v>1.7</v>
       </c>
       <c r="W4" t="n">
-        <v>1.98</v>
+        <v>1.33</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Stal Rzeszow</t>
+          <t>ACS Petrolul 52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pogon Grodzisk Mazowiecki</t>
+          <t>FC Metaloglobus Bucuresti</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.38</v>
+        <v>1.78</v>
       </c>
       <c r="G5" t="n">
-        <v>2.72</v>
+        <v>1.96</v>
       </c>
       <c r="H5" t="n">
-        <v>2.56</v>
+        <v>5.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.96</v>
+        <v>6.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>6.4</v>
+        <v>2.68</v>
       </c>
       <c r="O5" t="n">
-        <v>1.14</v>
+        <v>1.41</v>
       </c>
       <c r="P5" t="n">
-        <v>2.82</v>
+        <v>1.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.44</v>
+        <v>2.44</v>
       </c>
       <c r="R5" t="n">
-        <v>1.74</v>
+        <v>1.21</v>
       </c>
       <c r="S5" t="n">
-        <v>2.08</v>
+        <v>4.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.44</v>
+        <v>2.14</v>
       </c>
       <c r="U5" t="n">
-        <v>2.78</v>
+        <v>1.7</v>
       </c>
       <c r="V5" t="n">
-        <v>1.51</v>
+        <v>1.18</v>
       </c>
       <c r="W5" t="n">
-        <v>1.58</v>
+        <v>2.04</v>
       </c>
       <c r="X5" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AA5" t="n">
-        <v>48</v>
+        <v>230</v>
       </c>
       <c r="AB5" t="n">
-        <v>24</v>
+        <v>7.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>13.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AE5" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="AF5" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="AJ5" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AM5" t="n">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c r="AN5" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Stal Rzeszow</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Pogon Grodzisk Mazowiecki</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.21</v>
+        <v>2.38</v>
       </c>
       <c r="G6" t="n">
-        <v>1.27</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X6" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG6" t="n">
         <v>16</v>
       </c>
-      <c r="I6" t="n">
-        <v>23</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W6" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,108 +1328,108 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Akritas Chlorakas</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Kryvbas Krivyi Rih</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>9.800000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="G7" t="n">
-        <v>16.5</v>
+        <v>1.36</v>
       </c>
       <c r="H7" t="n">
-        <v>1.33</v>
+        <v>11</v>
       </c>
       <c r="I7" t="n">
-        <v>1.48</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="K7" t="n">
-        <v>6.6</v>
+        <v>22</v>
       </c>
       <c r="L7" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>3.25</v>
+        <v>2.46</v>
       </c>
       <c r="O7" t="n">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
       <c r="P7" t="n">
-        <v>1.89</v>
+        <v>2.46</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.79</v>
+        <v>1.35</v>
       </c>
       <c r="R7" t="n">
-        <v>1.35</v>
+        <v>1.61</v>
       </c>
       <c r="S7" t="n">
-        <v>3.05</v>
+        <v>1.92</v>
       </c>
       <c r="T7" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>1.06</v>
+        <v>3.75</v>
       </c>
       <c r="X7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
         <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1447,13 +1447,13 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Universitatea Cluj</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.2</v>
+        <v>1.21</v>
       </c>
       <c r="G8" t="n">
-        <v>3.6</v>
+        <v>1.27</v>
       </c>
       <c r="H8" t="n">
-        <v>2.32</v>
+        <v>16</v>
       </c>
       <c r="I8" t="n">
-        <v>2.6</v>
+        <v>23</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>6.8</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>8.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>2.54</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>1.75</v>
+        <v>2.54</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.12</v>
+        <v>1.51</v>
       </c>
       <c r="R8" t="n">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="S8" t="n">
-        <v>3.85</v>
+        <v>2.04</v>
       </c>
       <c r="T8" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.63</v>
+        <v>1.04</v>
       </c>
       <c r="W8" t="n">
-        <v>1.38</v>
+        <v>4.7</v>
       </c>
       <c r="X8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Akritas Chlorakas</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.32</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>2.34</v>
+        <v>16.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.35</v>
+        <v>1.33</v>
       </c>
       <c r="I9" t="n">
-        <v>3.45</v>
+        <v>1.45</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>6.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.7</v>
+        <v>3.35</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="P9" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="R9" t="n">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="S9" t="n">
-        <v>2.72</v>
+        <v>3.05</v>
       </c>
       <c r="T9" t="n">
-        <v>1.59</v>
+        <v>2.3</v>
       </c>
       <c r="U9" t="n">
-        <v>2.48</v>
+        <v>1.61</v>
       </c>
       <c r="V9" t="n">
-        <v>1.41</v>
+        <v>3.2</v>
       </c>
       <c r="W9" t="n">
-        <v>1.75</v>
+        <v>1.06</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z9" t="n">
-        <v>26</v>
+        <v>8.6</v>
       </c>
       <c r="AA9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG9" t="n">
         <v>60</v>
       </c>
-      <c r="AB9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC9" t="n">
+      <c r="AH9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO9" t="n">
         <v>8.6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Universitatea Cluj</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.87</v>
+        <v>3.15</v>
       </c>
       <c r="G10" t="n">
-        <v>1.91</v>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
-        <v>5.1</v>
+        <v>2.32</v>
       </c>
       <c r="I10" t="n">
-        <v>5.3</v>
+        <v>2.6</v>
       </c>
       <c r="J10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.55</v>
       </c>
-      <c r="K10" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="O10" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="P10" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="S10" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="T10" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U10" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.23</v>
+        <v>1.63</v>
       </c>
       <c r="W10" t="n">
-        <v>2.1</v>
+        <v>1.39</v>
       </c>
       <c r="X10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG10" t="n">
         <v>17</v>
       </c>
-      <c r="Y10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA10" t="n">
+      <c r="AH10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM10" t="n">
         <v>140</v>
       </c>
-      <c r="AB10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>130</v>
-      </c>
       <c r="AN10" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="AO10" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LKP Motor Lublin</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="G11" t="n">
-        <v>4.3</v>
+        <v>980</v>
       </c>
       <c r="H11" t="n">
-        <v>2.06</v>
+        <v>1.25</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3</v>
+        <v>1.54</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>980</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="P11" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.6</v>
+        <v>1.23</v>
       </c>
       <c r="R11" t="n">
-        <v>1.48</v>
+        <v>1.77</v>
       </c>
       <c r="S11" t="n">
-        <v>2.46</v>
+        <v>1.76</v>
       </c>
       <c r="T11" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>1.76</v>
+        <v>2.88</v>
       </c>
       <c r="W11" t="n">
-        <v>1.31</v>
+        <v>1.03</v>
       </c>
       <c r="X11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.79</v>
+        <v>2.24</v>
       </c>
       <c r="G12" t="n">
-        <v>1.92</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>5.7</v>
+        <v>3.45</v>
       </c>
       <c r="J12" t="n">
         <v>3.65</v>
       </c>
       <c r="K12" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="L12" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>3.3</v>
+        <v>4.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>1.79</v>
+        <v>2.26</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="R12" t="n">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="S12" t="n">
-        <v>3.75</v>
+        <v>2.74</v>
       </c>
       <c r="T12" t="n">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="V12" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="W12" t="n">
-        <v>2.08</v>
+        <v>1.76</v>
       </c>
       <c r="X12" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
         <v>980</v>
       </c>
       <c r="Z12" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AA12" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.6</v>
+        <v>13.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AK12" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AM12" t="n">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="AN12" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>130</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,114 +2138,114 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.31</v>
+        <v>1.88</v>
       </c>
       <c r="G13" t="n">
-        <v>1.33</v>
+        <v>1.91</v>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>5.1</v>
       </c>
       <c r="I13" t="n">
-        <v>11.5</v>
+        <v>5.3</v>
       </c>
       <c r="J13" t="n">
-        <v>6.6</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
-        <v>7.2</v>
+        <v>3.65</v>
       </c>
       <c r="L13" t="n">
-        <v>1.19</v>
+        <v>1.42</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>6.8</v>
+        <v>3.7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.13</v>
+        <v>1.32</v>
       </c>
       <c r="P13" t="n">
-        <v>3.05</v>
+        <v>1.94</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.41</v>
+        <v>1.96</v>
       </c>
       <c r="R13" t="n">
-        <v>1.83</v>
+        <v>1.35</v>
       </c>
       <c r="S13" t="n">
-        <v>2.04</v>
+        <v>3.4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U13" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V13" t="n">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="W13" t="n">
-        <v>3.95</v>
+        <v>2.08</v>
       </c>
       <c r="X13" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>48</v>
+        <v>17.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AA13" t="n">
-        <v>380</v>
+        <v>140</v>
       </c>
       <c r="AB13" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AC13" t="n">
-        <v>16.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="AF13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG13" t="n">
         <v>11</v>
       </c>
-      <c r="AG13" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH13" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AI13" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AK13" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="AL13" t="n">
         <v>980</v>
@@ -2254,16 +2254,16 @@
         <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.95</v>
+        <v>14</v>
       </c>
       <c r="AO13" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.86</v>
+        <v>1.79</v>
       </c>
       <c r="G14" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.4</v>
       </c>
-      <c r="H14" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.8</v>
-      </c>
       <c r="K14" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="P14" t="n">
-        <v>2.46</v>
+        <v>1.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.56</v>
+        <v>1.92</v>
       </c>
       <c r="R14" t="n">
-        <v>1.59</v>
+        <v>1.3</v>
       </c>
       <c r="S14" t="n">
-        <v>2.38</v>
+        <v>3.7</v>
       </c>
       <c r="T14" t="n">
-        <v>1.43</v>
+        <v>1.87</v>
       </c>
       <c r="U14" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="V14" t="n">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="W14" t="n">
-        <v>1.41</v>
+        <v>2.08</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.25</v>
+        <v>1.31</v>
       </c>
       <c r="G15" t="n">
-        <v>4.1</v>
+        <v>1.33</v>
       </c>
       <c r="H15" t="n">
-        <v>1.93</v>
+        <v>10</v>
       </c>
       <c r="I15" t="n">
-        <v>2.3</v>
+        <v>11.5</v>
       </c>
       <c r="J15" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>7</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W15" t="n">
+        <v>4</v>
+      </c>
+      <c r="X15" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>380</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN15" t="n">
         <v>3.9</v>
       </c>
-      <c r="K15" t="n">
-        <v>6</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X15" t="n">
-        <v>65</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>21</v>
-      </c>
       <c r="AO15" t="n">
-        <v>9.800000000000001</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>LKP Motor Lublin</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G16" t="n">
-        <v>5.1</v>
+        <v>3.75</v>
       </c>
       <c r="H16" t="n">
-        <v>1.43</v>
+        <v>2.12</v>
       </c>
       <c r="I16" t="n">
-        <v>2.76</v>
+        <v>2.26</v>
       </c>
       <c r="J16" t="n">
-        <v>2.54</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
-        <v>980</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>1.25</v>
+        <v>3.9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="P16" t="n">
-        <v>1.24</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="R16" t="n">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="S16" t="n">
-        <v>1.01</v>
+        <v>2.78</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="V16" t="n">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="W16" t="n">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,72 +2678,72 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.94</v>
+        <v>2.86</v>
       </c>
       <c r="G17" t="n">
-        <v>2.56</v>
+        <v>3.2</v>
       </c>
       <c r="H17" t="n">
-        <v>3.35</v>
+        <v>2.26</v>
       </c>
       <c r="I17" t="n">
-        <v>4.7</v>
+        <v>2.52</v>
       </c>
       <c r="J17" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="K17" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1.58</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.98</v>
-      </c>
       <c r="R17" t="n">
-        <v>1.18</v>
+        <v>1.59</v>
       </c>
       <c r="S17" t="n">
-        <v>1.99</v>
+        <v>2.38</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="U17" t="n">
         <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.27</v>
+        <v>1.65</v>
       </c>
       <c r="W17" t="n">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.51</v>
+        <v>3.25</v>
       </c>
       <c r="G18" t="n">
-        <v>1.53</v>
+        <v>4.1</v>
       </c>
       <c r="H18" t="n">
-        <v>8.6</v>
+        <v>1.93</v>
       </c>
       <c r="I18" t="n">
-        <v>8.800000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="J18" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="K18" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.43</v>
+        <v>1.2</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O18" t="n">
-        <v>1.37</v>
+        <v>1.09</v>
       </c>
       <c r="P18" t="n">
-        <v>1.84</v>
+        <v>3.35</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.12</v>
+        <v>1.3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.31</v>
+        <v>1.86</v>
       </c>
       <c r="S18" t="n">
-        <v>3.95</v>
+        <v>1.8</v>
       </c>
       <c r="T18" t="n">
-        <v>2.34</v>
+        <v>1.34</v>
       </c>
       <c r="U18" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.12</v>
+        <v>1.77</v>
       </c>
       <c r="W18" t="n">
-        <v>2.9</v>
+        <v>1.32</v>
       </c>
       <c r="X18" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="Y18" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="Z18" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AA18" t="n">
-        <v>380</v>
+        <v>980</v>
       </c>
       <c r="AB18" t="n">
-        <v>6.8</v>
+        <v>980</v>
       </c>
       <c r="AC18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO18" t="n">
         <v>9.800000000000001</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>230</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>280</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.44</v>
+        <v>3.25</v>
       </c>
       <c r="G19" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>2.06</v>
       </c>
       <c r="I19" t="n">
-        <v>3.9</v>
+        <v>2.88</v>
       </c>
       <c r="J19" t="n">
-        <v>2.96</v>
+        <v>2.62</v>
       </c>
       <c r="K19" t="n">
-        <v>3.25</v>
+        <v>4.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>2.4</v>
+        <v>1.42</v>
       </c>
       <c r="O19" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.84</v>
+        <v>2.3</v>
       </c>
       <c r="R19" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="T19" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="U19" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>1.34</v>
+        <v>1.53</v>
       </c>
       <c r="W19" t="n">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="X19" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>2.56</v>
       </c>
       <c r="H20" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>2.86</v>
       </c>
       <c r="K20" t="n">
-        <v>3.5</v>
+        <v>980</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M20" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>3.35</v>
+        <v>1.58</v>
       </c>
       <c r="O20" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="P20" t="n">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>4.1</v>
+        <v>2.02</v>
       </c>
       <c r="T20" t="n">
-        <v>1.99</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="W20" t="n">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="X20" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>1.51</v>
       </c>
       <c r="G21" t="n">
-        <v>8.199999999999999</v>
+        <v>1.53</v>
       </c>
       <c r="H21" t="n">
-        <v>1.57</v>
+        <v>8.6</v>
       </c>
       <c r="I21" t="n">
-        <v>1.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="K21" t="n">
         <v>4.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="O21" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="P21" t="n">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.81</v>
+        <v>2.12</v>
       </c>
       <c r="R21" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="S21" t="n">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
       <c r="T21" t="n">
-        <v>1.9</v>
+        <v>2.34</v>
       </c>
       <c r="U21" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="V21" t="n">
-        <v>2.66</v>
+        <v>1.12</v>
       </c>
       <c r="W21" t="n">
-        <v>1.15</v>
+        <v>2.9</v>
       </c>
       <c r="X21" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.6</v>
+        <v>23</v>
       </c>
       <c r="Z21" t="n">
-        <v>9.6</v>
+        <v>75</v>
       </c>
       <c r="AA21" t="n">
-        <v>15</v>
+        <v>380</v>
       </c>
       <c r="AB21" t="n">
-        <v>980</v>
+        <v>6.8</v>
       </c>
       <c r="AC21" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG21" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>980</v>
-      </c>
       <c r="AH21" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AI21" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AJ21" t="n">
-        <v>270</v>
+        <v>12.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>140</v>
+        <v>18.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AM21" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="AN21" t="n">
-        <v>170</v>
+        <v>9.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>8.800000000000001</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>2.46</v>
       </c>
       <c r="G22" t="n">
-        <v>2.14</v>
+        <v>2.68</v>
       </c>
       <c r="H22" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="J22" t="n">
-        <v>3.55</v>
+        <v>2.96</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="L22" t="n">
-        <v>1.32</v>
+        <v>1.62</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="N22" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="P22" t="n">
-        <v>1.94</v>
+        <v>1.45</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.87</v>
+        <v>2.84</v>
       </c>
       <c r="R22" t="n">
-        <v>1.37</v>
+        <v>1.16</v>
       </c>
       <c r="S22" t="n">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="T22" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="U22" t="n">
-        <v>2.12</v>
+        <v>1.69</v>
       </c>
       <c r="V22" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W22" t="n">
-        <v>1.87</v>
+        <v>1.59</v>
       </c>
       <c r="X22" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF22" t="n">
         <v>18</v>
       </c>
-      <c r="Y22" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF22" t="n">
+      <c r="AG22" t="n">
         <v>14</v>
       </c>
-      <c r="AG22" t="n">
-        <v>11</v>
-      </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AI22" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AJ22" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AK22" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL22" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="n">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="AN22" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AO22" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,260 +3488,665 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.76</v>
+        <v>2.06</v>
       </c>
       <c r="G23" t="n">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="H23" t="n">
-        <v>5.9</v>
+        <v>4.3</v>
       </c>
       <c r="I23" t="n">
-        <v>7.8</v>
+        <v>4.4</v>
       </c>
       <c r="J23" t="n">
         <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>1.59</v>
+        <v>3.35</v>
       </c>
       <c r="O23" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="P23" t="n">
-        <v>1.58</v>
+        <v>1.78</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="S23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T23" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="U23" t="n">
-        <v>1.58</v>
+        <v>1.97</v>
       </c>
       <c r="V23" t="n">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="W23" t="n">
-        <v>2.16</v>
+        <v>1.93</v>
       </c>
       <c r="X23" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="Y23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK23" t="n">
         <v>23</v>
       </c>
-      <c r="Z23" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>980</v>
-      </c>
       <c r="AL23" t="n">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X24" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>140</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>170</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chilean Primera Division</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Audax Italiano</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Nublense</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="X25" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I26" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="X26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>2025-12-01</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>22:00:00</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Ind Medellin</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>America de Cali S.A</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="F27" t="n">
         <v>1.62</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G27" t="n">
         <v>1.74</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H27" t="n">
         <v>5.5</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I27" t="n">
         <v>7.6</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J27" t="n">
         <v>3.9</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K27" t="n">
         <v>4.4</v>
       </c>
-      <c r="L24" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="L27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="O27" t="n">
         <v>1.32</v>
       </c>
-      <c r="P24" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="P27" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q27" t="n">
         <v>1.94</v>
       </c>
-      <c r="R24" t="n">
+      <c r="R27" t="n">
         <v>1.27</v>
       </c>
-      <c r="S24" t="n">
+      <c r="S27" t="n">
         <v>3</v>
       </c>
-      <c r="T24" t="n">
+      <c r="T27" t="n">
         <v>1.78</v>
       </c>
-      <c r="U24" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V24" t="n">
+      <c r="U27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V27" t="n">
         <v>1.15</v>
       </c>
-      <c r="W24" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="X24" t="n">
+      <c r="W27" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="X27" t="n">
         <v>22</v>
       </c>
-      <c r="Y24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO24" t="n">
+      <c r="Y27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO27" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -670,13 +670,13 @@
         <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="H2" t="n">
         <v>1.04</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J2" t="n">
         <v>1.02</v>
@@ -706,13 +706,13 @@
         <v>1.15</v>
       </c>
       <c r="S2" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="G3" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="H3" t="n">
-        <v>15</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>1.03</v>
       </c>
       <c r="K3" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,37 +826,37 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="O3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P3" t="n">
-        <v>1.86</v>
+        <v>3.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.08</v>
+        <v>1.28</v>
       </c>
       <c r="R3" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="S3" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="W3" t="n">
-        <v>5.3</v>
+        <v>1.99</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -880,31 +880,31 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>2.84</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
         <v>2.16</v>
       </c>
       <c r="I4" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.38</v>
       </c>
       <c r="P4" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R4" t="n">
         <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T4" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U4" t="n">
         <v>1.94</v>
       </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W4" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X4" t="n">
         <v>14</v>
@@ -997,7 +997,7 @@
         <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA4" t="n">
         <v>980</v>
@@ -1018,7 +1018,7 @@
         <v>980</v>
       </c>
       <c r="AG4" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AH4" t="n">
         <v>980</v>
@@ -1027,19 +1027,19 @@
         <v>980</v>
       </c>
       <c r="AJ4" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AL4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AN4" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AO4" t="n">
         <v>980</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="G5" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="H5" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I5" t="n">
         <v>6.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
         <v>3.8</v>
@@ -1096,16 +1096,16 @@
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="O5" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P5" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R5" t="n">
         <v>1.21</v>
@@ -1117,25 +1117,25 @@
         <v>2.14</v>
       </c>
       <c r="U5" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V5" t="n">
         <v>1.18</v>
       </c>
       <c r="W5" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="X5" t="n">
         <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA5" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AB5" t="n">
         <v>7.8</v>
@@ -1150,7 +1150,7 @@
         <v>140</v>
       </c>
       <c r="AF5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG5" t="n">
         <v>13</v>
@@ -1177,7 +1177,7 @@
         <v>980</v>
       </c>
       <c r="AO5" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H6" t="n">
         <v>2.56</v>
       </c>
       <c r="I6" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.2</v>
@@ -1237,7 +1237,7 @@
         <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="Q6" t="n">
         <v>1.44</v>
@@ -1249,19 +1249,19 @@
         <v>2.08</v>
       </c>
       <c r="T6" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="U6" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W6" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="X6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="n">
         <v>25</v>
@@ -1276,7 +1276,7 @@
         <v>24</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
         <v>16.5</v>
@@ -1291,7 +1291,7 @@
         <v>16</v>
       </c>
       <c r="AH6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
         <v>34</v>
@@ -1303,16 +1303,16 @@
         <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
         <v>55</v>
       </c>
       <c r="AN6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="7">
@@ -1501,7 +1501,7 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>2.54</v>
+        <v>5.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.17</v>
@@ -1513,16 +1513,16 @@
         <v>1.51</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V8" t="n">
         <v>1.04</v>
@@ -1531,58 +1531,58 @@
         <v>4.7</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
         <v>16.5</v>
@@ -1621,13 +1621,13 @@
         <v>1.33</v>
       </c>
       <c r="I9" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="J9" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K9" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L9" t="n">
         <v>1.32</v>
@@ -1636,7 +1636,7 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="O9" t="n">
         <v>1.27</v>
@@ -1645,22 +1645,22 @@
         <v>1.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="R9" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S9" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="T9" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U9" t="n">
         <v>1.61</v>
       </c>
       <c r="V9" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="W9" t="n">
         <v>1.06</v>
@@ -1762,7 +1762,7 @@
         <v>3.15</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,7 +1771,7 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O10" t="n">
         <v>1.37</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="I11" t="n">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="K11" t="n">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,88 +1906,88 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="O11" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="R11" t="n">
-        <v>1.77</v>
+        <v>1.89</v>
       </c>
       <c r="S11" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="W11" t="n">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="12">
@@ -2017,37 +2017,37 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I12" t="n">
         <v>3.45</v>
       </c>
       <c r="J12" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.65</v>
       </c>
-      <c r="K12" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L12" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O12" t="n">
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="Q12" t="n">
         <v>1.71</v>
@@ -2062,19 +2062,19 @@
         <v>1.6</v>
       </c>
       <c r="U12" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="V12" t="n">
         <v>1.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="X12" t="n">
         <v>19</v>
       </c>
       <c r="Y12" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="Z12" t="n">
         <v>26</v>
@@ -2119,7 +2119,7 @@
         <v>980</v>
       </c>
       <c r="AN12" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
         <v>26</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="G13" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="H13" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I13" t="n">
         <v>5.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="K13" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
         <v>1.42</v>
@@ -2176,13 +2176,13 @@
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O13" t="n">
         <v>1.32</v>
       </c>
       <c r="P13" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q13" t="n">
         <v>1.96</v>
@@ -2203,19 +2203,19 @@
         <v>1.23</v>
       </c>
       <c r="W13" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="X13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z13" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB13" t="n">
         <v>9</v>
@@ -2224,37 +2224,37 @@
         <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
         <v>70</v>
       </c>
       <c r="AF13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI13" t="n">
         <v>75</v>
       </c>
       <c r="AJ13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO13" t="n">
         <v>80</v>
@@ -2287,31 +2287,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="G14" t="n">
         <v>1.92</v>
       </c>
       <c r="H14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I14" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O14" t="n">
         <v>1.35</v>
@@ -2320,22 +2320,22 @@
         <v>1.8</v>
       </c>
       <c r="Q14" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U14" t="n">
         <v>1.92</v>
       </c>
-      <c r="R14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V14" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="W14" t="n">
         <v>2.08</v>
@@ -2350,22 +2350,22 @@
         <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
         <v>980</v>
       </c>
       <c r="AE14" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF14" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG14" t="n">
         <v>12.5</v>
@@ -2374,7 +2374,7 @@
         <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="n">
         <v>980</v>
@@ -2392,7 +2392,7 @@
         <v>17.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
@@ -2428,7 +2428,7 @@
         <v>1.33</v>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I15" t="n">
         <v>11.5</v>
@@ -2449,31 +2449,31 @@
         <v>6.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P15" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R15" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="S15" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T15" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="U15" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W15" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="X15" t="n">
         <v>980</v>
@@ -2482,10 +2482,10 @@
         <v>48</v>
       </c>
       <c r="Z15" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA15" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AB15" t="n">
         <v>14</v>
@@ -2521,7 +2521,7 @@
         <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN15" t="n">
         <v>3.9</v>
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G16" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H16" t="n">
         <v>2.12</v>
       </c>
       <c r="I16" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
@@ -2584,52 +2584,52 @@
         <v>3.9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
       </c>
       <c r="Q16" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.8</v>
       </c>
-      <c r="R16" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.79</v>
-      </c>
       <c r="W16" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X16" t="n">
         <v>980</v>
       </c>
       <c r="Y16" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AA16" t="n">
         <v>980</v>
       </c>
       <c r="AB16" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AC16" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AE16" t="n">
         <v>980</v>
@@ -2695,7 +2695,7 @@
         <v>2.86</v>
       </c>
       <c r="G17" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H17" t="n">
         <v>2.26</v>
@@ -2704,7 +2704,7 @@
         <v>2.52</v>
       </c>
       <c r="J17" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K17" t="n">
         <v>4.9</v>
@@ -2743,7 +2743,7 @@
         <v>1.65</v>
       </c>
       <c r="W17" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="G18" t="n">
         <v>4.1</v>
@@ -2851,7 +2851,7 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="O18" t="n">
         <v>1.09</v>
@@ -2866,10 +2866,10 @@
         <v>1.86</v>
       </c>
       <c r="S18" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="T18" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="U18" t="n">
         <v>1.01</v>
@@ -2905,7 +2905,7 @@
         <v>980</v>
       </c>
       <c r="AF18" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AG18" t="n">
         <v>980</v>
@@ -2929,7 +2929,7 @@
         <v>55</v>
       </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO18" t="n">
         <v>9.800000000000001</v>
@@ -3100,7 +3100,7 @@
         <v>1.92</v>
       </c>
       <c r="G20" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H20" t="n">
         <v>3.4</v>
@@ -3148,7 +3148,7 @@
         <v>1.24</v>
       </c>
       <c r="W20" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3235,7 +3235,7 @@
         <v>1.51</v>
       </c>
       <c r="G21" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H21" t="n">
         <v>8.6</v>
@@ -3247,7 +3247,7 @@
         <v>4.4</v>
       </c>
       <c r="K21" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.43</v>
@@ -3259,19 +3259,19 @@
         <v>3.45</v>
       </c>
       <c r="O21" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P21" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R21" t="n">
         <v>1.31</v>
       </c>
       <c r="S21" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T21" t="n">
         <v>2.34</v>
@@ -3283,7 +3283,7 @@
         <v>1.12</v>
       </c>
       <c r="W21" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="X21" t="n">
         <v>13</v>
@@ -3307,7 +3307,7 @@
         <v>34</v>
       </c>
       <c r="AE21" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AF21" t="n">
         <v>7.6</v>
@@ -3373,10 +3373,10 @@
         <v>2.68</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I22" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J22" t="n">
         <v>2.96</v>
@@ -3418,7 +3418,7 @@
         <v>1.35</v>
       </c>
       <c r="W22" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X22" t="n">
         <v>8</v>
@@ -3508,13 +3508,13 @@
         <v>2.08</v>
       </c>
       <c r="H23" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I23" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K23" t="n">
         <v>3.5</v>
@@ -3538,7 +3538,7 @@
         <v>2.2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S23" t="n">
         <v>4.1</v>
@@ -3550,7 +3550,7 @@
         <v>1.97</v>
       </c>
       <c r="V23" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W23" t="n">
         <v>1.93</v>
@@ -3604,7 +3604,7 @@
         <v>130</v>
       </c>
       <c r="AN23" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO23" t="n">
         <v>80</v>
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G24" t="n">
         <v>7.6</v>
       </c>
       <c r="H24" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="I24" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="J24" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K24" t="n">
         <v>4.7</v>
@@ -3664,16 +3664,16 @@
         <v>4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
         <v>2.04</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="R24" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S24" t="n">
         <v>3.15</v>
@@ -3685,7 +3685,7 @@
         <v>1.92</v>
       </c>
       <c r="V24" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="W24" t="n">
         <v>1.15</v>
@@ -3724,13 +3724,13 @@
         <v>980</v>
       </c>
       <c r="AI24" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AJ24" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AK24" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AL24" t="n">
         <v>120</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="G25" t="n">
-        <v>2.14</v>
+        <v>1.91</v>
       </c>
       <c r="H25" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="I25" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="J25" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L25" t="n">
         <v>1.32</v>
@@ -3796,88 +3796,88 @@
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="O25" t="n">
         <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R25" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S25" t="n">
         <v>3.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="U25" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V25" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="W25" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="X25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z25" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA25" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB25" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AF25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ25" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AK25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL25" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM25" t="n">
         <v>110</v>
       </c>
       <c r="AN25" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
@@ -3931,7 +3931,7 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="O26" t="n">
         <v>1.48</v>
@@ -3940,7 +3940,7 @@
         <v>1.58</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="R26" t="n">
         <v>1.17</v>
@@ -3952,7 +3952,7 @@
         <v>2.06</v>
       </c>
       <c r="U26" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="V26" t="n">
         <v>1.17</v>
@@ -4045,7 +4045,7 @@
         <v>1.62</v>
       </c>
       <c r="G27" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="H27" t="n">
         <v>5.5</v>
@@ -4057,7 +4057,7 @@
         <v>3.9</v>
       </c>
       <c r="K27" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4093,7 +4093,7 @@
         <v>1.15</v>
       </c>
       <c r="W27" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="X27" t="n">
         <v>22</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -811,13 +811,13 @@
         <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>980</v>
+        <v>870</v>
       </c>
       <c r="J3" t="n">
-        <v>1.03</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,28 +826,28 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P3" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="R3" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="S3" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="T3" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="U3" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="V3" t="n">
         <v>1.03</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -946,7 +946,7 @@
         <v>2.16</v>
       </c>
       <c r="I4" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J4" t="n">
         <v>3.2</v>
@@ -994,10 +994,10 @@
         <v>14</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AA4" t="n">
         <v>980</v>
@@ -1006,10 +1006,10 @@
         <v>14.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
         <v>980</v>
@@ -1030,16 +1030,16 @@
         <v>95</v>
       </c>
       <c r="AK4" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM4" t="n">
         <v>150</v>
       </c>
       <c r="AN4" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AO4" t="n">
         <v>980</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="G5" t="n">
         <v>1.9</v>
@@ -1096,7 +1096,7 @@
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O5" t="n">
         <v>1.42</v>
@@ -1114,7 +1114,7 @@
         <v>4.7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U5" t="n">
         <v>1.69</v>
@@ -1210,16 +1210,16 @@
         <v>2.4</v>
       </c>
       <c r="G6" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
         <v>2.56</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
         <v>4.6</v>
@@ -1249,13 +1249,13 @@
         <v>2.08</v>
       </c>
       <c r="T6" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="U6" t="n">
         <v>2.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W6" t="n">
         <v>1.55</v>
@@ -1270,7 +1270,7 @@
         <v>30</v>
       </c>
       <c r="AA6" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AB6" t="n">
         <v>24</v>
@@ -1615,16 +1615,16 @@
         <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="H9" t="n">
         <v>1.33</v>
       </c>
       <c r="I9" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="J9" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K9" t="n">
         <v>6.2</v>
@@ -1636,7 +1636,7 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O9" t="n">
         <v>1.27</v>
@@ -1645,7 +1645,7 @@
         <v>1.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R9" t="n">
         <v>1.34</v>
@@ -1660,7 +1660,7 @@
         <v>1.61</v>
       </c>
       <c r="V9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W9" t="n">
         <v>1.06</v>
@@ -1843,7 +1843,7 @@
         <v>55</v>
       </c>
       <c r="AL10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM10" t="n">
         <v>140</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="I11" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="J11" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="K11" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1912,40 +1912,40 @@
         <v>1.11</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="R11" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="S11" t="n">
         <v>1.78</v>
       </c>
       <c r="T11" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U11" t="n">
         <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="W11" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="X11" t="n">
         <v>55</v>
       </c>
       <c r="Y11" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB11" t="n">
         <v>55</v>
@@ -1954,19 +1954,19 @@
         <v>18</v>
       </c>
       <c r="AD11" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF11" t="n">
         <v>120</v>
       </c>
       <c r="AG11" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AH11" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
         <v>34</v>
@@ -1987,7 +1987,7 @@
         <v>110</v>
       </c>
       <c r="AO11" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="12">
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G12" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="H12" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2047,28 +2047,28 @@
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="S12" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T12" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U12" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V12" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W12" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X12" t="n">
         <v>19</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="G14" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
         <v>3.9</v>
@@ -2335,10 +2335,10 @@
         <v>1.92</v>
       </c>
       <c r="V14" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W14" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="X14" t="n">
         <v>15.5</v>
@@ -2362,7 +2362,7 @@
         <v>980</v>
       </c>
       <c r="AE14" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF14" t="n">
         <v>11.5</v>
@@ -2446,25 +2446,25 @@
         <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O15" t="n">
         <v>1.14</v>
       </c>
       <c r="P15" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="Q15" t="n">
         <v>1.44</v>
       </c>
       <c r="R15" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="S15" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T15" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U15" t="n">
         <v>2.1</v>
@@ -2473,7 +2473,7 @@
         <v>1.1</v>
       </c>
       <c r="W15" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="X15" t="n">
         <v>980</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G16" t="n">
         <v>3.8</v>
@@ -2569,13 +2569,13 @@
         <v>2.24</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L16" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
@@ -2584,7 +2584,7 @@
         <v>3.9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -2599,16 +2599,16 @@
         <v>2.8</v>
       </c>
       <c r="T16" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U16" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
         <v>1.8</v>
       </c>
       <c r="W16" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X16" t="n">
         <v>980</v>
@@ -2623,7 +2623,7 @@
         <v>980</v>
       </c>
       <c r="AB16" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AC16" t="n">
         <v>10.5</v>
@@ -2716,10 +2716,10 @@
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P17" t="n">
         <v>2.46</v>
@@ -2734,70 +2734,70 @@
         <v>2.38</v>
       </c>
       <c r="T17" t="n">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>2.52</v>
       </c>
       <c r="V17" t="n">
         <v>1.65</v>
       </c>
       <c r="W17" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="G18" t="n">
         <v>4.1</v>
@@ -2836,10 +2836,10 @@
         <v>1.93</v>
       </c>
       <c r="I18" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="J18" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K18" t="n">
         <v>6</v>
@@ -2851,10 +2851,10 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="P18" t="n">
         <v>3.35</v>
@@ -2863,25 +2863,25 @@
         <v>1.3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="S18" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="T18" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="W18" t="n">
         <v>1.32</v>
       </c>
       <c r="X18" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Y18" t="n">
         <v>980</v>
@@ -2896,43 +2896,43 @@
         <v>980</v>
       </c>
       <c r="AC18" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
         <v>980</v>
       </c>
       <c r="AF18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM18" t="n">
         <v>48</v>
       </c>
-      <c r="AG18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>55</v>
-      </c>
       <c r="AN18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO18" t="n">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -2962,112 +2962,112 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="H19" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="I19" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="J19" t="n">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="K19" t="n">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>1.42</v>
+        <v>2.52</v>
       </c>
       <c r="O19" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="P19" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="R19" t="n">
         <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="V19" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="W19" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="G20" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="H20" t="n">
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="J20" t="n">
         <v>2.86</v>
@@ -3121,22 +3121,22 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="O20" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P20" t="n">
-        <v>1.58</v>
+        <v>1.24</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>1.41</v>
       </c>
       <c r="R20" t="n">
         <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="T20" t="n">
         <v>1.01</v>
@@ -3145,10 +3145,10 @@
         <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W20" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3238,10 +3238,10 @@
         <v>1.52</v>
       </c>
       <c r="H21" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="I21" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J21" t="n">
         <v>4.4</v>
@@ -3250,7 +3250,7 @@
         <v>4.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
@@ -3283,7 +3283,7 @@
         <v>1.12</v>
       </c>
       <c r="W21" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="X21" t="n">
         <v>13</v>
@@ -3508,7 +3508,7 @@
         <v>2.08</v>
       </c>
       <c r="H23" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I23" t="n">
         <v>4.5</v>
@@ -3532,7 +3532,7 @@
         <v>1.41</v>
       </c>
       <c r="P23" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q23" t="n">
         <v>2.2</v>
@@ -3544,19 +3544,19 @@
         <v>4.1</v>
       </c>
       <c r="T23" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U23" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V23" t="n">
         <v>1.28</v>
       </c>
       <c r="W23" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="X23" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y23" t="n">
         <v>13.5</v>
@@ -3586,7 +3586,7 @@
         <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
         <v>75</v>
@@ -3640,55 +3640,55 @@
         <v>6.8</v>
       </c>
       <c r="G24" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="H24" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="I24" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="J24" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K24" t="n">
         <v>4.7</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P24" t="n">
         <v>2.04</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R24" t="n">
         <v>1.41</v>
       </c>
       <c r="S24" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T24" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="U24" t="n">
         <v>1.92</v>
       </c>
       <c r="V24" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="W24" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X24" t="n">
         <v>20</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="G25" t="n">
         <v>1.91</v>
@@ -3796,7 +3796,7 @@
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O25" t="n">
         <v>1.3</v>
@@ -3916,7 +3916,7 @@
         <v>5.9</v>
       </c>
       <c r="I26" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="J26" t="n">
         <v>3.4</v>
@@ -3925,94 +3925,94 @@
         <v>3.75</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N26" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P26" t="n">
         <v>1.59</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.58</v>
       </c>
       <c r="Q26" t="n">
         <v>2.44</v>
       </c>
       <c r="R26" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="S26" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="T26" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="U26" t="n">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="V26" t="n">
         <v>1.17</v>
       </c>
       <c r="W26" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X26" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="Y26" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Z26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL26" t="n">
         <v>70</v>
       </c>
-      <c r="AA26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>85</v>
-      </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27">
@@ -4045,7 +4045,7 @@
         <v>1.62</v>
       </c>
       <c r="G27" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="H27" t="n">
         <v>5.5</v>
@@ -4066,7 +4066,7 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.92</v>
+        <v>2.62</v>
       </c>
       <c r="O27" t="n">
         <v>1.32</v>
@@ -4075,16 +4075,16 @@
         <v>1.92</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="R27" t="n">
         <v>1.27</v>
       </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T27" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="U27" t="n">
         <v>1.01</v>
@@ -4093,7 +4093,7 @@
         <v>1.15</v>
       </c>
       <c r="W27" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="X27" t="n">
         <v>22</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -814,7 +814,7 @@
         <v>870</v>
       </c>
       <c r="J3" t="n">
-        <v>9.199999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="K3" t="n">
         <v>950</v>
@@ -838,10 +838,10 @@
         <v>1.27</v>
       </c>
       <c r="R3" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="T3" t="n">
         <v>2.02</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -952,10 +952,10 @@
         <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
@@ -964,7 +964,7 @@
         <v>3.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
         <v>1.73</v>
@@ -979,7 +979,7 @@
         <v>3.95</v>
       </c>
       <c r="T4" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U4" t="n">
         <v>1.94</v>
@@ -1072,34 +1072,34 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="G5" t="n">
         <v>1.9</v>
       </c>
       <c r="H5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I5" t="n">
         <v>6.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
         <v>3.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M5" t="n">
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="O5" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P5" t="n">
         <v>1.58</v>
@@ -1114,7 +1114,7 @@
         <v>4.7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U5" t="n">
         <v>1.69</v>
@@ -1174,7 +1174,7 @@
         <v>260</v>
       </c>
       <c r="AN5" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AO5" t="n">
         <v>240</v>
@@ -1210,16 +1210,16 @@
         <v>2.4</v>
       </c>
       <c r="G6" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="H6" t="n">
         <v>2.56</v>
       </c>
       <c r="I6" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
         <v>4.6</v>
@@ -1234,22 +1234,22 @@
         <v>6.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R6" t="n">
         <v>1.74</v>
       </c>
       <c r="S6" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="U6" t="n">
         <v>2.8</v>
@@ -1258,7 +1258,7 @@
         <v>1.52</v>
       </c>
       <c r="W6" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="X6" t="n">
         <v>38</v>
@@ -1351,13 +1351,13 @@
         <v>11</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J7" t="n">
         <v>5.7</v>
       </c>
       <c r="K7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1384,10 +1384,10 @@
         <v>1.92</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
         <v>1.01</v>
@@ -1510,10 +1510,10 @@
         <v>2.54</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S8" t="n">
         <v>2.28</v>
@@ -1633,7 +1633,7 @@
         <v>1.32</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
         <v>3.3</v>
@@ -1645,7 +1645,7 @@
         <v>1.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R9" t="n">
         <v>1.34</v>
@@ -1771,7 +1771,7 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O10" t="n">
         <v>1.37</v>
@@ -1906,7 +1906,7 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O11" t="n">
         <v>1.11</v>
@@ -1924,13 +1924,13 @@
         <v>1.78</v>
       </c>
       <c r="T11" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U11" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V11" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="W11" t="n">
         <v>1.1</v>
@@ -2020,7 +2020,7 @@
         <v>2.32</v>
       </c>
       <c r="G12" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
@@ -2050,7 +2050,7 @@
         <v>2.26</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="R12" t="n">
         <v>1.51</v>
@@ -2071,10 +2071,10 @@
         <v>1.73</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z12" t="n">
         <v>26</v>
@@ -2095,7 +2095,7 @@
         <v>34</v>
       </c>
       <c r="AF12" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
@@ -2119,10 +2119,10 @@
         <v>980</v>
       </c>
       <c r="AN12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -2185,10 +2185,10 @@
         <v>1.93</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R13" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S13" t="n">
         <v>3.4</v>
@@ -2206,7 +2206,7 @@
         <v>2.16</v>
       </c>
       <c r="X13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y13" t="n">
         <v>18</v>
@@ -2233,7 +2233,7 @@
         <v>11.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH13" t="n">
         <v>19.5</v>
@@ -2254,7 +2254,7 @@
         <v>120</v>
       </c>
       <c r="AN13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO13" t="n">
         <v>80</v>
@@ -2290,7 +2290,7 @@
         <v>1.86</v>
       </c>
       <c r="G14" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="H14" t="n">
         <v>4.5</v>
@@ -2302,7 +2302,7 @@
         <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L14" t="n">
         <v>1.37</v>
@@ -2332,7 +2332,7 @@
         <v>1.91</v>
       </c>
       <c r="U14" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V14" t="n">
         <v>1.25</v>
@@ -2428,7 +2428,7 @@
         <v>1.33</v>
       </c>
       <c r="H15" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I15" t="n">
         <v>11.5</v>
@@ -2437,7 +2437,7 @@
         <v>6.6</v>
       </c>
       <c r="K15" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L15" t="n">
         <v>1.19</v>
@@ -2473,7 +2473,7 @@
         <v>1.1</v>
       </c>
       <c r="W15" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="X15" t="n">
         <v>980</v>
@@ -2524,7 +2524,7 @@
         <v>120</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AO15" t="n">
         <v>150</v>
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G16" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H16" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I16" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
         <v>3.9</v>
@@ -2587,16 +2587,16 @@
         <v>1.24</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q16" t="n">
         <v>1.72</v>
       </c>
       <c r="R16" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S16" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="T16" t="n">
         <v>1.68</v>
@@ -2605,10 +2605,10 @@
         <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="W16" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X16" t="n">
         <v>980</v>
@@ -2695,19 +2695,19 @@
         <v>2.86</v>
       </c>
       <c r="G17" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H17" t="n">
         <v>2.26</v>
       </c>
       <c r="I17" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="J17" t="n">
         <v>3.75</v>
       </c>
       <c r="K17" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2734,16 +2734,16 @@
         <v>2.38</v>
       </c>
       <c r="T17" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="U17" t="n">
         <v>2.52</v>
       </c>
       <c r="V17" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W17" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X17" t="n">
         <v>30</v>
@@ -2833,16 +2833,16 @@
         <v>4.1</v>
       </c>
       <c r="H18" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="I18" t="n">
         <v>2.22</v>
       </c>
       <c r="J18" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="L18" t="n">
         <v>1.2</v>
@@ -2851,22 +2851,22 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O18" t="n">
         <v>1.11</v>
       </c>
       <c r="P18" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q18" t="n">
         <v>1.3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="S18" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="T18" t="n">
         <v>1.39</v>
@@ -2875,7 +2875,7 @@
         <v>3</v>
       </c>
       <c r="V18" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W18" t="n">
         <v>1.32</v>
@@ -2896,10 +2896,10 @@
         <v>980</v>
       </c>
       <c r="AC18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD18" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>15</v>
       </c>
       <c r="AE18" t="n">
         <v>980</v>
@@ -2929,10 +2929,10 @@
         <v>48</v>
       </c>
       <c r="AN18" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -2968,10 +2968,10 @@
         <v>4.3</v>
       </c>
       <c r="H19" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I19" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J19" t="n">
         <v>2.84</v>
@@ -2989,7 +2989,7 @@
         <v>2.52</v>
       </c>
       <c r="O19" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P19" t="n">
         <v>1.51</v>
@@ -3001,7 +3001,7 @@
         <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T19" t="n">
         <v>2.02</v>
@@ -3022,7 +3022,7 @@
         <v>9</v>
       </c>
       <c r="Z19" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA19" t="n">
         <v>44</v>
@@ -3043,10 +3043,10 @@
         <v>32</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
         <v>75</v>
@@ -3121,28 +3121,28 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.41</v>
       </c>
       <c r="P20" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.41</v>
+        <v>1.99</v>
       </c>
       <c r="R20" t="n">
         <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>1.01</v>
+        <v>2.82</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V20" t="n">
         <v>1.25</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G21" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H21" t="n">
         <v>9</v>
@@ -3244,10 +3244,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J21" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K21" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.44</v>
@@ -3256,7 +3256,7 @@
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O21" t="n">
         <v>1.38</v>
@@ -3277,7 +3277,7 @@
         <v>2.34</v>
       </c>
       <c r="U21" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V21" t="n">
         <v>1.12</v>
@@ -3286,7 +3286,7 @@
         <v>2.9</v>
       </c>
       <c r="X21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y21" t="n">
         <v>23</v>
@@ -3325,16 +3325,16 @@
         <v>12.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL21" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM21" t="n">
         <v>230</v>
       </c>
       <c r="AN21" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO21" t="n">
         <v>280</v>
@@ -3382,7 +3382,7 @@
         <v>2.96</v>
       </c>
       <c r="K22" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L22" t="n">
         <v>1.62</v>
@@ -3511,7 +3511,7 @@
         <v>4.3</v>
       </c>
       <c r="I23" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J23" t="n">
         <v>3.45</v>
@@ -3526,16 +3526,16 @@
         <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P23" t="n">
         <v>1.79</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R23" t="n">
         <v>1.3</v>
@@ -3544,19 +3544,19 @@
         <v>4.1</v>
       </c>
       <c r="T23" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U23" t="n">
         <v>1.98</v>
       </c>
       <c r="V23" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W23" t="n">
         <v>1.92</v>
       </c>
       <c r="X23" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y23" t="n">
         <v>13.5</v>
@@ -3583,7 +3583,7 @@
         <v>11.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
         <v>20</v>
@@ -3604,7 +3604,7 @@
         <v>130</v>
       </c>
       <c r="AN23" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO23" t="n">
         <v>80</v>
@@ -3646,16 +3646,16 @@
         <v>1.57</v>
       </c>
       <c r="I24" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="J24" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K24" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
@@ -3664,28 +3664,28 @@
         <v>4.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q24" t="n">
         <v>1.88</v>
       </c>
       <c r="R24" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T24" t="n">
         <v>1.97</v>
       </c>
       <c r="U24" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V24" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="W24" t="n">
         <v>1.16</v>
@@ -3709,7 +3709,7 @@
         <v>10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>980</v>
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="G25" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="H25" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="I25" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J25" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K25" t="n">
         <v>4.1</v>
@@ -3802,31 +3802,31 @@
         <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R25" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T25" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U25" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V25" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W25" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="X25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y25" t="n">
         <v>17</v>
@@ -3835,34 +3835,34 @@
         <v>34</v>
       </c>
       <c r="AA25" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD25" t="n">
         <v>18.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
         <v>65</v>
       </c>
       <c r="AJ25" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK25" t="n">
         <v>21</v>
@@ -3874,10 +3874,10 @@
         <v>110</v>
       </c>
       <c r="AN25" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
@@ -3910,10 +3910,10 @@
         <v>1.76</v>
       </c>
       <c r="G26" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="H26" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="I26" t="n">
         <v>6.8</v>
@@ -3946,10 +3946,10 @@
         <v>1.21</v>
       </c>
       <c r="S26" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="T26" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="U26" t="n">
         <v>1.7</v>
@@ -3982,7 +3982,7 @@
         <v>980</v>
       </c>
       <c r="AE26" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF26" t="n">
         <v>11.5</v>
@@ -4006,7 +4006,7 @@
         <v>70</v>
       </c>
       <c r="AM26" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AN26" t="n">
         <v>22</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="G27" t="n">
         <v>1.74</v>
@@ -4084,10 +4084,10 @@
         <v>3.05</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V27" t="n">
         <v>1.15</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO27"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Romanian Liga II</t>
+          <t>Armenian Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,66 +653,66 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ACS Sepsi OSK</t>
+          <t>Ararat Armenia</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Poli Iasi</t>
+          <t>FC Shirak</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>610</v>
+        <v>290</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>870</v>
+        <v>32</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="Q2" t="n">
         <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S2" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="T2" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
@@ -736,10 +736,10 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,10 +748,10 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,75 +788,75 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>ACS Sepsi OSK</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SK Poltava</t>
+          <t>Poli Iasi</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="G3" t="n">
-        <v>1.18</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="I3" t="n">
-        <v>870</v>
+        <v>9.6</v>
       </c>
       <c r="J3" t="n">
-        <v>1.09</v>
+        <v>1.95</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>5.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>1.26</v>
       </c>
       <c r="O3" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>3.45</v>
+        <v>1.26</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="S3" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="W3" t="n">
-        <v>1.99</v>
+        <v>1.62</v>
       </c>
       <c r="X3" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -880,31 +880,31 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.72</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,96 +923,96 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>SK Poltava</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.5</v>
+        <v>1.13</v>
       </c>
       <c r="G4" t="n">
-        <v>4.2</v>
+        <v>1.18</v>
       </c>
       <c r="H4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I4" t="n">
+        <v>870</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K4" t="n">
+        <v>950</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R4" t="n">
         <v>2.16</v>
       </c>
-      <c r="I4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.27</v>
-      </c>
       <c r="S4" t="n">
-        <v>3.95</v>
+        <v>1.67</v>
       </c>
       <c r="T4" t="n">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="U4" t="n">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="V4" t="n">
-        <v>1.72</v>
+        <v>1.03</v>
       </c>
       <c r="W4" t="n">
-        <v>1.32</v>
+        <v>1.99</v>
       </c>
       <c r="X4" t="n">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>980</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
         <v>980</v>
@@ -1021,34 +1021,34 @@
         <v>980</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AI4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AK4" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AM4" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>65</v>
+        <v>2.72</v>
       </c>
       <c r="AO4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FC Metaloglobus Bucuresti</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.76</v>
+        <v>3.55</v>
       </c>
       <c r="G5" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="H5" t="n">
-        <v>5.5</v>
+        <v>2.18</v>
       </c>
       <c r="I5" t="n">
-        <v>6.4</v>
+        <v>2.34</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="L5" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>2.72</v>
+        <v>3.15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.46</v>
+        <v>2.16</v>
       </c>
       <c r="R5" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>4.7</v>
+        <v>3.95</v>
       </c>
       <c r="T5" t="n">
-        <v>2.14</v>
+        <v>1.84</v>
       </c>
       <c r="U5" t="n">
-        <v>1.69</v>
+        <v>1.94</v>
       </c>
       <c r="V5" t="n">
-        <v>1.18</v>
+        <v>1.74</v>
       </c>
       <c r="W5" t="n">
-        <v>2.1</v>
+        <v>1.35</v>
       </c>
       <c r="X5" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="n">
         <v>12</v>
       </c>
-      <c r="Y5" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>980</v>
-      </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>980</v>
       </c>
       <c r="AF5" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AH5" t="n">
         <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="AJ5" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AL5" t="n">
         <v>70</v>
       </c>
       <c r="AM5" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="AN5" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="AO5" t="n">
-        <v>240</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Stal Rzeszow</t>
+          <t>ACS Petrolul 52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pogon Grodzisk Mazowiecki</t>
+          <t>FC Metaloglobus Bucuresti</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.4</v>
+        <v>1.78</v>
       </c>
       <c r="G6" t="n">
-        <v>2.76</v>
+        <v>1.91</v>
       </c>
       <c r="H6" t="n">
-        <v>2.56</v>
+        <v>5.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.94</v>
+        <v>6.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>6.4</v>
+        <v>2.74</v>
       </c>
       <c r="O6" t="n">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>2.78</v>
+        <v>1.58</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.45</v>
+        <v>2.46</v>
       </c>
       <c r="R6" t="n">
-        <v>1.74</v>
+        <v>1.21</v>
       </c>
       <c r="S6" t="n">
-        <v>2.1</v>
+        <v>4.7</v>
       </c>
       <c r="T6" t="n">
-        <v>1.46</v>
+        <v>2.14</v>
       </c>
       <c r="U6" t="n">
-        <v>2.8</v>
+        <v>1.69</v>
       </c>
       <c r="V6" t="n">
-        <v>1.52</v>
+        <v>1.18</v>
       </c>
       <c r="W6" t="n">
-        <v>1.57</v>
+        <v>2.08</v>
       </c>
       <c r="X6" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Z6" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AA6" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="AB6" t="n">
-        <v>24</v>
+        <v>7.8</v>
       </c>
       <c r="AC6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG6" t="n">
         <v>13</v>
       </c>
-      <c r="AD6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>16</v>
-      </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="AJ6" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AM6" t="n">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c r="AN6" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AO6" t="n">
-        <v>15.5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Shakhtar</t>
+          <t>Stal Rzeszow</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Kryvbas Krivyi Rih</t>
+          <t>Pogon Grodzisk Mazowiecki</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.16</v>
+        <v>2.42</v>
       </c>
       <c r="G7" t="n">
-        <v>1.36</v>
+        <v>2.76</v>
       </c>
       <c r="H7" t="n">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="I7" t="n">
-        <v>870</v>
+        <v>2.98</v>
       </c>
       <c r="J7" t="n">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="K7" t="n">
-        <v>21</v>
+        <v>4.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>2.46</v>
+        <v>6.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>2.46</v>
+        <v>2.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="R7" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="S7" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>1.46</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>2.8</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="W7" t="n">
-        <v>3.75</v>
+        <v>1.57</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,36 +1463,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Kryvbas Krivyi Rih</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.21</v>
+        <v>1.09</v>
       </c>
       <c r="G8" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="H8" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I8" t="n">
-        <v>23</v>
+        <v>870</v>
       </c>
       <c r="J8" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="K8" t="n">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,88 +1501,88 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>2.54</v>
+        <v>1.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
-        <v>2.28</v>
+        <v>1.92</v>
       </c>
       <c r="T8" t="n">
-        <v>2.18</v>
+        <v>1.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.68</v>
+        <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="X8" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Akritas Chlorakas</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>1.21</v>
       </c>
       <c r="G9" t="n">
-        <v>17</v>
+        <v>1.27</v>
       </c>
       <c r="H9" t="n">
-        <v>1.33</v>
+        <v>16</v>
       </c>
       <c r="I9" t="n">
-        <v>1.39</v>
+        <v>23</v>
       </c>
       <c r="J9" t="n">
-        <v>4.4</v>
+        <v>6.8</v>
       </c>
       <c r="K9" t="n">
-        <v>6.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L9" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>1.9</v>
+        <v>2.54</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.89</v>
+        <v>1.53</v>
       </c>
       <c r="R9" t="n">
-        <v>1.34</v>
+        <v>1.63</v>
       </c>
       <c r="S9" t="n">
-        <v>3.3</v>
+        <v>2.28</v>
       </c>
       <c r="T9" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="U9" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="V9" t="n">
-        <v>3.5</v>
+        <v>1.04</v>
       </c>
       <c r="W9" t="n">
-        <v>1.06</v>
+        <v>4.7</v>
       </c>
       <c r="X9" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.199999999999999</v>
+        <v>65</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.6</v>
+        <v>210</v>
       </c>
       <c r="AA9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="n">
-        <v>980</v>
+        <v>380</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG9" t="n">
-        <v>60</v>
+        <v>14.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AI9" t="n">
-        <v>65</v>
+        <v>260</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.6</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Universitatea Cluj</t>
+          <t>Akritas Chlorakas</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.15</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="H10" t="n">
-        <v>2.32</v>
+        <v>1.33</v>
       </c>
       <c r="I10" t="n">
-        <v>2.6</v>
+        <v>1.39</v>
       </c>
       <c r="J10" t="n">
-        <v>3.15</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.6</v>
+        <v>5.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="R10" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="S10" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="T10" t="n">
-        <v>1.81</v>
+        <v>2.34</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="V10" t="n">
-        <v>1.63</v>
+        <v>3.5</v>
       </c>
       <c r="W10" t="n">
-        <v>1.39</v>
+        <v>1.06</v>
       </c>
       <c r="X10" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z10" t="n">
-        <v>18</v>
+        <v>8.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AB10" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AD10" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ10" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>30</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Universitatea Cluj</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8.199999999999999</v>
+        <v>3.15</v>
       </c>
       <c r="G11" t="n">
-        <v>11.5</v>
+        <v>3.55</v>
       </c>
       <c r="H11" t="n">
-        <v>1.28</v>
+        <v>2.34</v>
       </c>
       <c r="I11" t="n">
-        <v>1.36</v>
+        <v>2.58</v>
       </c>
       <c r="J11" t="n">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>7.8</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>1.1</v>
+        <v>3.25</v>
       </c>
       <c r="O11" t="n">
-        <v>1.11</v>
+        <v>1.37</v>
       </c>
       <c r="P11" t="n">
-        <v>3.25</v>
+        <v>1.76</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.35</v>
+        <v>2.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1.92</v>
+        <v>1.29</v>
       </c>
       <c r="S11" t="n">
-        <v>1.78</v>
+        <v>3.85</v>
       </c>
       <c r="T11" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="U11" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
-        <v>3.7</v>
+        <v>1.63</v>
       </c>
       <c r="W11" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="X11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK11" t="n">
         <v>55</v>
       </c>
-      <c r="Y11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB11" t="n">
+      <c r="AL11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN11" t="n">
         <v>55</v>
       </c>
-      <c r="AC11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>330</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>130</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>110</v>
-      </c>
       <c r="AO11" t="n">
-        <v>3.7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.32</v>
+        <v>7.6</v>
       </c>
       <c r="G12" t="n">
-        <v>2.36</v>
+        <v>11.5</v>
       </c>
       <c r="H12" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K12" t="n">
+        <v>8</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P12" t="n">
         <v>3.3</v>
       </c>
-      <c r="I12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.26</v>
-      </c>
       <c r="Q12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T12" t="n">
         <v>1.71</v>
       </c>
-      <c r="R12" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.61</v>
-      </c>
       <c r="U12" t="n">
-        <v>2.46</v>
+        <v>2.12</v>
       </c>
       <c r="V12" t="n">
-        <v>1.41</v>
+        <v>3.75</v>
       </c>
       <c r="W12" t="n">
-        <v>1.73</v>
+        <v>1.1</v>
       </c>
       <c r="X12" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>26</v>
+        <v>12.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
-        <v>13.5</v>
+        <v>55</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.6</v>
+        <v>18.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AE12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>130</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI12" t="n">
         <v>34</v>
       </c>
-      <c r="AF12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>40</v>
-      </c>
       <c r="AJ12" t="n">
-        <v>32</v>
+        <v>360</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="AL12" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="AM12" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="n">
-        <v>17.5</v>
+        <v>120</v>
       </c>
       <c r="AO12" t="n">
-        <v>25</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="13">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.85</v>
+        <v>2.36</v>
       </c>
       <c r="G13" t="n">
-        <v>1.87</v>
+        <v>2.38</v>
       </c>
       <c r="H13" t="n">
-        <v>5.2</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>5.3</v>
+        <v>3.35</v>
       </c>
       <c r="J13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.7</v>
       </c>
-      <c r="K13" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L13" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>1.93</v>
+        <v>2.26</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.94</v>
+        <v>1.72</v>
       </c>
       <c r="R13" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="S13" t="n">
-        <v>3.4</v>
+        <v>2.76</v>
       </c>
       <c r="T13" t="n">
-        <v>1.79</v>
+        <v>1.61</v>
       </c>
       <c r="U13" t="n">
-        <v>2.08</v>
+        <v>2.5</v>
       </c>
       <c r="V13" t="n">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
       <c r="W13" t="n">
-        <v>2.16</v>
+        <v>1.73</v>
       </c>
       <c r="X13" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH13" t="n">
         <v>15</v>
       </c>
-      <c r="Y13" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AI13" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AK13" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AM13" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AN13" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="G14" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
         <v>5.1</v>
       </c>
       <c r="J14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.65</v>
       </c>
-      <c r="K14" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.37</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P14" t="n">
+      <c r="S14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.8</v>
       </c>
-      <c r="Q14" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.91</v>
-      </c>
       <c r="U14" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W14" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X14" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="Z14" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AB14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC14" t="n">
         <v>8.4</v>
       </c>
-      <c r="AC14" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AD14" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AF14" t="n">
         <v>11.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AI14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AO14" t="n">
         <v>80</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>110</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.31</v>
+        <v>1.86</v>
       </c>
       <c r="G15" t="n">
-        <v>1.33</v>
+        <v>1.95</v>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>4.6</v>
       </c>
       <c r="I15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="X15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF15" t="n">
         <v>11.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N15" t="n">
-        <v>7</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W15" t="n">
-        <v>4</v>
-      </c>
-      <c r="X15" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>370</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>11</v>
       </c>
       <c r="AG15" t="n">
         <v>12.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AL15" t="n">
         <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AN15" t="n">
-        <v>4</v>
+        <v>17.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LKP Motor Lublin</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.4</v>
+        <v>1.31</v>
       </c>
       <c r="G16" t="n">
-        <v>3.7</v>
+        <v>1.32</v>
       </c>
       <c r="H16" t="n">
-        <v>2.14</v>
+        <v>10</v>
       </c>
       <c r="I16" t="n">
-        <v>2.26</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>6.6</v>
       </c>
       <c r="K16" t="n">
-        <v>3.9</v>
+        <v>7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>3.9</v>
+        <v>7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="P16" t="n">
-        <v>2.02</v>
+        <v>3.05</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="R16" t="n">
-        <v>1.39</v>
+        <v>1.85</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>2.06</v>
       </c>
       <c r="T16" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="U16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>1.79</v>
+        <v>1.09</v>
       </c>
       <c r="W16" t="n">
-        <v>1.37</v>
+        <v>4</v>
       </c>
       <c r="X16" t="n">
         <v>980</v>
       </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="Z16" t="n">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="AA16" t="n">
-        <v>980</v>
+        <v>370</v>
       </c>
       <c r="AB16" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AC16" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AE16" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AF16" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AG16" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AI16" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AJ16" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AL16" t="n">
         <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>980</v>
+        <v>3.85</v>
       </c>
       <c r="AO16" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,126 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>LKP Motor Lublin</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.86</v>
+        <v>3.4</v>
       </c>
       <c r="G17" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H17" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I17" t="n">
         <v>2.26</v>
       </c>
-      <c r="I17" t="n">
-        <v>2.58</v>
-      </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="P17" t="n">
-        <v>2.46</v>
+        <v>2.02</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.59</v>
+        <v>1.39</v>
       </c>
       <c r="S17" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="U17" t="n">
-        <v>2.52</v>
+        <v>2.18</v>
       </c>
       <c r="V17" t="n">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="W17" t="n">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="X17" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="Y17" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="Z17" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AA17" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AB17" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AC17" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AF17" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AH17" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AI17" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AJ17" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AL17" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AN17" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AO17" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
     </row>
     <row r="18">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="G18" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="H18" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="I18" t="n">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K18" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>3.4</v>
+        <v>2.46</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="R18" t="n">
-        <v>1.98</v>
+        <v>1.6</v>
       </c>
       <c r="S18" t="n">
-        <v>1.75</v>
+        <v>2.38</v>
       </c>
       <c r="T18" t="n">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>2.52</v>
       </c>
       <c r="V18" t="n">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="W18" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="X18" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="Y18" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AA18" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AC18" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AF18" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AG18" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AJ18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM18" t="n">
         <v>70</v>
       </c>
-      <c r="AK18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>48</v>
-      </c>
       <c r="AN18" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,126 +2948,126 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N19" t="n">
+        <v>7</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P19" t="n">
         <v>3.4</v>
       </c>
-      <c r="G19" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.51</v>
-      </c>
       <c r="Q19" t="n">
-        <v>2.46</v>
+        <v>1.3</v>
       </c>
       <c r="R19" t="n">
-        <v>1.18</v>
+        <v>1.99</v>
       </c>
       <c r="S19" t="n">
-        <v>4.7</v>
+        <v>1.78</v>
       </c>
       <c r="T19" t="n">
-        <v>2.02</v>
+        <v>1.41</v>
       </c>
       <c r="U19" t="n">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
-        <v>1.62</v>
+        <v>1.87</v>
       </c>
       <c r="W19" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="X19" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="Y19" t="n">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="Z19" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AB19" t="n">
-        <v>12.5</v>
+        <v>36</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.6</v>
+        <v>16</v>
       </c>
       <c r="AD19" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF19" t="n">
         <v>42</v>
       </c>
-      <c r="AF19" t="n">
-        <v>32</v>
-      </c>
       <c r="AG19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>48</v>
+      </c>
+      <c r="AN19" t="n">
         <v>18</v>
       </c>
-      <c r="AH19" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>110</v>
-      </c>
       <c r="AO19" t="n">
-        <v>44</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.98</v>
+        <v>3.7</v>
       </c>
       <c r="G20" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N20" t="n">
         <v>2.56</v>
       </c>
-      <c r="H20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="O20" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S20" t="n">
         <v>4.9</v>
       </c>
-      <c r="J20" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K20" t="n">
-        <v>980</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.82</v>
-      </c>
       <c r="T20" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="U20" t="n">
-        <v>1.04</v>
+        <v>1.76</v>
       </c>
       <c r="V20" t="n">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="W20" t="n">
-        <v>1.64</v>
+        <v>1.28</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.52</v>
+        <v>1.98</v>
       </c>
       <c r="G21" t="n">
-        <v>1.53</v>
+        <v>2.58</v>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>9.199999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="J21" t="n">
-        <v>4.3</v>
+        <v>2.86</v>
       </c>
       <c r="K21" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>3.55</v>
+        <v>1.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="P21" t="n">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.16</v>
+        <v>1.85</v>
       </c>
       <c r="R21" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>2.82</v>
       </c>
       <c r="T21" t="n">
-        <v>2.34</v>
+        <v>1.04</v>
       </c>
       <c r="U21" t="n">
-        <v>1.71</v>
+        <v>1.04</v>
       </c>
       <c r="V21" t="n">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="W21" t="n">
-        <v>2.9</v>
+        <v>1.64</v>
       </c>
       <c r="X21" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.46</v>
+        <v>1.52</v>
       </c>
       <c r="G22" t="n">
-        <v>2.68</v>
+        <v>1.54</v>
       </c>
       <c r="H22" t="n">
-        <v>3.45</v>
+        <v>8.6</v>
       </c>
       <c r="I22" t="n">
-        <v>3.85</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>2.96</v>
+        <v>4.3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="M22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V22" t="n">
         <v>1.12</v>
       </c>
-      <c r="N22" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S22" t="n">
-        <v>6</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.35</v>
-      </c>
       <c r="W22" t="n">
-        <v>1.6</v>
+        <v>2.86</v>
       </c>
       <c r="X22" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN22" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="Z22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>270</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>980</v>
-      </c>
       <c r="AO22" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.06</v>
+        <v>2.46</v>
       </c>
       <c r="G23" t="n">
-        <v>2.08</v>
+        <v>2.68</v>
       </c>
       <c r="H23" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="I23" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="J23" t="n">
-        <v>3.45</v>
+        <v>2.86</v>
       </c>
       <c r="K23" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="M23" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="N23" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="P23" t="n">
-        <v>1.79</v>
+        <v>1.45</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.22</v>
+        <v>2.84</v>
       </c>
       <c r="R23" t="n">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="S23" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="T23" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="U23" t="n">
-        <v>1.98</v>
+        <v>1.69</v>
       </c>
       <c r="V23" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="W23" t="n">
-        <v>1.92</v>
+        <v>1.59</v>
       </c>
       <c r="X23" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y23" t="n">
-        <v>13.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z23" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AA23" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF23" t="n">
         <v>18</v>
       </c>
-      <c r="AE23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AH23" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AI23" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AJ23" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AK23" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL23" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AM23" t="n">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c r="AN23" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AO23" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6.8</v>
+        <v>2.08</v>
       </c>
       <c r="G24" t="n">
-        <v>7.4</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
-        <v>1.57</v>
+        <v>4.3</v>
       </c>
       <c r="I24" t="n">
-        <v>1.58</v>
+        <v>4.4</v>
       </c>
       <c r="J24" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="K24" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S24" t="n">
         <v>4.1</v>
       </c>
-      <c r="O24" t="n">
+      <c r="T24" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V24" t="n">
         <v>1.29</v>
       </c>
-      <c r="P24" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.72</v>
-      </c>
       <c r="W24" t="n">
-        <v>1.16</v>
+        <v>1.91</v>
       </c>
       <c r="X24" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH24" t="n">
         <v>20</v>
       </c>
-      <c r="Y24" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>980</v>
-      </c>
       <c r="AI24" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL24" t="n">
         <v>44</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>260</v>
-      </c>
-      <c r="AK24" t="n">
+      <c r="AM24" t="n">
         <v>130</v>
       </c>
-      <c r="AL24" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>160</v>
-      </c>
       <c r="AN24" t="n">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="AO24" t="n">
-        <v>8.800000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.91</v>
+        <v>6.6</v>
       </c>
       <c r="G25" t="n">
-        <v>1.96</v>
+        <v>7.2</v>
       </c>
       <c r="H25" t="n">
-        <v>4.1</v>
+        <v>1.57</v>
       </c>
       <c r="I25" t="n">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="J25" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="K25" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T25" t="n">
         <v>1.99</v>
       </c>
-      <c r="Q25" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.79</v>
-      </c>
       <c r="U25" t="n">
-        <v>2.14</v>
+        <v>1.94</v>
       </c>
       <c r="V25" t="n">
-        <v>1.29</v>
+        <v>2.66</v>
       </c>
       <c r="W25" t="n">
-        <v>2.04</v>
+        <v>1.16</v>
       </c>
       <c r="X25" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Y25" t="n">
-        <v>17</v>
+        <v>8.6</v>
       </c>
       <c r="Z25" t="n">
-        <v>34</v>
+        <v>9.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.4</v>
+        <v>25</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>18.5</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AF25" t="n">
-        <v>12.5</v>
+        <v>60</v>
       </c>
       <c r="AG25" t="n">
-        <v>10.5</v>
+        <v>29</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AI25" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AJ25" t="n">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="AK25" t="n">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="AL25" t="n">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="AM25" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AN25" t="n">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="AO25" t="n">
-        <v>55</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,260 +3893,395 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="G26" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="H26" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="I26" t="n">
-        <v>6.8</v>
+        <v>4.8</v>
       </c>
       <c r="J26" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="K26" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
       <c r="M26" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>2.74</v>
+        <v>3.9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="n">
-        <v>1.59</v>
+        <v>1.99</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.44</v>
+        <v>1.91</v>
       </c>
       <c r="R26" t="n">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="S26" t="n">
-        <v>4.3</v>
+        <v>3.15</v>
       </c>
       <c r="T26" t="n">
-        <v>2.22</v>
+        <v>1.79</v>
       </c>
       <c r="U26" t="n">
-        <v>1.7</v>
+        <v>2.12</v>
       </c>
       <c r="V26" t="n">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="W26" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="X26" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y26" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH26" t="n">
         <v>19</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AI26" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AO26" t="n">
         <v>60</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>270</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>270</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>270</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I27" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W27" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="X27" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>270</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>2025-12-01</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>22:00:00</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Ind Medellin</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>America de Cali S.A</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="F28" t="n">
         <v>1.64</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G28" t="n">
         <v>1.74</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H28" t="n">
         <v>5.5</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I28" t="n">
         <v>7.6</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J28" t="n">
         <v>3.9</v>
       </c>
-      <c r="K27" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L27" t="n">
+      <c r="K28" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L28" t="n">
         <v>1.01</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M28" t="n">
         <v>1.01</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N28" t="n">
         <v>2.62</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O28" t="n">
         <v>1.32</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P28" t="n">
         <v>1.92</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q28" t="n">
         <v>1.91</v>
       </c>
-      <c r="R27" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S27" t="n">
+      <c r="R28" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S28" t="n">
         <v>3.05</v>
       </c>
-      <c r="T27" t="n">
+      <c r="T28" t="n">
         <v>1.04</v>
       </c>
-      <c r="U27" t="n">
+      <c r="U28" t="n">
         <v>1.81</v>
       </c>
-      <c r="V27" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W27" t="n">
+      <c r="V28" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W28" t="n">
         <v>2.34</v>
       </c>
-      <c r="X27" t="n">
+      <c r="X28" t="n">
         <v>22</v>
       </c>
-      <c r="Y27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO27" t="n">
+      <c r="Y28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO28" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -694,7 +694,7 @@
         <v>1.24</v>
       </c>
       <c r="O2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P2" t="n">
         <v>1.21</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>2.22</v>
       </c>
       <c r="H3" t="n">
-        <v>2.24</v>
+        <v>2.66</v>
       </c>
       <c r="I3" t="n">
         <v>9.6</v>
       </c>
       <c r="J3" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="K3" t="n">
         <v>5.8</v>
@@ -850,10 +850,10 @@
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="X3" t="n">
         <v>21</v>
@@ -940,7 +940,7 @@
         <v>1.13</v>
       </c>
       <c r="G4" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="H4" t="n">
         <v>1.04</v>
@@ -955,40 +955,40 @@
         <v>950</v>
       </c>
       <c r="L4" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.42</v>
+        <v>2.04</v>
       </c>
       <c r="O4" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P4" t="n">
         <v>3.45</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="R4" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="T4" t="n">
         <v>2.02</v>
       </c>
       <c r="U4" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V4" t="n">
         <v>1.03</v>
       </c>
       <c r="W4" t="n">
-        <v>1.99</v>
+        <v>4.8</v>
       </c>
       <c r="X4" t="n">
         <v>80</v>
@@ -1027,7 +1027,7 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
         <v>980</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
         <v>3.55</v>
@@ -1096,10 +1096,10 @@
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P5" t="n">
         <v>1.73</v>
@@ -1114,13 +1114,13 @@
         <v>3.95</v>
       </c>
       <c r="T5" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U5" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V5" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W5" t="n">
         <v>1.35</v>
@@ -1210,10 +1210,10 @@
         <v>1.78</v>
       </c>
       <c r="G6" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="H6" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I6" t="n">
         <v>6.4</v>
@@ -1222,16 +1222,16 @@
         <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L6" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1249,7 +1249,7 @@
         <v>4.7</v>
       </c>
       <c r="T6" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U6" t="n">
         <v>1.69</v>
@@ -1258,7 +1258,7 @@
         <v>1.18</v>
       </c>
       <c r="W6" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="X6" t="n">
         <v>12</v>
@@ -1267,16 +1267,16 @@
         <v>18</v>
       </c>
       <c r="Z6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA6" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AB6" t="n">
         <v>7.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD6" t="n">
         <v>980</v>
@@ -1288,7 +1288,7 @@
         <v>11.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AH6" t="n">
         <v>980</v>
@@ -1312,7 +1312,7 @@
         <v>23</v>
       </c>
       <c r="AO6" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7">
@@ -1345,19 +1345,19 @@
         <v>2.42</v>
       </c>
       <c r="G7" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="H7" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="I7" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="J7" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.2</v>
@@ -1366,7 +1366,7 @@
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.15</v>
@@ -1387,34 +1387,34 @@
         <v>1.46</v>
       </c>
       <c r="U7" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="V7" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W7" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X7" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
         <v>50</v>
       </c>
       <c r="AB7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE7" t="n">
         <v>30</v>
@@ -1423,16 +1423,16 @@
         <v>28</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI7" t="n">
         <v>34</v>
       </c>
       <c r="AJ7" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="n">
         <v>28</v>
@@ -1444,7 +1444,7 @@
         <v>55</v>
       </c>
       <c r="AN7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO7" t="n">
         <v>15.5</v>
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="G8" t="n">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="H8" t="n">
-        <v>12</v>
+        <v>1.49</v>
       </c>
       <c r="I8" t="n">
-        <v>870</v>
+        <v>24</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="K8" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>1.1</v>
+        <v>3.45</v>
       </c>
       <c r="O8" t="n">
         <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>1.25</v>
+        <v>2.74</v>
       </c>
       <c r="Q8" t="n">
         <v>1.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="S8" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="T8" t="n">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>1.76</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="W8" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9">
@@ -1633,7 +1633,7 @@
         <v>1.22</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
         <v>5.5</v>
@@ -1651,10 +1651,10 @@
         <v>1.63</v>
       </c>
       <c r="S9" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="T9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U9" t="n">
         <v>1.69</v>
@@ -1666,7 +1666,7 @@
         <v>4.7</v>
       </c>
       <c r="X9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y9" t="n">
         <v>65</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="G10" t="n">
         <v>17</v>
       </c>
       <c r="H10" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="I10" t="n">
         <v>1.39</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K10" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L10" t="n">
         <v>1.32</v>
@@ -1777,13 +1777,13 @@
         <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="R10" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S10" t="n">
         <v>3.35</v>
@@ -1795,7 +1795,7 @@
         <v>1.61</v>
       </c>
       <c r="V10" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="W10" t="n">
         <v>1.06</v>
@@ -1810,13 +1810,13 @@
         <v>8.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AB10" t="n">
         <v>980</v>
       </c>
       <c r="AC10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD10" t="n">
         <v>980</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G11" t="n">
         <v>3.55</v>
@@ -1900,7 +1900,7 @@
         <v>3.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -1930,7 +1930,7 @@
         <v>2.02</v>
       </c>
       <c r="V11" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W11" t="n">
         <v>1.4</v>
@@ -1966,7 +1966,7 @@
         <v>17</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
         <v>50</v>
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="G12" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="H12" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="I12" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="J12" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="K12" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
@@ -2044,52 +2044,52 @@
         <v>1.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="P12" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="R12" t="n">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="S12" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="T12" t="n">
         <v>1.71</v>
       </c>
       <c r="U12" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="W12" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="X12" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AC12" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AD12" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
         <v>14.5</v>
@@ -2098,31 +2098,31 @@
         <v>130</v>
       </c>
       <c r="AG12" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AH12" t="n">
         <v>27</v>
       </c>
       <c r="AI12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ12" t="n">
         <v>360</v>
       </c>
       <c r="AK12" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AL12" t="n">
         <v>110</v>
       </c>
       <c r="AM12" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN12" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="13">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G13" t="n">
         <v>2.38</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
         <v>3.35</v>
@@ -2167,7 +2167,7 @@
         <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
         <v>1.33</v>
@@ -2179,31 +2179,31 @@
         <v>4.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
         <v>2.26</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R13" t="n">
         <v>1.51</v>
       </c>
       <c r="S13" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="T13" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U13" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V13" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W13" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X13" t="n">
         <v>18</v>
@@ -2218,10 +2218,10 @@
         <v>55</v>
       </c>
       <c r="AB13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD13" t="n">
         <v>14</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="G14" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="I14" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J14" t="n">
         <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L14" t="n">
         <v>1.42</v>
@@ -2311,76 +2311,76 @@
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
         <v>1.94</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R14" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U14" t="n">
         <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W14" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="X14" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z14" t="n">
         <v>38</v>
       </c>
       <c r="AA14" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AB14" t="n">
         <v>9</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF14" t="n">
         <v>11.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ14" t="n">
         <v>21</v>
       </c>
       <c r="AK14" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL14" t="n">
         <v>38</v>
@@ -2389,10 +2389,10 @@
         <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO14" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -2425,16 +2425,16 @@
         <v>1.86</v>
       </c>
       <c r="G15" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K15" t="n">
         <v>3.8</v>
@@ -2473,7 +2473,7 @@
         <v>1.25</v>
       </c>
       <c r="W15" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X15" t="n">
         <v>15.5</v>
@@ -2503,7 +2503,7 @@
         <v>11.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
         <v>980</v>
@@ -2524,7 +2524,7 @@
         <v>160</v>
       </c>
       <c r="AN15" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AO15" t="n">
         <v>110</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G16" t="n">
         <v>1.31</v>
       </c>
-      <c r="G16" t="n">
-        <v>1.32</v>
-      </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J16" t="n">
         <v>6.6</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="L16" t="n">
         <v>1.19</v>
@@ -2590,7 +2590,7 @@
         <v>3.05</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R16" t="n">
         <v>1.85</v>
@@ -2599,31 +2599,31 @@
         <v>2.06</v>
       </c>
       <c r="T16" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="U16" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V16" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W16" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="X16" t="n">
         <v>980</v>
       </c>
       <c r="Y16" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Z16" t="n">
         <v>120</v>
       </c>
       <c r="AA16" t="n">
-        <v>370</v>
+        <v>450</v>
       </c>
       <c r="AB16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC16" t="n">
         <v>16.5</v>
@@ -2635,10 +2635,10 @@
         <v>160</v>
       </c>
       <c r="AF16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
         <v>27</v>
@@ -2650,7 +2650,7 @@
         <v>12</v>
       </c>
       <c r="AK16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL16" t="n">
         <v>980</v>
@@ -2659,7 +2659,7 @@
         <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="AO16" t="n">
         <v>150</v>
@@ -2698,10 +2698,10 @@
         <v>3.7</v>
       </c>
       <c r="H17" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="I17" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J17" t="n">
         <v>3.6</v>
@@ -2716,19 +2716,19 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O17" t="n">
         <v>1.27</v>
       </c>
       <c r="P17" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R17" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S17" t="n">
         <v>3</v>
@@ -2737,10 +2737,10 @@
         <v>1.68</v>
       </c>
       <c r="U17" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V17" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W17" t="n">
         <v>1.37</v>
@@ -2749,10 +2749,10 @@
         <v>980</v>
       </c>
       <c r="Y17" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="Z17" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AA17" t="n">
         <v>980</v>
@@ -2761,10 +2761,10 @@
         <v>980</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD17" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AE17" t="n">
         <v>980</v>
@@ -2782,7 +2782,7 @@
         <v>980</v>
       </c>
       <c r="AJ17" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AK17" t="n">
         <v>980</v>
@@ -2791,7 +2791,7 @@
         <v>980</v>
       </c>
       <c r="AM17" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN17" t="n">
         <v>980</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
         <v>3.35</v>
@@ -2836,16 +2836,16 @@
         <v>2.2</v>
       </c>
       <c r="I18" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="J18" t="n">
         <v>3.75</v>
       </c>
       <c r="K18" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -2854,43 +2854,43 @@
         <v>5.3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P18" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q18" t="n">
         <v>1.57</v>
       </c>
       <c r="R18" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S18" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="T18" t="n">
         <v>1.54</v>
       </c>
       <c r="U18" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="V18" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="W18" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X18" t="n">
         <v>32</v>
       </c>
       <c r="Y18" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA18" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB18" t="n">
         <v>22</v>
@@ -2902,37 +2902,37 @@
         <v>14.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF18" t="n">
         <v>32</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH18" t="n">
         <v>18</v>
       </c>
       <c r="AI18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK18" t="n">
         <v>36</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AL18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM18" t="n">
         <v>60</v>
       </c>
-      <c r="AK18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>70</v>
-      </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="19">
@@ -2965,25 +2965,25 @@
         <v>3.2</v>
       </c>
       <c r="G19" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H19" t="n">
         <v>1.99</v>
       </c>
       <c r="I19" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K19" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L19" t="n">
         <v>1.2</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
         <v>7</v>
@@ -2998,10 +2998,10 @@
         <v>1.3</v>
       </c>
       <c r="R19" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="S19" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="T19" t="n">
         <v>1.41</v>
@@ -3010,13 +3010,13 @@
         <v>3</v>
       </c>
       <c r="V19" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W19" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X19" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Y19" t="n">
         <v>980</v>
@@ -3025,16 +3025,16 @@
         <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AB19" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AC19" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AD19" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE19" t="n">
         <v>23</v>
@@ -3046,28 +3046,28 @@
         <v>980</v>
       </c>
       <c r="AH19" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI19" t="n">
         <v>980</v>
       </c>
       <c r="AJ19" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AL19" t="n">
         <v>36</v>
       </c>
       <c r="AM19" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AN19" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="20">
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G20" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H20" t="n">
         <v>2.12</v>
@@ -3115,13 +3115,13 @@
         <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="M20" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N20" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="O20" t="n">
         <v>1.48</v>
@@ -3136,22 +3136,22 @@
         <v>1.19</v>
       </c>
       <c r="S20" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="T20" t="n">
         <v>2.02</v>
       </c>
       <c r="U20" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="V20" t="n">
         <v>1.7</v>
       </c>
       <c r="W20" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X20" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y20" t="n">
         <v>7.8</v>
@@ -3160,7 +3160,7 @@
         <v>14</v>
       </c>
       <c r="AA20" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="n">
         <v>12</v>
@@ -3172,7 +3172,7 @@
         <v>12.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AF20" t="n">
         <v>32</v>
@@ -3202,7 +3202,7 @@
         <v>110</v>
       </c>
       <c r="AO20" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -3238,13 +3238,13 @@
         <v>2.58</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I21" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="K21" t="n">
         <v>4.1</v>
@@ -3280,7 +3280,7 @@
         <v>1.04</v>
       </c>
       <c r="V21" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W21" t="n">
         <v>1.64</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G22" t="n">
         <v>1.52</v>
       </c>
-      <c r="G22" t="n">
-        <v>1.54</v>
-      </c>
       <c r="H22" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J22" t="n">
         <v>4.3</v>
@@ -3391,7 +3391,7 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O22" t="n">
         <v>1.38</v>
@@ -3406,25 +3406,25 @@
         <v>1.31</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T22" t="n">
         <v>2.32</v>
       </c>
       <c r="U22" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V22" t="n">
         <v>1.12</v>
       </c>
       <c r="W22" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="X22" t="n">
         <v>12</v>
       </c>
       <c r="Y22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z22" t="n">
         <v>75</v>
@@ -3454,16 +3454,16 @@
         <v>30</v>
       </c>
       <c r="AI22" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK22" t="n">
         <v>18</v>
       </c>
       <c r="AL22" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM22" t="n">
         <v>230</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G23" t="n">
         <v>2.68</v>
@@ -3511,13 +3511,13 @@
         <v>3.45</v>
       </c>
       <c r="I23" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J23" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="K23" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
         <v>1.62</v>
@@ -3553,7 +3553,7 @@
         <v>1.35</v>
       </c>
       <c r="W23" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X23" t="n">
         <v>8</v>
@@ -3637,58 +3637,58 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I24" t="n">
         <v>4.3</v>
       </c>
-      <c r="I24" t="n">
-        <v>4.4</v>
-      </c>
       <c r="J24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K24" t="n">
         <v>3.45</v>
       </c>
-      <c r="K24" t="n">
-        <v>3.5</v>
-      </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M24" t="n">
         <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P24" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R24" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T24" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U24" t="n">
         <v>1.98</v>
       </c>
       <c r="V24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W24" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="X24" t="n">
         <v>11</v>
@@ -3697,22 +3697,22 @@
         <v>13.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA24" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AB24" t="n">
         <v>8.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF24" t="n">
         <v>11.5</v>
@@ -3721,28 +3721,28 @@
         <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK24" t="n">
         <v>24</v>
       </c>
-      <c r="AK24" t="n">
-        <v>23</v>
-      </c>
       <c r="AL24" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM24" t="n">
         <v>130</v>
       </c>
       <c r="AN24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO24" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
@@ -3775,16 +3775,16 @@
         <v>6.6</v>
       </c>
       <c r="G25" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="H25" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="I25" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="J25" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="K25" t="n">
         <v>4.6</v>
@@ -3802,16 +3802,16 @@
         <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R25" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T25" t="n">
         <v>1.99</v>
@@ -3820,7 +3820,7 @@
         <v>1.94</v>
       </c>
       <c r="V25" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="W25" t="n">
         <v>1.16</v>
@@ -3838,7 +3838,7 @@
         <v>15</v>
       </c>
       <c r="AB25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC25" t="n">
         <v>10.5</v>
@@ -3853,7 +3853,7 @@
         <v>60</v>
       </c>
       <c r="AG25" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AH25" t="n">
         <v>980</v>
@@ -3862,7 +3862,7 @@
         <v>980</v>
       </c>
       <c r="AJ25" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AK25" t="n">
         <v>130</v>
@@ -3877,7 +3877,7 @@
         <v>160</v>
       </c>
       <c r="AO25" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -3907,19 +3907,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="G26" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H26" t="n">
         <v>4.3</v>
       </c>
       <c r="I26" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K26" t="n">
         <v>4.1</v>
@@ -3931,7 +3931,7 @@
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="O26" t="n">
         <v>1.3</v>
@@ -3952,19 +3952,19 @@
         <v>1.79</v>
       </c>
       <c r="U26" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V26" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W26" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X26" t="n">
         <v>15</v>
       </c>
       <c r="Y26" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z26" t="n">
         <v>34</v>
@@ -3976,7 +3976,7 @@
         <v>9.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD26" t="n">
         <v>18.5</v>
@@ -3988,10 +3988,10 @@
         <v>12.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI26" t="n">
         <v>65</v>
@@ -4051,10 +4051,10 @@
         <v>5.9</v>
       </c>
       <c r="I27" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="J27" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K27" t="n">
         <v>3.7</v>
@@ -4084,7 +4084,7 @@
         <v>4.8</v>
       </c>
       <c r="T27" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U27" t="n">
         <v>1.7</v>
@@ -4126,7 +4126,7 @@
         <v>13</v>
       </c>
       <c r="AH27" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AI27" t="n">
         <v>170</v>
@@ -4138,7 +4138,7 @@
         <v>29</v>
       </c>
       <c r="AL27" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM27" t="n">
         <v>270</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -802,37 +802,37 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.41</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
         <v>2.22</v>
       </c>
       <c r="H3" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="I3" t="n">
         <v>9.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="P3" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="Q3" t="n">
         <v>1.6</v>
@@ -937,61 +937,61 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="G4" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I4" t="n">
-        <v>870</v>
+        <v>980</v>
       </c>
       <c r="J4" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L4" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.04</v>
+        <v>1.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="P4" t="n">
         <v>3.45</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="R4" t="n">
-        <v>2.2</v>
+        <v>2.72</v>
       </c>
       <c r="S4" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="U4" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="V4" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>4.8</v>
+        <v>1.99</v>
       </c>
       <c r="X4" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1021,13 +1021,13 @@
         <v>980</v>
       </c>
       <c r="AH4" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AK4" t="n">
         <v>980</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.48</v>
+        <v>1.93</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,40 +1072,40 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K5" t="n">
         <v>3.6</v>
       </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M5" t="n">
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P5" t="n">
         <v>1.73</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R5" t="n">
         <v>1.27</v>
@@ -1114,22 +1114,22 @@
         <v>3.95</v>
       </c>
       <c r="T5" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="U5" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V5" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="W5" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="X5" t="n">
         <v>14</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z5" t="n">
         <v>980</v>
@@ -1165,7 +1165,7 @@
         <v>95</v>
       </c>
       <c r="AK5" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AL5" t="n">
         <v>70</v>
@@ -1174,7 +1174,7 @@
         <v>150</v>
       </c>
       <c r="AN5" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AO5" t="n">
         <v>980</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="G6" t="n">
         <v>1.88</v>
@@ -1222,25 +1222,25 @@
         <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="L6" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="R6" t="n">
         <v>1.21</v>
@@ -1252,16 +1252,16 @@
         <v>2.16</v>
       </c>
       <c r="U6" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V6" t="n">
         <v>1.18</v>
       </c>
       <c r="W6" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y6" t="n">
         <v>18</v>
@@ -1273,7 +1273,7 @@
         <v>230</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AC6" t="n">
         <v>8.6</v>
@@ -1285,7 +1285,7 @@
         <v>140</v>
       </c>
       <c r="AF6" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG6" t="n">
         <v>980</v>
@@ -1306,10 +1306,10 @@
         <v>70</v>
       </c>
       <c r="AM6" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO6" t="n">
         <v>230</v>
@@ -1351,10 +1351,10 @@
         <v>2.58</v>
       </c>
       <c r="I7" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K7" t="n">
         <v>4.4</v>
@@ -1366,49 +1366,49 @@
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="Q7" t="n">
         <v>1.45</v>
       </c>
       <c r="R7" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
         <v>2.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="U7" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="V7" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W7" t="n">
         <v>1.6</v>
       </c>
       <c r="X7" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Y7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA7" t="n">
         <v>50</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
         <v>11.5</v>
@@ -1426,25 +1426,25 @@
         <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
         <v>34</v>
       </c>
       <c r="AJ7" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AK7" t="n">
         <v>28</v>
       </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM7" t="n">
         <v>55</v>
       </c>
       <c r="AN7" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AO7" t="n">
         <v>15.5</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G8" t="n">
         <v>1.24</v>
       </c>
       <c r="H8" t="n">
-        <v>1.49</v>
+        <v>16</v>
       </c>
       <c r="I8" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J8" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="K8" t="n">
         <v>9.4</v>
@@ -1501,19 +1501,19 @@
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>3.45</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
         <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="R8" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="n">
         <v>1.96</v>
@@ -1528,7 +1528,7 @@
         <v>1.05</v>
       </c>
       <c r="W8" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="X8" t="n">
         <v>44</v>
@@ -1537,7 +1537,7 @@
         <v>65</v>
       </c>
       <c r="Z8" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
@@ -1549,10 +1549,10 @@
         <v>23</v>
       </c>
       <c r="AD8" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AF8" t="n">
         <v>11</v>
@@ -1561,10 +1561,10 @@
         <v>15.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AJ8" t="n">
         <v>11</v>
@@ -1576,13 +1576,13 @@
         <v>48</v>
       </c>
       <c r="AM8" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="AO8" t="n">
-        <v>410</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9">
@@ -1615,7 +1615,7 @@
         <v>1.21</v>
       </c>
       <c r="G9" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H9" t="n">
         <v>16</v>
@@ -1633,7 +1633,7 @@
         <v>1.22</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
         <v>5.5</v>
@@ -1642,28 +1642,28 @@
         <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R9" t="n">
         <v>1.63</v>
       </c>
       <c r="S9" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T9" t="n">
         <v>2.2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="V9" t="n">
         <v>1.04</v>
       </c>
       <c r="W9" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="X9" t="n">
         <v>34</v>
@@ -1756,13 +1756,13 @@
         <v>1.34</v>
       </c>
       <c r="I10" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="J10" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K10" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L10" t="n">
         <v>1.32</v>
@@ -1771,10 +1771,10 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="O10" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
         <v>1.92</v>
@@ -1789,13 +1789,13 @@
         <v>3.35</v>
       </c>
       <c r="T10" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="U10" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="V10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="W10" t="n">
         <v>1.06</v>
@@ -1807,7 +1807,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AA10" t="n">
         <v>12.5</v>
@@ -1825,7 +1825,7 @@
         <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AG10" t="n">
         <v>60</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -1888,16 +1888,16 @@
         <v>3.55</v>
       </c>
       <c r="H11" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.45</v>
@@ -1924,7 +1924,7 @@
         <v>3.85</v>
       </c>
       <c r="T11" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U11" t="n">
         <v>2.02</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="G12" t="n">
         <v>13</v>
@@ -2026,10 +2026,10 @@
         <v>1.27</v>
       </c>
       <c r="I12" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="J12" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="K12" t="n">
         <v>8.6</v>
@@ -2047,16 +2047,16 @@
         <v>1.09</v>
       </c>
       <c r="P12" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="R12" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="S12" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="T12" t="n">
         <v>1.71</v>
@@ -2065,19 +2065,19 @@
         <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="W12" t="n">
         <v>1.09</v>
       </c>
       <c r="X12" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="Y12" t="n">
         <v>19.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA12" t="n">
         <v>13.5</v>
@@ -2122,7 +2122,7 @@
         <v>100</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="13">
@@ -2152,67 +2152,67 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G13" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="H13" t="n">
         <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="S13" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="T13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U13" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="V13" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W13" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="X13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA13" t="n">
         <v>55</v>
@@ -2236,7 +2236,7 @@
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI13" t="n">
         <v>40</v>
@@ -2248,16 +2248,16 @@
         <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM13" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AN13" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AO13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -2290,7 +2290,7 @@
         <v>1.93</v>
       </c>
       <c r="G14" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
         <v>4.7</v>
@@ -2299,10 +2299,10 @@
         <v>4.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L14" t="n">
         <v>1.42</v>
@@ -2311,7 +2311,7 @@
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O14" t="n">
         <v>1.33</v>
@@ -2320,7 +2320,7 @@
         <v>1.94</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
         <v>1.36</v>
@@ -2335,10 +2335,10 @@
         <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W14" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X14" t="n">
         <v>17</v>
@@ -2425,19 +2425,19 @@
         <v>1.86</v>
       </c>
       <c r="G15" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="H15" t="n">
         <v>4.7</v>
       </c>
       <c r="I15" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L15" t="n">
         <v>1.37</v>
@@ -2470,10 +2470,10 @@
         <v>1.9</v>
       </c>
       <c r="V15" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X15" t="n">
         <v>15.5</v>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="G16" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="H16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I16" t="n">
         <v>13</v>
@@ -2572,10 +2572,10 @@
         <v>6.6</v>
       </c>
       <c r="K16" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="M16" t="n">
         <v>1.02</v>
@@ -2599,25 +2599,25 @@
         <v>2.06</v>
       </c>
       <c r="T16" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U16" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V16" t="n">
         <v>1.08</v>
       </c>
       <c r="W16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="X16" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="n">
         <v>55</v>
       </c>
       <c r="Z16" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AA16" t="n">
         <v>450</v>
@@ -2626,19 +2626,19 @@
         <v>13.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD16" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AE16" t="n">
         <v>160</v>
       </c>
       <c r="AF16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
         <v>27</v>
@@ -2647,19 +2647,19 @@
         <v>120</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL16" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AM16" t="n">
         <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AO16" t="n">
         <v>150</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G17" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H17" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K17" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.36</v>
@@ -2716,7 +2716,7 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
         <v>1.27</v>
@@ -2740,7 +2740,7 @@
         <v>2.22</v>
       </c>
       <c r="V17" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="W17" t="n">
         <v>1.37</v>
@@ -2830,16 +2830,16 @@
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H18" t="n">
         <v>2.2</v>
       </c>
       <c r="I18" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="J18" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K18" t="n">
         <v>4.3</v>
@@ -2851,7 +2851,7 @@
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O18" t="n">
         <v>1.19</v>
@@ -2866,22 +2866,22 @@
         <v>1.61</v>
       </c>
       <c r="S18" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="U18" t="n">
         <v>2.58</v>
       </c>
       <c r="V18" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W18" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y18" t="n">
         <v>18</v>
@@ -2920,10 +2920,10 @@
         <v>55</v>
       </c>
       <c r="AK18" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM18" t="n">
         <v>60</v>
@@ -2965,10 +2965,10 @@
         <v>3.2</v>
       </c>
       <c r="G19" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H19" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="I19" t="n">
         <v>2.12</v>
@@ -2986,25 +2986,25 @@
         <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P19" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="R19" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S19" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="T19" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="U19" t="n">
         <v>3</v>
@@ -3025,7 +3025,7 @@
         <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AB19" t="n">
         <v>980</v>
@@ -3034,13 +3034,13 @@
         <v>980</v>
       </c>
       <c r="AD19" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AE19" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AG19" t="n">
         <v>980</v>
@@ -3061,10 +3061,10 @@
         <v>36</v>
       </c>
       <c r="AM19" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AN19" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AO19" t="n">
         <v>7.2</v>
@@ -3109,19 +3109,19 @@
         <v>2.44</v>
       </c>
       <c r="J20" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="K20" t="n">
         <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M20" t="n">
         <v>1.11</v>
       </c>
       <c r="N20" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="O20" t="n">
         <v>1.48</v>
@@ -3130,16 +3130,16 @@
         <v>1.53</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="R20" t="n">
         <v>1.19</v>
       </c>
       <c r="S20" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="T20" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
         <v>1.8</v>
@@ -3178,13 +3178,13 @@
         <v>32</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH20" t="n">
         <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ20" t="n">
         <v>110</v>
@@ -3196,13 +3196,13 @@
         <v>100</v>
       </c>
       <c r="AM20" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AN20" t="n">
         <v>110</v>
       </c>
       <c r="AO20" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
     </row>
     <row r="21">
@@ -3235,37 +3235,37 @@
         <v>1.98</v>
       </c>
       <c r="G21" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H21" t="n">
         <v>3.55</v>
       </c>
       <c r="I21" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J21" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="K21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>1.1</v>
+        <v>2.48</v>
       </c>
       <c r="O21" t="n">
         <v>1.41</v>
       </c>
       <c r="P21" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="R21" t="n">
         <v>1.18</v>
@@ -3274,7 +3274,7 @@
         <v>2.82</v>
       </c>
       <c r="T21" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U21" t="n">
         <v>1.04</v>
@@ -3379,10 +3379,10 @@
         <v>9</v>
       </c>
       <c r="J22" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K22" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L22" t="n">
         <v>1.44</v>
@@ -3391,16 +3391,16 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.38</v>
       </c>
       <c r="P22" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R22" t="n">
         <v>1.31</v>
@@ -3454,22 +3454,22 @@
         <v>30</v>
       </c>
       <c r="AI22" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK22" t="n">
         <v>18</v>
       </c>
       <c r="AL22" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM22" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN22" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AO22" t="n">
         <v>280</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="G23" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="H23" t="n">
         <v>3.45</v>
       </c>
       <c r="I23" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J23" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="L23" t="n">
         <v>1.62</v>
@@ -3526,10 +3526,10 @@
         <v>1.12</v>
       </c>
       <c r="N23" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="O23" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P23" t="n">
         <v>1.45</v>
@@ -3541,22 +3541,22 @@
         <v>1.16</v>
       </c>
       <c r="S23" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T23" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U23" t="n">
         <v>1.69</v>
       </c>
       <c r="V23" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W23" t="n">
         <v>1.6</v>
       </c>
       <c r="X23" t="n">
-        <v>8</v>
+        <v>980</v>
       </c>
       <c r="Y23" t="n">
         <v>9.800000000000001</v>
@@ -3568,7 +3568,7 @@
         <v>100</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC23" t="n">
         <v>7.4</v>
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G24" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="H24" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
         <v>4.3</v>
@@ -3661,16 +3661,16 @@
         <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O24" t="n">
         <v>1.41</v>
       </c>
       <c r="P24" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R24" t="n">
         <v>1.29</v>
@@ -3682,13 +3682,13 @@
         <v>1.97</v>
       </c>
       <c r="U24" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V24" t="n">
         <v>1.3</v>
       </c>
       <c r="W24" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X24" t="n">
         <v>11</v>
@@ -3703,19 +3703,19 @@
         <v>90</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC24" t="n">
         <v>7.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE24" t="n">
         <v>60</v>
       </c>
       <c r="AF24" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG24" t="n">
         <v>11</v>
@@ -3742,7 +3742,7 @@
         <v>19</v>
       </c>
       <c r="AO24" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
@@ -3778,13 +3778,13 @@
         <v>7.4</v>
       </c>
       <c r="H25" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="I25" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="J25" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K25" t="n">
         <v>4.6</v>
@@ -3796,7 +3796,7 @@
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O25" t="n">
         <v>1.29</v>
@@ -3820,64 +3820,64 @@
         <v>1.94</v>
       </c>
       <c r="V25" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="W25" t="n">
         <v>1.16</v>
       </c>
       <c r="X25" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Y25" t="n">
         <v>8.6</v>
       </c>
       <c r="Z25" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB25" t="n">
         <v>24</v>
       </c>
       <c r="AC25" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AE25" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AF25" t="n">
         <v>60</v>
       </c>
       <c r="AG25" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AH25" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AJ25" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AK25" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN25" t="n">
         <v>130</v>
       </c>
-      <c r="AL25" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>160</v>
-      </c>
       <c r="AO25" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3907,100 +3907,100 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="G26" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="H26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K26" t="n">
         <v>4.3</v>
       </c>
-      <c r="I26" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L26" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O26" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="R26" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S26" t="n">
         <v>3.15</v>
       </c>
       <c r="T26" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U26" t="n">
         <v>2.08</v>
       </c>
       <c r="V26" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="W26" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="X26" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z26" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AA26" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF26" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH26" t="n">
         <v>20</v>
       </c>
       <c r="AI26" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL26" t="n">
         <v>36</v>
@@ -4009,10 +4009,10 @@
         <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -4177,112 +4177,112 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="G28" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="H28" t="n">
         <v>5.5</v>
       </c>
       <c r="I28" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="J28" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K28" t="n">
         <v>4.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>2.62</v>
+        <v>3.55</v>
       </c>
       <c r="O28" t="n">
         <v>1.32</v>
       </c>
       <c r="P28" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="Q28" t="n">
         <v>1.91</v>
       </c>
       <c r="R28" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="S28" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="T28" t="n">
-        <v>1.04</v>
+        <v>1.91</v>
       </c>
       <c r="U28" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="V28" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="W28" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X28" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>1.7</v>
       </c>
       <c r="G3" t="n">
-        <v>2.22</v>
+        <v>1.86</v>
       </c>
       <c r="H3" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>9.6</v>
+        <v>6.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="L3" t="n">
         <v>1.4</v>
@@ -826,88 +826,88 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>1.28</v>
+        <v>3.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.08</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>1.28</v>
+        <v>1.89</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.6</v>
+        <v>1.84</v>
       </c>
       <c r="R3" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>2.92</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="V3" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="W3" t="n">
-        <v>1.81</v>
+        <v>2.16</v>
       </c>
       <c r="X3" t="n">
         <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
@@ -955,34 +955,34 @@
         <v>980</v>
       </c>
       <c r="L4" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="O4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P4" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="R4" t="n">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="U4" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="V4" t="n">
         <v>1.01</v>
@@ -991,7 +991,7 @@
         <v>1.99</v>
       </c>
       <c r="X4" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1021,13 +1021,13 @@
         <v>980</v>
       </c>
       <c r="AH4" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AK4" t="n">
         <v>980</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="G5" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H5" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="I5" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J5" t="n">
         <v>3.35</v>
@@ -1090,7 +1090,7 @@
         <v>3.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="M5" t="n">
         <v>1.09</v>
@@ -1102,49 +1102,49 @@
         <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="U5" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="X5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB5" t="n">
         <v>14</v>
       </c>
-      <c r="Y5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
         <v>980</v>
@@ -1156,7 +1156,7 @@
         <v>980</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
         <v>980</v>
@@ -1165,7 +1165,7 @@
         <v>95</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AL5" t="n">
         <v>70</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="G6" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H6" t="n">
         <v>5.5</v>
@@ -1225,7 +1225,7 @@
         <v>3.55</v>
       </c>
       <c r="L6" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
@@ -1234,13 +1234,13 @@
         <v>2.74</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P6" t="n">
         <v>1.59</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R6" t="n">
         <v>1.21</v>
@@ -1252,13 +1252,13 @@
         <v>2.16</v>
       </c>
       <c r="U6" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V6" t="n">
         <v>1.18</v>
       </c>
       <c r="W6" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X6" t="n">
         <v>11.5</v>
@@ -1267,16 +1267,16 @@
         <v>18</v>
       </c>
       <c r="Z6" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA6" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AB6" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
         <v>980</v>
@@ -1285,10 +1285,10 @@
         <v>140</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>980</v>
@@ -1303,13 +1303,13 @@
         <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM6" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AN6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO6" t="n">
         <v>230</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="G7" t="n">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="H7" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="I7" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="J7" t="n">
         <v>3.95</v>
@@ -1369,7 +1369,7 @@
         <v>6.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P7" t="n">
         <v>2.92</v>
@@ -1387,67 +1387,67 @@
         <v>1.48</v>
       </c>
       <c r="U7" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="V7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W7" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="X7" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z7" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA7" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
         <v>30</v>
       </c>
       <c r="AF7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ7" t="n">
         <v>980</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AN7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO7" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="8">
@@ -1480,16 +1480,16 @@
         <v>1.19</v>
       </c>
       <c r="G8" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="H8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="I8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="K8" t="n">
         <v>9.4</v>
@@ -1501,7 +1501,7 @@
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="O8" t="n">
         <v>1.13</v>
@@ -1519,7 +1519,7 @@
         <v>1.96</v>
       </c>
       <c r="T8" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U8" t="n">
         <v>1.76</v>
@@ -1528,61 +1528,61 @@
         <v>1.05</v>
       </c>
       <c r="W8" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="X8" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="Y8" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AD8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AE8" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AF8" t="n">
         <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AI8" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
         <v>48</v>
       </c>
       <c r="AM8" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AO8" t="n">
-        <v>380</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="G9" t="n">
         <v>1.26</v>
       </c>
       <c r="H9" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="I9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J9" t="n">
         <v>6.8</v>
@@ -1657,10 +1657,10 @@
         <v>2.2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W9" t="n">
         <v>4.8</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="G10" t="n">
         <v>17</v>
       </c>
       <c r="H10" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="I10" t="n">
         <v>1.38</v>
       </c>
       <c r="J10" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>5.9</v>
@@ -1771,10 +1771,10 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
         <v>1.92</v>
@@ -1783,16 +1783,16 @@
         <v>1.81</v>
       </c>
       <c r="R10" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S10" t="n">
         <v>3.35</v>
       </c>
       <c r="T10" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="U10" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="V10" t="n">
         <v>3.6</v>
@@ -1888,7 +1888,7 @@
         <v>3.55</v>
       </c>
       <c r="H11" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="I11" t="n">
         <v>2.54</v>
@@ -1918,10 +1918,10 @@
         <v>2.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T11" t="n">
         <v>1.84</v>
@@ -1933,7 +1933,7 @@
         <v>1.64</v>
       </c>
       <c r="W11" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X11" t="n">
         <v>14.5</v>
@@ -1942,31 +1942,31 @@
         <v>11.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AB11" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AF11" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
         <v>50</v>
@@ -1975,10 +1975,10 @@
         <v>75</v>
       </c>
       <c r="AK11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL11" t="n">
         <v>55</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>60</v>
       </c>
       <c r="AM11" t="n">
         <v>140</v>
@@ -1987,7 +1987,7 @@
         <v>55</v>
       </c>
       <c r="AO11" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
     </row>
     <row r="12">
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="H12" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="I12" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="K12" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L12" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O12" t="n">
         <v>1.09</v>
       </c>
       <c r="P12" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="R12" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="T12" t="n">
         <v>1.71</v>
       </c>
       <c r="U12" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V12" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="W12" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="X12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="Z12" t="n">
         <v>14</v>
       </c>
       <c r="AA12" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AB12" t="n">
         <v>980</v>
       </c>
       <c r="AC12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
         <v>14.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AH12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI12" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ12" t="n">
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="AK12" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AL12" t="n">
         <v>110</v>
       </c>
       <c r="AM12" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="13">
@@ -2155,13 +2155,13 @@
         <v>2.38</v>
       </c>
       <c r="G13" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J13" t="n">
         <v>3.6</v>
@@ -2176,40 +2176,40 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O13" t="n">
         <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="R13" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S13" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="T13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="U13" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="V13" t="n">
         <v>1.43</v>
       </c>
       <c r="W13" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z13" t="n">
         <v>24</v>
@@ -2239,25 +2239,25 @@
         <v>15.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AJ13" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AK13" t="n">
         <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM13" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AN13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -2290,19 +2290,19 @@
         <v>1.93</v>
       </c>
       <c r="G14" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="H14" t="n">
         <v>4.7</v>
       </c>
       <c r="I14" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L14" t="n">
         <v>1.42</v>
@@ -2317,10 +2317,10 @@
         <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R14" t="n">
         <v>1.36</v>
@@ -2329,7 +2329,7 @@
         <v>3.5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U14" t="n">
         <v>2.1</v>
@@ -2341,7 +2341,7 @@
         <v>2.04</v>
       </c>
       <c r="X14" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Y14" t="n">
         <v>17</v>
@@ -2377,7 +2377,7 @@
         <v>70</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
         <v>20</v>
@@ -2386,7 +2386,7 @@
         <v>38</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN14" t="n">
         <v>14</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="G15" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H15" t="n">
         <v>4.7</v>
@@ -2437,7 +2437,7 @@
         <v>3.6</v>
       </c>
       <c r="K15" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
         <v>1.37</v>
@@ -2455,7 +2455,7 @@
         <v>1.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R15" t="n">
         <v>1.29</v>
@@ -2473,7 +2473,7 @@
         <v>1.23</v>
       </c>
       <c r="W15" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="X15" t="n">
         <v>15.5</v>
@@ -2488,19 +2488,19 @@
         <v>150</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
         <v>980</v>
       </c>
       <c r="AE15" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="n">
-        <v>11.5</v>
+        <v>310</v>
       </c>
       <c r="AG15" t="n">
         <v>11</v>
@@ -2527,7 +2527,7 @@
         <v>980</v>
       </c>
       <c r="AO15" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
@@ -2560,13 +2560,13 @@
         <v>1.28</v>
       </c>
       <c r="G16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H16" t="n">
         <v>12</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J16" t="n">
         <v>6.6</v>
@@ -2581,7 +2581,7 @@
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="O16" t="n">
         <v>1.14</v>
@@ -2599,40 +2599,40 @@
         <v>2.06</v>
       </c>
       <c r="T16" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U16" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="X16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y16" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z16" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AA16" t="n">
-        <v>450</v>
+        <v>590</v>
       </c>
       <c r="AB16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC16" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AE16" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AF16" t="n">
         <v>10</v>
@@ -2641,28 +2641,28 @@
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI16" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK16" t="n">
         <v>13</v>
       </c>
       <c r="AL16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM16" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AO16" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G17" t="n">
         <v>3.75</v>
@@ -2701,7 +2701,7 @@
         <v>2.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J17" t="n">
         <v>3.55</v>
@@ -2725,7 +2725,7 @@
         <v>2.06</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="R17" t="n">
         <v>1.4</v>
@@ -2734,19 +2734,19 @@
         <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U17" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V17" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W17" t="n">
         <v>1.37</v>
       </c>
       <c r="X17" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Y17" t="n">
         <v>980</v>
@@ -2761,13 +2761,13 @@
         <v>980</v>
       </c>
       <c r="AC17" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD17" t="n">
         <v>980</v>
       </c>
       <c r="AE17" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AF17" t="n">
         <v>980</v>
@@ -2782,7 +2782,7 @@
         <v>980</v>
       </c>
       <c r="AJ17" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK17" t="n">
         <v>980</v>
@@ -2797,7 +2797,7 @@
         <v>980</v>
       </c>
       <c r="AO17" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -2833,7 +2833,7 @@
         <v>3.3</v>
       </c>
       <c r="H18" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I18" t="n">
         <v>2.36</v>
@@ -2842,7 +2842,7 @@
         <v>3.85</v>
       </c>
       <c r="K18" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L18" t="n">
         <v>1.28</v>
@@ -2857,7 +2857,7 @@
         <v>1.19</v>
       </c>
       <c r="P18" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q18" t="n">
         <v>1.57</v>
@@ -2872,7 +2872,7 @@
         <v>1.56</v>
       </c>
       <c r="U18" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="V18" t="n">
         <v>1.73</v>
@@ -2881,10 +2881,10 @@
         <v>1.44</v>
       </c>
       <c r="X18" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Y18" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z18" t="n">
         <v>22</v>
@@ -2902,7 +2902,7 @@
         <v>14.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF18" t="n">
         <v>32</v>
@@ -2911,28 +2911,28 @@
         <v>17.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI18" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AJ18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AL18" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM18" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO18" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="19">
@@ -2965,19 +2965,19 @@
         <v>3.2</v>
       </c>
       <c r="G19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H19" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="I19" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="J19" t="n">
         <v>4.5</v>
       </c>
       <c r="K19" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L19" t="n">
         <v>1.2</v>
@@ -2986,7 +2986,7 @@
         <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="O19" t="n">
         <v>1.12</v>
@@ -2995,13 +2995,13 @@
         <v>3.35</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="R19" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="S19" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="T19" t="n">
         <v>1.43</v>
@@ -3010,13 +3010,13 @@
         <v>3</v>
       </c>
       <c r="V19" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="W19" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X19" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Y19" t="n">
         <v>980</v>
@@ -3046,7 +3046,7 @@
         <v>980</v>
       </c>
       <c r="AH19" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
         <v>980</v>
@@ -3058,16 +3058,16 @@
         <v>980</v>
       </c>
       <c r="AL19" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AM19" t="n">
         <v>42</v>
       </c>
       <c r="AN19" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G20" t="n">
         <v>4.5</v>
@@ -3109,28 +3109,28 @@
         <v>2.44</v>
       </c>
       <c r="J20" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
         <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="M20" t="n">
         <v>1.11</v>
       </c>
       <c r="N20" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="O20" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="P20" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R20" t="n">
         <v>1.19</v>
@@ -3139,10 +3139,10 @@
         <v>4.8</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="U20" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="V20" t="n">
         <v>1.7</v>
@@ -3151,22 +3151,22 @@
         <v>1.29</v>
       </c>
       <c r="X20" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="Y20" t="n">
         <v>7.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AA20" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB20" t="n">
         <v>12</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD20" t="n">
         <v>12.5</v>
@@ -3175,31 +3175,31 @@
         <v>34</v>
       </c>
       <c r="AF20" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH20" t="n">
         <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL20" t="n">
         <v>110</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>100</v>
       </c>
       <c r="AM20" t="n">
         <v>200</v>
       </c>
       <c r="AN20" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AO20" t="n">
         <v>980</v>
@@ -3232,112 +3232,112 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="G21" t="n">
-        <v>2.56</v>
+        <v>2.32</v>
       </c>
       <c r="H21" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I21" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="J21" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="L21" t="n">
         <v>1.41</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>2.48</v>
+        <v>2.96</v>
       </c>
       <c r="O21" t="n">
         <v>1.41</v>
       </c>
       <c r="P21" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="R21" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S21" t="n">
-        <v>2.82</v>
+        <v>3.6</v>
       </c>
       <c r="T21" t="n">
-        <v>1.05</v>
+        <v>1.89</v>
       </c>
       <c r="U21" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="V21" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="W21" t="n">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G22" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H22" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I22" t="n">
         <v>8.800000000000001</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9</v>
       </c>
       <c r="J22" t="n">
         <v>4.4</v>
@@ -3391,10 +3391,10 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O22" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P22" t="n">
         <v>1.84</v>
@@ -3406,7 +3406,7 @@
         <v>1.31</v>
       </c>
       <c r="S22" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T22" t="n">
         <v>2.32</v>
@@ -3418,10 +3418,10 @@
         <v>1.12</v>
       </c>
       <c r="W22" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y22" t="n">
         <v>22</v>
@@ -3433,10 +3433,10 @@
         <v>370</v>
       </c>
       <c r="AB22" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AD22" t="n">
         <v>34</v>
@@ -3469,7 +3469,7 @@
         <v>220</v>
       </c>
       <c r="AN22" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AO22" t="n">
         <v>280</v>
@@ -3505,13 +3505,13 @@
         <v>2.46</v>
       </c>
       <c r="G23" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H23" t="n">
         <v>3.45</v>
       </c>
       <c r="I23" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="J23" t="n">
         <v>3</v>
@@ -3541,7 +3541,7 @@
         <v>1.16</v>
       </c>
       <c r="S23" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="T23" t="n">
         <v>2.22</v>
@@ -3550,31 +3550,31 @@
         <v>1.69</v>
       </c>
       <c r="V23" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W23" t="n">
         <v>1.6</v>
       </c>
       <c r="X23" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z23" t="n">
         <v>980</v>
       </c>
       <c r="AA23" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB23" t="n">
         <v>8.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
         <v>70</v>
@@ -3586,7 +3586,7 @@
         <v>14</v>
       </c>
       <c r="AH23" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AI23" t="n">
         <v>120</v>
@@ -3601,7 +3601,7 @@
         <v>80</v>
       </c>
       <c r="AM23" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AN23" t="n">
         <v>980</v>
@@ -3637,28 +3637,28 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G24" t="n">
         <v>2.16</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I24" t="n">
         <v>4.3</v>
       </c>
       <c r="J24" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K24" t="n">
         <v>3.4</v>
       </c>
-      <c r="K24" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L24" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M24" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
         <v>3.25</v>
@@ -3688,13 +3688,13 @@
         <v>1.3</v>
       </c>
       <c r="W24" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X24" t="n">
         <v>11</v>
       </c>
       <c r="Y24" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z24" t="n">
         <v>29</v>
@@ -3709,7 +3709,7 @@
         <v>7.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="n">
         <v>60</v>
@@ -3772,25 +3772,25 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G25" t="n">
         <v>7.4</v>
       </c>
       <c r="H25" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="I25" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="J25" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K25" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L25" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
@@ -3799,28 +3799,28 @@
         <v>4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R25" t="n">
         <v>1.41</v>
       </c>
       <c r="S25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="U25" t="n">
         <v>1.94</v>
       </c>
       <c r="V25" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="W25" t="n">
         <v>1.16</v>
@@ -3829,7 +3829,7 @@
         <v>16</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z25" t="n">
         <v>9.4</v>
@@ -3838,7 +3838,7 @@
         <v>14.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AC25" t="n">
         <v>10</v>
@@ -3853,7 +3853,7 @@
         <v>60</v>
       </c>
       <c r="AG25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH25" t="n">
         <v>24</v>
@@ -3862,7 +3862,7 @@
         <v>36</v>
       </c>
       <c r="AJ25" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK25" t="n">
         <v>110</v>
@@ -3877,7 +3877,7 @@
         <v>130</v>
       </c>
       <c r="AO25" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="26">
@@ -3907,82 +3907,82 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="G26" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="H26" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I26" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J26" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O26" t="n">
         <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R26" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S26" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T26" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U26" t="n">
         <v>2.08</v>
       </c>
       <c r="V26" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W26" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X26" t="n">
         <v>17.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AA26" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB26" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF26" t="n">
         <v>11.5</v>
@@ -3994,25 +3994,25 @@
         <v>20</v>
       </c>
       <c r="AI26" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK26" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM26" t="n">
         <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO26" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
@@ -4045,16 +4045,16 @@
         <v>1.73</v>
       </c>
       <c r="G27" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="H27" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I27" t="n">
         <v>6.8</v>
       </c>
       <c r="J27" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K27" t="n">
         <v>3.7</v>
@@ -4066,13 +4066,13 @@
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="O27" t="n">
         <v>1.49</v>
       </c>
       <c r="P27" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q27" t="n">
         <v>2.44</v>
@@ -4081,37 +4081,37 @@
         <v>1.21</v>
       </c>
       <c r="S27" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T27" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="U27" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V27" t="n">
         <v>1.17</v>
       </c>
       <c r="W27" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="X27" t="n">
         <v>12</v>
       </c>
       <c r="Y27" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="Z27" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AA27" t="n">
         <v>270</v>
       </c>
       <c r="AB27" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AD27" t="n">
         <v>980</v>
@@ -4120,31 +4120,31 @@
         <v>150</v>
       </c>
       <c r="AF27" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AH27" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AI27" t="n">
         <v>170</v>
       </c>
       <c r="AJ27" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AK27" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AL27" t="n">
         <v>60</v>
       </c>
       <c r="AM27" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AN27" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AO27" t="n">
         <v>270</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G28" t="n">
         <v>1.73</v>
@@ -4192,7 +4192,7 @@
         <v>3.8</v>
       </c>
       <c r="K28" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L28" t="n">
         <v>1.41</v>
@@ -4204,7 +4204,7 @@
         <v>3.55</v>
       </c>
       <c r="O28" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P28" t="n">
         <v>1.89</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -808,16 +808,16 @@
         <v>1.86</v>
       </c>
       <c r="H3" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K3" t="n">
         <v>4.5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.6</v>
       </c>
       <c r="L3" t="n">
         <v>1.4</v>
@@ -829,19 +829,19 @@
         <v>3.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
         <v>1.89</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S3" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="T3" t="n">
         <v>1.81</v>
@@ -850,7 +850,7 @@
         <v>1.9</v>
       </c>
       <c r="V3" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W3" t="n">
         <v>2.16</v>
@@ -862,13 +862,13 @@
         <v>980</v>
       </c>
       <c r="Z3" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AC3" t="n">
         <v>980</v>
@@ -907,7 +907,7 @@
         <v>980</v>
       </c>
       <c r="AO3" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="G4" t="n">
         <v>1.09</v>
       </c>
       <c r="H4" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="I4" t="n">
         <v>980</v>
@@ -952,7 +952,7 @@
         <v>1.2</v>
       </c>
       <c r="K4" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L4" t="n">
         <v>1.13</v>
@@ -961,16 +961,16 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="O4" t="n">
         <v>1.06</v>
       </c>
       <c r="P4" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="R4" t="n">
         <v>2.56</v>
@@ -979,16 +979,16 @@
         <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="V4" t="n">
         <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.99</v>
+        <v>4.8</v>
       </c>
       <c r="X4" t="n">
         <v>100</v>
@@ -1009,7 +1009,7 @@
         <v>980</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1021,13 +1021,13 @@
         <v>980</v>
       </c>
       <c r="AH4" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AK4" t="n">
         <v>980</v>
@@ -1090,7 +1090,7 @@
         <v>3.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M5" t="n">
         <v>1.09</v>
@@ -1099,7 +1099,7 @@
         <v>3.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P5" t="n">
         <v>1.79</v>
@@ -1111,13 +1111,13 @@
         <v>1.28</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T5" t="n">
         <v>1.87</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V5" t="n">
         <v>1.83</v>
@@ -1129,52 +1129,52 @@
         <v>12.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AA5" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AB5" t="n">
         <v>14</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD5" t="n">
         <v>13</v>
       </c>
       <c r="AE5" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AF5" t="n">
         <v>980</v>
       </c>
       <c r="AG5" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
         <v>980</v>
       </c>
       <c r="AJ5" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AK5" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL5" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="n">
         <v>150</v>
       </c>
       <c r="AN5" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AO5" t="n">
         <v>980</v>
@@ -1210,7 +1210,7 @@
         <v>1.78</v>
       </c>
       <c r="G6" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
         <v>5.5</v>
@@ -1219,28 +1219,28 @@
         <v>6.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>3.55</v>
       </c>
       <c r="L6" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O6" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P6" t="n">
         <v>1.59</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="R6" t="n">
         <v>1.21</v>
@@ -1258,7 +1258,7 @@
         <v>1.18</v>
       </c>
       <c r="W6" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="X6" t="n">
         <v>11.5</v>
@@ -1276,7 +1276,7 @@
         <v>7.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
         <v>980</v>
@@ -1285,10 +1285,10 @@
         <v>140</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
         <v>980</v>
@@ -1309,7 +1309,7 @@
         <v>230</v>
       </c>
       <c r="AN6" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AO6" t="n">
         <v>230</v>
@@ -1348,10 +1348,10 @@
         <v>2.52</v>
       </c>
       <c r="H7" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J7" t="n">
         <v>3.95</v>
@@ -1375,7 +1375,7 @@
         <v>2.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R7" t="n">
         <v>1.75</v>
@@ -1387,10 +1387,10 @@
         <v>1.48</v>
       </c>
       <c r="U7" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="V7" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W7" t="n">
         <v>1.66</v>
@@ -1411,13 +1411,13 @@
         <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD7" t="n">
         <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AF7" t="n">
         <v>26</v>
@@ -1429,7 +1429,7 @@
         <v>14.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AJ7" t="n">
         <v>980</v>
@@ -1438,7 +1438,7 @@
         <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AM7" t="n">
         <v>46</v>
@@ -1477,52 +1477,52 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="G8" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="H8" t="n">
         <v>16.5</v>
       </c>
       <c r="I8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="K8" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="S8" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="T8" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V8" t="n">
         <v>1.05</v>
@@ -1531,58 +1531,58 @@
         <v>5.3</v>
       </c>
       <c r="X8" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="Y8" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD8" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AE8" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="AF8" t="n">
         <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AI8" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM8" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AN8" t="n">
         <v>3.25</v>
       </c>
       <c r="AO8" t="n">
-        <v>410</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9">
@@ -1615,7 +1615,7 @@
         <v>1.2</v>
       </c>
       <c r="G9" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H9" t="n">
         <v>16.5</v>
@@ -1663,7 +1663,7 @@
         <v>1.05</v>
       </c>
       <c r="W9" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X9" t="n">
         <v>34</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H10" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="I10" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="J10" t="n">
         <v>5</v>
@@ -1771,31 +1771,31 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R10" t="n">
         <v>1.34</v>
       </c>
       <c r="S10" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="U10" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="V10" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="W10" t="n">
         <v>1.06</v>
@@ -1804,37 +1804,37 @@
         <v>980</v>
       </c>
       <c r="Y10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z10" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="Z10" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AA10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB10" t="n">
         <v>980</v>
       </c>
       <c r="AC10" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AE10" t="n">
         <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AG10" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AH10" t="n">
         <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="11">
@@ -1888,10 +1888,10 @@
         <v>3.55</v>
       </c>
       <c r="H11" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I11" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="J11" t="n">
         <v>3.25</v>
@@ -1906,25 +1906,25 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P11" t="n">
         <v>1.76</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R11" t="n">
         <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T11" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U11" t="n">
         <v>2.02</v>
@@ -1936,13 +1936,13 @@
         <v>1.39</v>
       </c>
       <c r="X11" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
         <v>11.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AA11" t="n">
         <v>36</v>
@@ -1963,10 +1963,10 @@
         <v>980</v>
       </c>
       <c r="AG11" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
         <v>50</v>
@@ -2023,91 +2023,91 @@
         <v>13.5</v>
       </c>
       <c r="H12" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="I12" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="J12" t="n">
         <v>7.4</v>
       </c>
       <c r="K12" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="R12" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="S12" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="T12" t="n">
         <v>1.71</v>
       </c>
       <c r="U12" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="W12" t="n">
         <v>1.08</v>
       </c>
       <c r="X12" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Z12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD12" t="n">
         <v>14</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>16</v>
       </c>
       <c r="AE12" t="n">
         <v>14.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="n">
         <v>55</v>
       </c>
       <c r="AH12" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AI12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="n">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="AK12" t="n">
         <v>160</v>
@@ -2122,7 +2122,7 @@
         <v>120</v>
       </c>
       <c r="AO12" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="13">
@@ -2158,7 +2158,7 @@
         <v>2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
         <v>3.35</v>
@@ -2167,7 +2167,7 @@
         <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L13" t="n">
         <v>1.34</v>
@@ -2191,10 +2191,10 @@
         <v>1.49</v>
       </c>
       <c r="S13" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U13" t="n">
         <v>2.48</v>
@@ -2203,13 +2203,13 @@
         <v>1.43</v>
       </c>
       <c r="W13" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X13" t="n">
         <v>18</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z13" t="n">
         <v>24</v>
@@ -2326,7 +2326,7 @@
         <v>1.36</v>
       </c>
       <c r="S14" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T14" t="n">
         <v>1.82</v>
@@ -2368,7 +2368,7 @@
         <v>11.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH14" t="n">
         <v>19</v>
@@ -2377,7 +2377,7 @@
         <v>70</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
         <v>20</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="G15" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H15" t="n">
         <v>4.7</v>
@@ -2434,19 +2434,19 @@
         <v>5.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K15" t="n">
         <v>3.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O15" t="n">
         <v>1.35</v>
@@ -2464,19 +2464,19 @@
         <v>3.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="U15" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V15" t="n">
         <v>1.23</v>
       </c>
       <c r="W15" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X15" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Y15" t="n">
         <v>980</v>
@@ -2488,10 +2488,10 @@
         <v>150</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AD15" t="n">
         <v>980</v>
@@ -2500,7 +2500,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="n">
-        <v>310</v>
+        <v>46</v>
       </c>
       <c r="AG15" t="n">
         <v>11</v>
@@ -2512,7 +2512,7 @@
         <v>80</v>
       </c>
       <c r="AJ15" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AK15" t="n">
         <v>980</v>
@@ -2524,10 +2524,10 @@
         <v>160</v>
       </c>
       <c r="AN15" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
@@ -2560,13 +2560,13 @@
         <v>1.28</v>
       </c>
       <c r="G16" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="H16" t="n">
         <v>12</v>
       </c>
       <c r="I16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J16" t="n">
         <v>6.6</v>
@@ -2581,34 +2581,34 @@
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="O16" t="n">
         <v>1.14</v>
       </c>
       <c r="P16" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>1.44</v>
       </c>
       <c r="R16" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S16" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T16" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U16" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V16" t="n">
         <v>1.07</v>
       </c>
       <c r="W16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="X16" t="n">
         <v>36</v>
@@ -2626,10 +2626,10 @@
         <v>13</v>
       </c>
       <c r="AC16" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE16" t="n">
         <v>170</v>
@@ -2659,10 +2659,10 @@
         <v>130</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AO16" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G17" t="n">
         <v>3.75</v>
@@ -2716,28 +2716,28 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="R17" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S17" t="n">
         <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U17" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="V17" t="n">
         <v>1.78</v>
@@ -2767,7 +2767,7 @@
         <v>980</v>
       </c>
       <c r="AE17" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AF17" t="n">
         <v>980</v>
@@ -2797,7 +2797,7 @@
         <v>980</v>
       </c>
       <c r="AO17" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
     </row>
     <row r="18">
@@ -2842,10 +2842,10 @@
         <v>3.85</v>
       </c>
       <c r="K18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -2968,7 +2968,7 @@
         <v>3.5</v>
       </c>
       <c r="H19" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="I19" t="n">
         <v>2.08</v>
@@ -2986,7 +2986,7 @@
         <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O19" t="n">
         <v>1.12</v>
@@ -2995,13 +2995,13 @@
         <v>3.35</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="R19" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="S19" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="T19" t="n">
         <v>1.43</v>
@@ -3016,7 +3016,7 @@
         <v>1.4</v>
       </c>
       <c r="X19" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y19" t="n">
         <v>980</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G20" t="n">
         <v>4.5</v>
       </c>
       <c r="H20" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I20" t="n">
         <v>2.44</v>
@@ -3115,22 +3115,22 @@
         <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M20" t="n">
         <v>1.11</v>
       </c>
       <c r="N20" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="O20" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="P20" t="n">
         <v>1.54</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R20" t="n">
         <v>1.19</v>
@@ -3139,10 +3139,10 @@
         <v>4.8</v>
       </c>
       <c r="T20" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V20" t="n">
         <v>1.7</v>
@@ -3151,58 +3151,58 @@
         <v>1.29</v>
       </c>
       <c r="X20" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AA20" t="n">
         <v>40</v>
       </c>
       <c r="AB20" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="n">
         <v>30</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI20" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ20" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK20" t="n">
         <v>70</v>
       </c>
       <c r="AL20" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM20" t="n">
         <v>200</v>
       </c>
       <c r="AN20" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AO20" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -3250,7 +3250,7 @@
         <v>3.65</v>
       </c>
       <c r="L21" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
@@ -3265,13 +3265,13 @@
         <v>1.66</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R21" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S21" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T21" t="n">
         <v>1.89</v>
@@ -3289,7 +3289,7 @@
         <v>980</v>
       </c>
       <c r="Y21" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Z21" t="n">
         <v>980</v>
@@ -3310,10 +3310,10 @@
         <v>70</v>
       </c>
       <c r="AF21" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AG21" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AH21" t="n">
         <v>980</v>
@@ -3379,10 +3379,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J22" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K22" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.5</v>
       </c>
       <c r="L22" t="n">
         <v>1.44</v>
@@ -3391,7 +3391,7 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.39</v>
@@ -3418,7 +3418,7 @@
         <v>1.12</v>
       </c>
       <c r="W22" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="X22" t="n">
         <v>12.5</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G23" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H23" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J23" t="n">
         <v>3</v>
@@ -3523,64 +3523,64 @@
         <v>1.62</v>
       </c>
       <c r="M23" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N23" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="O23" t="n">
         <v>1.62</v>
       </c>
       <c r="P23" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="R23" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S23" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T23" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="U23" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V23" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W23" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AA23" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE23" t="n">
-        <v>70</v>
+        <v>820</v>
       </c>
       <c r="AF23" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AG23" t="n">
         <v>14</v>
@@ -3589,16 +3589,16 @@
         <v>30</v>
       </c>
       <c r="AI23" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ23" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AK23" t="n">
         <v>980</v>
       </c>
       <c r="AL23" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM23" t="n">
         <v>260</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G24" t="n">
         <v>2.16</v>
@@ -3652,7 +3652,7 @@
         <v>3.35</v>
       </c>
       <c r="K24" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L24" t="n">
         <v>1.48</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="G25" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H25" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="I25" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="J25" t="n">
         <v>4.6</v>
@@ -3799,19 +3799,19 @@
         <v>4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
         <v>2.04</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R25" t="n">
         <v>1.41</v>
       </c>
       <c r="S25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T25" t="n">
         <v>1.96</v>
@@ -3820,7 +3820,7 @@
         <v>1.94</v>
       </c>
       <c r="V25" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="W25" t="n">
         <v>1.16</v>
@@ -3832,7 +3832,7 @@
         <v>8.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AA25" t="n">
         <v>14.5</v>
@@ -3856,19 +3856,19 @@
         <v>27</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
         <v>36</v>
       </c>
       <c r="AJ25" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AK25" t="n">
         <v>110</v>
       </c>
       <c r="AL25" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM25" t="n">
         <v>140</v>
@@ -3916,7 +3916,7 @@
         <v>4.4</v>
       </c>
       <c r="I26" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J26" t="n">
         <v>4</v>
@@ -3937,10 +3937,10 @@
         <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R26" t="n">
         <v>1.39</v>
@@ -3955,13 +3955,13 @@
         <v>2.08</v>
       </c>
       <c r="V26" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W26" t="n">
         <v>2.16</v>
       </c>
       <c r="X26" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="Y26" t="n">
         <v>17.5</v>
@@ -3973,7 +3973,7 @@
         <v>130</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC26" t="n">
         <v>9.6</v>
@@ -4042,112 +4042,112 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G27" t="n">
         <v>1.81</v>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I27" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J27" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K27" t="n">
         <v>3.7</v>
       </c>
       <c r="L27" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="P27" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="R27" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="S27" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="T27" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="U27" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="V27" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W27" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="X27" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="Z27" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AA27" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="AB27" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AD27" t="n">
         <v>980</v>
       </c>
       <c r="AE27" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
         <v>9</v>
       </c>
       <c r="AG27" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AH27" t="n">
         <v>980</v>
       </c>
       <c r="AI27" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AJ27" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AK27" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AL27" t="n">
-        <v>60</v>
+        <v>690</v>
       </c>
       <c r="AM27" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="AN27" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AO27" t="n">
-        <v>270</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28">
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="G28" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H28" t="n">
         <v>5.5</v>
@@ -4192,7 +4192,7 @@
         <v>3.8</v>
       </c>
       <c r="K28" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L28" t="n">
         <v>1.41</v>
@@ -4219,16 +4219,16 @@
         <v>3.35</v>
       </c>
       <c r="T28" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="U28" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="V28" t="n">
         <v>1.18</v>
       </c>
       <c r="W28" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="X28" t="n">
         <v>18</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="G3" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="H3" t="n">
         <v>4.8</v>
       </c>
       <c r="I3" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J3" t="n">
         <v>3.6</v>
@@ -820,31 +820,31 @@
         <v>4.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P3" t="n">
         <v>1.89</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="R3" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="T3" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U3" t="n">
         <v>1.9</v>
@@ -907,7 +907,7 @@
         <v>980</v>
       </c>
       <c r="AO3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="G4" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.12</v>
+        <v>30</v>
       </c>
       <c r="I4" t="n">
-        <v>980</v>
+        <v>870</v>
       </c>
       <c r="J4" t="n">
-        <v>1.2</v>
+        <v>11</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>27</v>
       </c>
       <c r="L4" t="n">
         <v>1.13</v>
@@ -961,40 +961,40 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.37</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
         <v>1.06</v>
       </c>
       <c r="P4" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="Q4" t="n">
         <v>1.2</v>
       </c>
       <c r="R4" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U4" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="V4" t="n">
         <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>4.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X4" t="n">
         <v>100</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1009,7 +1009,7 @@
         <v>980</v>
       </c>
       <c r="AD4" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1018,10 +1018,10 @@
         <v>980</v>
       </c>
       <c r="AG4" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AH4" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1030,7 +1030,7 @@
         <v>980</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>980</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="G5" t="n">
         <v>4.2</v>
@@ -1096,28 +1096,28 @@
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P5" t="n">
         <v>1.79</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="R5" t="n">
         <v>1.28</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U5" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
         <v>1.83</v>
@@ -1126,10 +1126,10 @@
         <v>1.32</v>
       </c>
       <c r="X5" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z5" t="n">
         <v>16</v>
@@ -1144,7 +1144,7 @@
         <v>9.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1153,7 +1153,7 @@
         <v>980</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
         <v>980</v>
@@ -1165,16 +1165,16 @@
         <v>110</v>
       </c>
       <c r="AK5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL5" t="n">
         <v>65</v>
       </c>
-      <c r="AL5" t="n">
-        <v>80</v>
-      </c>
       <c r="AM5" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN5" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AO5" t="n">
         <v>980</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="H6" t="n">
         <v>5.5</v>
       </c>
       <c r="I6" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J6" t="n">
         <v>3.4</v>
@@ -1225,64 +1225,64 @@
         <v>3.55</v>
       </c>
       <c r="L6" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="O6" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="P6" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R6" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S6" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="T6" t="n">
         <v>2.16</v>
       </c>
       <c r="U6" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V6" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X6" t="n">
         <v>11.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
         <v>48</v>
       </c>
       <c r="AA6" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD6" t="n">
         <v>980</v>
       </c>
       <c r="AE6" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF6" t="n">
         <v>10.5</v>
@@ -1294,7 +1294,7 @@
         <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ6" t="n">
         <v>980</v>
@@ -1306,13 +1306,13 @@
         <v>60</v>
       </c>
       <c r="AM6" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN6" t="n">
         <v>980</v>
       </c>
       <c r="AO6" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7">
@@ -1342,28 +1342,28 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="G7" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="H7" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
         <v>4.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
         <v>6.4</v>
@@ -1375,13 +1375,13 @@
         <v>2.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S7" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T7" t="n">
         <v>1.48</v>
@@ -1390,16 +1390,16 @@
         <v>2.96</v>
       </c>
       <c r="V7" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="W7" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X7" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="Y7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z7" t="n">
         <v>28</v>
@@ -1411,13 +1411,13 @@
         <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
         <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AF7" t="n">
         <v>26</v>
@@ -1429,7 +1429,7 @@
         <v>14.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AJ7" t="n">
         <v>980</v>
@@ -1438,16 +1438,16 @@
         <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AN7" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G8" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="H8" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="I8" t="n">
         <v>21</v>
       </c>
       <c r="J8" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="K8" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L8" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
@@ -1504,55 +1504,55 @@
         <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="R8" t="n">
         <v>1.84</v>
       </c>
       <c r="S8" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="T8" t="n">
         <v>2.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="V8" t="n">
         <v>1.05</v>
       </c>
       <c r="W8" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="X8" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="Y8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Z8" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AD8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AE8" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="AF8" t="n">
         <v>11</v>
@@ -1561,28 +1561,28 @@
         <v>15.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK8" t="n">
         <v>14.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AN8" t="n">
         <v>3.25</v>
       </c>
       <c r="AO8" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9">
@@ -1612,52 +1612,52 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="G9" t="n">
         <v>1.25</v>
       </c>
       <c r="H9" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="I9" t="n">
         <v>21</v>
       </c>
       <c r="J9" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="K9" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="L9" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q9" t="n">
         <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="T9" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="V9" t="n">
         <v>1.05</v>
@@ -1678,7 +1678,7 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC9" t="n">
         <v>21</v>
@@ -1690,7 +1690,7 @@
         <v>380</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG9" t="n">
         <v>14.5</v>
@@ -1702,7 +1702,7 @@
         <v>260</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK9" t="n">
         <v>17.5</v>
@@ -1717,7 +1717,7 @@
         <v>4.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>540</v>
+        <v>650</v>
       </c>
     </row>
     <row r="10">
@@ -1750,10 +1750,10 @@
         <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="I10" t="n">
         <v>1.37</v>
@@ -1762,43 +1762,43 @@
         <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O10" t="n">
         <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="R10" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T10" t="n">
         <v>2.42</v>
       </c>
       <c r="U10" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="V10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="W10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X10" t="n">
         <v>980</v>
@@ -1816,7 +1816,7 @@
         <v>980</v>
       </c>
       <c r="AC10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD10" t="n">
         <v>13.5</v>
@@ -1825,7 +1825,7 @@
         <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AG10" t="n">
         <v>65</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G11" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H11" t="n">
         <v>2.38</v>
       </c>
       <c r="I11" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="J11" t="n">
         <v>3.25</v>
@@ -1900,40 +1900,40 @@
         <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P11" t="n">
         <v>1.76</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
         <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U11" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W11" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X11" t="n">
         <v>13</v>
@@ -1948,10 +1948,10 @@
         <v>36</v>
       </c>
       <c r="AB11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD11" t="n">
         <v>12</v>
@@ -1966,19 +1966,19 @@
         <v>980</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ11" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AK11" t="n">
         <v>980</v>
       </c>
       <c r="AL11" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM11" t="n">
         <v>140</v>
@@ -2017,46 +2017,46 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="H12" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="I12" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="J12" t="n">
-        <v>7.4</v>
+        <v>5.6</v>
       </c>
       <c r="K12" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L12" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>3.45</v>
       </c>
       <c r="O12" t="n">
         <v>1.08</v>
       </c>
       <c r="P12" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="R12" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="S12" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="T12" t="n">
         <v>1.71</v>
@@ -2071,28 +2071,28 @@
         <v>1.08</v>
       </c>
       <c r="X12" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z12" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB12" t="n">
         <v>980</v>
       </c>
       <c r="AC12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD12" t="n">
         <v>14</v>
       </c>
       <c r="AE12" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF12" t="n">
         <v>160</v>
@@ -2107,7 +2107,7 @@
         <v>34</v>
       </c>
       <c r="AJ12" t="n">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="AK12" t="n">
         <v>160</v>
@@ -2116,13 +2116,13 @@
         <v>110</v>
       </c>
       <c r="AM12" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN12" t="n">
         <v>120</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="13">
@@ -2158,7 +2158,7 @@
         <v>2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
         <v>3.35</v>
@@ -2167,46 +2167,46 @@
         <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S13" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="T13" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="U13" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V13" t="n">
         <v>1.43</v>
       </c>
       <c r="W13" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
         <v>16</v>
@@ -2218,7 +2218,7 @@
         <v>55</v>
       </c>
       <c r="AB13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC13" t="n">
         <v>8.4</v>
@@ -2230,7 +2230,7 @@
         <v>34</v>
       </c>
       <c r="AF13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
@@ -2242,7 +2242,7 @@
         <v>980</v>
       </c>
       <c r="AJ13" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK13" t="n">
         <v>23</v>
@@ -2257,7 +2257,7 @@
         <v>15.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -2290,7 +2290,7 @@
         <v>1.93</v>
       </c>
       <c r="G14" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
         <v>4.7</v>
@@ -2305,22 +2305,22 @@
         <v>3.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O14" t="n">
         <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
         <v>1.36</v>
@@ -2353,7 +2353,7 @@
         <v>110</v>
       </c>
       <c r="AB14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
         <v>8</v>
@@ -2422,46 +2422,46 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G15" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="H15" t="n">
         <v>4.7</v>
       </c>
       <c r="I15" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
         <v>3.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O15" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S15" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T15" t="n">
         <v>1.88</v>
@@ -2470,16 +2470,16 @@
         <v>1.94</v>
       </c>
       <c r="V15" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W15" t="n">
         <v>2.06</v>
       </c>
       <c r="X15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Y15" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="Z15" t="n">
         <v>980</v>
@@ -2491,7 +2491,7 @@
         <v>8.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD15" t="n">
         <v>980</v>
@@ -2500,7 +2500,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="n">
-        <v>46</v>
+        <v>13.5</v>
       </c>
       <c r="AG15" t="n">
         <v>11</v>
@@ -2512,7 +2512,7 @@
         <v>80</v>
       </c>
       <c r="AJ15" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
         <v>980</v>
@@ -2524,7 +2524,7 @@
         <v>160</v>
       </c>
       <c r="AN15" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AO15" t="n">
         <v>110</v>
@@ -2560,46 +2560,46 @@
         <v>1.28</v>
       </c>
       <c r="G16" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="H16" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="I16" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="J16" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M16" t="n">
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="O16" t="n">
         <v>1.14</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q16" t="n">
         <v>1.44</v>
       </c>
       <c r="R16" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S16" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T16" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U16" t="n">
         <v>2.08</v>
@@ -2620,19 +2620,19 @@
         <v>140</v>
       </c>
       <c r="AA16" t="n">
-        <v>590</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
         <v>13</v>
       </c>
       <c r="AC16" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AD16" t="n">
         <v>46</v>
       </c>
       <c r="AE16" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AF16" t="n">
         <v>10</v>
@@ -2644,7 +2644,7 @@
         <v>28</v>
       </c>
       <c r="AI16" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AJ16" t="n">
         <v>11</v>
@@ -2659,7 +2659,7 @@
         <v>130</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AO16" t="n">
         <v>150</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="G17" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H17" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="I17" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J17" t="n">
         <v>3.55</v>
@@ -2710,40 +2710,40 @@
         <v>3.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P17" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="R17" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T17" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="U17" t="n">
         <v>2.3</v>
       </c>
       <c r="V17" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="W17" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X17" t="n">
         <v>21</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G18" t="n">
         <v>3.3</v>
@@ -2845,34 +2845,34 @@
         <v>4.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.19</v>
       </c>
       <c r="P18" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R18" t="n">
         <v>1.61</v>
       </c>
       <c r="S18" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T18" t="n">
         <v>1.56</v>
       </c>
       <c r="U18" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="V18" t="n">
         <v>1.73</v>
@@ -2884,7 +2884,7 @@
         <v>26</v>
       </c>
       <c r="Y18" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z18" t="n">
         <v>22</v>
@@ -2932,7 +2932,7 @@
         <v>21</v>
       </c>
       <c r="AO18" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="19">
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G19" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H19" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
         <v>2.08</v>
@@ -2980,43 +2980,43 @@
         <v>4.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M19" t="n">
         <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O19" t="n">
         <v>1.12</v>
       </c>
       <c r="P19" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="R19" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="S19" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="T19" t="n">
         <v>1.43</v>
       </c>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="V19" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="W19" t="n">
         <v>1.4</v>
       </c>
       <c r="X19" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Y19" t="n">
         <v>980</v>
@@ -3064,7 +3064,7 @@
         <v>42</v>
       </c>
       <c r="AN19" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AO19" t="n">
         <v>7</v>
@@ -3097,109 +3097,109 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G20" t="n">
         <v>4.5</v>
       </c>
       <c r="H20" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="J20" t="n">
         <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L20" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="M20" t="n">
         <v>1.11</v>
       </c>
       <c r="N20" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="O20" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="P20" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="R20" t="n">
         <v>1.19</v>
       </c>
       <c r="S20" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U20" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="V20" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="W20" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="X20" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="n">
         <v>13.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AD20" t="n">
         <v>14</v>
       </c>
       <c r="AE20" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AF20" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AG20" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI20" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL20" t="n">
         <v>110</v>
       </c>
-      <c r="AK20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>100</v>
-      </c>
       <c r="AM20" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN20" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AO20" t="n">
         <v>34</v>
@@ -3232,58 +3232,58 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G21" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I21" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K21" t="n">
         <v>3.65</v>
       </c>
       <c r="L21" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="O21" t="n">
         <v>1.41</v>
       </c>
       <c r="P21" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="R21" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U21" t="n">
         <v>1.9</v>
       </c>
       <c r="V21" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W21" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="X21" t="n">
         <v>980</v>
@@ -3385,7 +3385,7 @@
         <v>4.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
@@ -3394,13 +3394,13 @@
         <v>3.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P22" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R22" t="n">
         <v>1.31</v>
@@ -3424,16 +3424,16 @@
         <v>12.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z22" t="n">
         <v>75</v>
       </c>
       <c r="AA22" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="AB22" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC22" t="n">
         <v>10</v>
@@ -3451,7 +3451,7 @@
         <v>10.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI22" t="n">
         <v>160</v>
@@ -3472,7 +3472,7 @@
         <v>9.6</v>
       </c>
       <c r="AO22" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G23" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I23" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J23" t="n">
         <v>3</v>
@@ -3520,25 +3520,25 @@
         <v>3.05</v>
       </c>
       <c r="L23" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="M23" t="n">
         <v>1.14</v>
       </c>
       <c r="N23" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="P23" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="R23" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S23" t="n">
         <v>6.2</v>
@@ -3547,67 +3547,67 @@
         <v>2.26</v>
       </c>
       <c r="U23" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="V23" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W23" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X23" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="Z23" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC23" t="n">
         <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE23" t="n">
-        <v>820</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH23" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AI23" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AK23" t="n">
         <v>980</v>
       </c>
       <c r="AL23" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
         <v>980</v>
       </c>
       <c r="AO23" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3640,7 +3640,7 @@
         <v>2.12</v>
       </c>
       <c r="G24" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H24" t="n">
         <v>4.2</v>
@@ -3661,7 +3661,7 @@
         <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O24" t="n">
         <v>1.41</v>
@@ -3679,7 +3679,7 @@
         <v>4.2</v>
       </c>
       <c r="T24" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="U24" t="n">
         <v>1.97</v>
@@ -3688,7 +3688,7 @@
         <v>1.3</v>
       </c>
       <c r="W24" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="X24" t="n">
         <v>11</v>
@@ -3739,10 +3739,10 @@
         <v>130</v>
       </c>
       <c r="AN24" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
@@ -3775,10 +3775,10 @@
         <v>6.6</v>
       </c>
       <c r="G25" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="H25" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="I25" t="n">
         <v>1.58</v>
@@ -3790,19 +3790,19 @@
         <v>4.7</v>
       </c>
       <c r="L25" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O25" t="n">
         <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q25" t="n">
         <v>1.87</v>
@@ -3817,7 +3817,7 @@
         <v>1.96</v>
       </c>
       <c r="U25" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V25" t="n">
         <v>2.72</v>
@@ -3838,7 +3838,7 @@
         <v>14.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AC25" t="n">
         <v>10</v>
@@ -3862,7 +3862,7 @@
         <v>36</v>
       </c>
       <c r="AJ25" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AK25" t="n">
         <v>110</v>
@@ -3871,7 +3871,7 @@
         <v>100</v>
       </c>
       <c r="AM25" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN25" t="n">
         <v>130</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="G26" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="H26" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I26" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J26" t="n">
         <v>4</v>
@@ -3925,28 +3925,28 @@
         <v>4.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="O26" t="n">
         <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R26" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S26" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T26" t="n">
         <v>1.82</v>
@@ -3958,10 +3958,10 @@
         <v>1.27</v>
       </c>
       <c r="W26" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="X26" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y26" t="n">
         <v>17.5</v>
@@ -3976,7 +3976,7 @@
         <v>9</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD26" t="n">
         <v>18.5</v>
@@ -3985,7 +3985,7 @@
         <v>60</v>
       </c>
       <c r="AF26" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
         <v>9.800000000000001</v>
@@ -3997,10 +3997,10 @@
         <v>75</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK26" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL26" t="n">
         <v>34</v>
@@ -4045,10 +4045,10 @@
         <v>1.75</v>
       </c>
       <c r="G27" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="H27" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="I27" t="n">
         <v>6.4</v>
@@ -4060,13 +4060,13 @@
         <v>3.7</v>
       </c>
       <c r="L27" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M27" t="n">
         <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O27" t="n">
         <v>1.45</v>
@@ -4075,22 +4075,22 @@
         <v>1.68</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R27" t="n">
         <v>1.24</v>
       </c>
       <c r="S27" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T27" t="n">
         <v>2.2</v>
       </c>
       <c r="U27" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V27" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W27" t="n">
         <v>2.24</v>
@@ -4099,22 +4099,22 @@
         <v>11.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z27" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AA27" t="n">
         <v>240</v>
       </c>
       <c r="AB27" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC27" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AE27" t="n">
         <v>1000</v>
@@ -4126,7 +4126,7 @@
         <v>10.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AI27" t="n">
         <v>140</v>
@@ -4135,10 +4135,10 @@
         <v>17.5</v>
       </c>
       <c r="AK27" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AL27" t="n">
-        <v>690</v>
+        <v>380</v>
       </c>
       <c r="AM27" t="n">
         <v>240</v>
@@ -4177,19 +4177,19 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="G28" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="H28" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="I28" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J28" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K28" t="n">
         <v>4.2</v>
@@ -4201,40 +4201,40 @@
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O28" t="n">
         <v>1.31</v>
       </c>
       <c r="P28" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="R28" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S28" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="U28" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V28" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W28" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="X28" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z28" t="n">
         <v>60</v>
@@ -4243,7 +4243,7 @@
         <v>210</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC28" t="n">
         <v>11</v>
@@ -4255,22 +4255,22 @@
         <v>110</v>
       </c>
       <c r="AF28" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG28" t="n">
         <v>12</v>
       </c>
       <c r="AH28" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI28" t="n">
         <v>110</v>
       </c>
       <c r="AJ28" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL28" t="n">
         <v>46</v>
@@ -4279,7 +4279,7 @@
         <v>160</v>
       </c>
       <c r="AN28" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO28" t="n">
         <v>140</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -802,61 +802,61 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="G3" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="H3" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="I3" t="n">
         <v>6.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O3" t="n">
         <v>1.31</v>
       </c>
       <c r="P3" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R3" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S3" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U3" t="n">
         <v>1.9</v>
       </c>
       <c r="V3" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Y3" t="n">
         <v>980</v>
@@ -868,7 +868,7 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AC3" t="n">
         <v>980</v>
@@ -877,7 +877,7 @@
         <v>980</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF3" t="n">
         <v>980</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="G4" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="H4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I4" t="n">
-        <v>870</v>
+        <v>980</v>
       </c>
       <c r="J4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L4" t="n">
         <v>1.13</v>
@@ -961,40 +961,40 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.06</v>
       </c>
       <c r="P4" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="R4" t="n">
-        <v>2.58</v>
+        <v>2.82</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="T4" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U4" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="V4" t="n">
         <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="X4" t="n">
         <v>100</v>
       </c>
       <c r="Y4" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1009,7 +1009,7 @@
         <v>980</v>
       </c>
       <c r="AD4" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1018,10 +1018,10 @@
         <v>980</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AH4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1030,7 +1030,7 @@
         <v>980</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
         <v>980</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H5" t="n">
         <v>2.14</v>
@@ -1084,7 +1084,7 @@
         <v>2.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K5" t="n">
         <v>3.6</v>
@@ -1096,7 +1096,7 @@
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O5" t="n">
         <v>1.39</v>
@@ -1114,7 +1114,7 @@
         <v>4.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U5" t="n">
         <v>1.98</v>
@@ -1162,7 +1162,7 @@
         <v>980</v>
       </c>
       <c r="AJ5" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AK5" t="n">
         <v>55</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="G6" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="H6" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I6" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="L6" t="n">
         <v>1.54</v>
@@ -1234,7 +1234,7 @@
         <v>2.84</v>
       </c>
       <c r="O6" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="P6" t="n">
         <v>1.61</v>
@@ -1249,22 +1249,22 @@
         <v>5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="U6" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="V6" t="n">
         <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="X6" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y6" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="Z6" t="n">
         <v>48</v>
@@ -1273,46 +1273,46 @@
         <v>230</v>
       </c>
       <c r="AB6" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
         <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AJ6" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AM6" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AN6" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AO6" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7">
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G7" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K7" t="n">
         <v>4.4</v>
@@ -1369,13 +1369,13 @@
         <v>6.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P7" t="n">
         <v>2.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="R7" t="n">
         <v>1.78</v>
@@ -1390,16 +1390,16 @@
         <v>2.96</v>
       </c>
       <c r="V7" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W7" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="X7" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z7" t="n">
         <v>28</v>
@@ -1411,7 +1411,7 @@
         <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD7" t="n">
         <v>15</v>
@@ -1426,7 +1426,7 @@
         <v>13.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
         <v>32</v>
@@ -1438,16 +1438,16 @@
         <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AM7" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AN7" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="8">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="G8" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="H8" t="n">
         <v>18</v>
@@ -1489,10 +1489,10 @@
         <v>21</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="K8" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
         <v>1.23</v>
@@ -1501,7 +1501,7 @@
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="O8" t="n">
         <v>1.13</v>
@@ -1510,34 +1510,34 @@
         <v>3.05</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R8" t="n">
         <v>1.84</v>
       </c>
       <c r="S8" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="T8" t="n">
         <v>2.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="V8" t="n">
         <v>1.05</v>
       </c>
       <c r="W8" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="Y8" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
@@ -1549,40 +1549,40 @@
         <v>24</v>
       </c>
       <c r="AD8" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AE8" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG8" t="n">
         <v>15.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AI8" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AJ8" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AK8" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM8" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN8" t="n">
         <v>3.25</v>
       </c>
       <c r="AO8" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -1612,52 +1612,52 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G9" t="n">
         <v>1.25</v>
       </c>
       <c r="H9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="I9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="K9" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="Q9" t="n">
         <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="S9" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="T9" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="U9" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="V9" t="n">
         <v>1.05</v>
@@ -1666,10 +1666,10 @@
         <v>5</v>
       </c>
       <c r="X9" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z9" t="n">
         <v>210</v>
@@ -1678,46 +1678,46 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD9" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AE9" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AG9" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="AJ9" t="n">
         <v>10.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL9" t="n">
         <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>650</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="G10" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="H10" t="n">
         <v>1.33</v>
       </c>
       <c r="I10" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="J10" t="n">
         <v>5</v>
@@ -1777,7 +1777,7 @@
         <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Q10" t="n">
         <v>1.94</v>
@@ -1786,7 +1786,7 @@
         <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T10" t="n">
         <v>2.42</v>
@@ -1810,7 +1810,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AA10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB10" t="n">
         <v>980</v>
@@ -1819,10 +1819,10 @@
         <v>15</v>
       </c>
       <c r="AD10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
         <v>170</v>
@@ -1834,7 +1834,7 @@
         <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="11">
@@ -1891,10 +1891,10 @@
         <v>2.38</v>
       </c>
       <c r="I11" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K11" t="n">
         <v>3.5</v>
@@ -1906,19 +1906,19 @@
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O11" t="n">
         <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R11" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S11" t="n">
         <v>4.1</v>
@@ -1927,7 +1927,7 @@
         <v>1.87</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
         <v>1.65</v>
@@ -1942,10 +1942,10 @@
         <v>11.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AB11" t="n">
         <v>11.5</v>
@@ -1978,7 +1978,7 @@
         <v>980</v>
       </c>
       <c r="AL11" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM11" t="n">
         <v>140</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="H12" t="n">
         <v>1.23</v>
       </c>
       <c r="I12" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="J12" t="n">
-        <v>5.6</v>
+        <v>7.6</v>
       </c>
       <c r="K12" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="L12" t="n">
         <v>1.16</v>
@@ -2041,28 +2041,28 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>3.45</v>
+        <v>2.36</v>
       </c>
       <c r="O12" t="n">
         <v>1.08</v>
       </c>
       <c r="P12" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="Q12" t="n">
         <v>1.24</v>
       </c>
       <c r="R12" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="S12" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="T12" t="n">
         <v>1.71</v>
       </c>
       <c r="U12" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V12" t="n">
         <v>4.4</v>
@@ -2077,7 +2077,7 @@
         <v>22</v>
       </c>
       <c r="Z12" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AA12" t="n">
         <v>13.5</v>
@@ -2092,7 +2092,7 @@
         <v>14</v>
       </c>
       <c r="AE12" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF12" t="n">
         <v>160</v>
@@ -2104,7 +2104,7 @@
         <v>34</v>
       </c>
       <c r="AI12" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AJ12" t="n">
         <v>440</v>
@@ -2122,7 +2122,7 @@
         <v>120</v>
       </c>
       <c r="AO12" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="13">
@@ -2155,13 +2155,13 @@
         <v>2.38</v>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H13" t="n">
         <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
         <v>3.6</v>
@@ -2176,7 +2176,7 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O13" t="n">
         <v>1.24</v>
@@ -2185,10 +2185,10 @@
         <v>2.28</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R13" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S13" t="n">
         <v>2.84</v>
@@ -2197,19 +2197,19 @@
         <v>1.6</v>
       </c>
       <c r="U13" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V13" t="n">
         <v>1.43</v>
       </c>
       <c r="W13" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z13" t="n">
         <v>24</v>
@@ -2230,7 +2230,7 @@
         <v>34</v>
       </c>
       <c r="AF13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
@@ -2239,7 +2239,7 @@
         <v>15.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="n">
         <v>32</v>
@@ -2257,7 +2257,7 @@
         <v>15.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -2311,13 +2311,13 @@
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O14" t="n">
         <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q14" t="n">
         <v>2</v>
@@ -2353,7 +2353,7 @@
         <v>110</v>
       </c>
       <c r="AB14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AC14" t="n">
         <v>8</v>
@@ -2377,7 +2377,7 @@
         <v>70</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
         <v>20</v>
@@ -2386,7 +2386,7 @@
         <v>38</v>
       </c>
       <c r="AM14" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
         <v>14</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="G15" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H15" t="n">
         <v>4.7</v>
@@ -2434,7 +2434,7 @@
         <v>5.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
         <v>3.8</v>
@@ -2473,16 +2473,16 @@
         <v>1.24</v>
       </c>
       <c r="W15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X15" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AA15" t="n">
         <v>150</v>
@@ -2491,7 +2491,7 @@
         <v>8.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD15" t="n">
         <v>980</v>
@@ -2527,7 +2527,7 @@
         <v>980</v>
       </c>
       <c r="AO15" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="G16" t="n">
         <v>1.29</v>
       </c>
       <c r="H16" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I16" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="J16" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K16" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="L16" t="n">
         <v>1.24</v>
@@ -2587,7 +2587,7 @@
         <v>1.14</v>
       </c>
       <c r="P16" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q16" t="n">
         <v>1.44</v>
@@ -2599,7 +2599,7 @@
         <v>2.1</v>
       </c>
       <c r="T16" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U16" t="n">
         <v>2.08</v>
@@ -2608,19 +2608,19 @@
         <v>1.07</v>
       </c>
       <c r="W16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="X16" t="n">
         <v>36</v>
       </c>
       <c r="Y16" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z16" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>620</v>
       </c>
       <c r="AB16" t="n">
         <v>13</v>
@@ -2629,7 +2629,7 @@
         <v>16</v>
       </c>
       <c r="AD16" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AE16" t="n">
         <v>180</v>
@@ -2644,13 +2644,13 @@
         <v>28</v>
       </c>
       <c r="AI16" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ16" t="n">
         <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -2659,10 +2659,10 @@
         <v>130</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AO16" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
@@ -2698,13 +2698,13 @@
         <v>3.6</v>
       </c>
       <c r="H17" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="I17" t="n">
         <v>2.3</v>
       </c>
       <c r="J17" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
         <v>3.8</v>
@@ -2713,31 +2713,31 @@
         <v>1.37</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="R17" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S17" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T17" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U17" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V17" t="n">
         <v>1.76</v>
@@ -2746,10 +2746,10 @@
         <v>1.39</v>
       </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y17" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="Z17" t="n">
         <v>980</v>
@@ -2761,7 +2761,7 @@
         <v>980</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AD17" t="n">
         <v>980</v>
@@ -2830,52 +2830,52 @@
         <v>3.05</v>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H18" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I18" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="J18" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K18" t="n">
         <v>4.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O18" t="n">
         <v>1.19</v>
       </c>
       <c r="P18" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q18" t="n">
         <v>1.58</v>
       </c>
       <c r="R18" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="S18" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T18" t="n">
         <v>1.56</v>
       </c>
       <c r="U18" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="V18" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W18" t="n">
         <v>1.44</v>
@@ -2884,7 +2884,7 @@
         <v>26</v>
       </c>
       <c r="Y18" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z18" t="n">
         <v>22</v>
@@ -2905,10 +2905,10 @@
         <v>22</v>
       </c>
       <c r="AF18" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AG18" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
         <v>16</v>
@@ -2920,7 +2920,7 @@
         <v>60</v>
       </c>
       <c r="AK18" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL18" t="n">
         <v>42</v>
@@ -2929,7 +2929,7 @@
         <v>70</v>
       </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
         <v>12.5</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="G19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="I19" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="J19" t="n">
         <v>4.5</v>
@@ -2989,28 +2989,28 @@
         <v>8.199999999999999</v>
       </c>
       <c r="O19" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P19" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q19" t="n">
         <v>1.35</v>
       </c>
       <c r="R19" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="S19" t="n">
         <v>1.87</v>
       </c>
       <c r="T19" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="U19" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="V19" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W19" t="n">
         <v>1.4</v>
@@ -3019,13 +3019,13 @@
         <v>44</v>
       </c>
       <c r="Y19" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="Z19" t="n">
         <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AB19" t="n">
         <v>980</v>
@@ -3040,34 +3040,34 @@
         <v>980</v>
       </c>
       <c r="AF19" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL19" t="n">
         <v>36</v>
       </c>
-      <c r="AG19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>980</v>
-      </c>
       <c r="AM19" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AN19" t="n">
         <v>970</v>
       </c>
       <c r="AO19" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="20">
@@ -3100,16 +3100,16 @@
         <v>3.7</v>
       </c>
       <c r="G20" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H20" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="I20" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K20" t="n">
         <v>3.35</v>
@@ -3121,40 +3121,40 @@
         <v>1.11</v>
       </c>
       <c r="N20" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="O20" t="n">
         <v>1.52</v>
       </c>
       <c r="P20" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="R20" t="n">
         <v>1.19</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="T20" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="U20" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V20" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="W20" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X20" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z20" t="n">
         <v>15.5</v>
@@ -3166,7 +3166,7 @@
         <v>13.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD20" t="n">
         <v>14</v>
@@ -3175,7 +3175,7 @@
         <v>34</v>
       </c>
       <c r="AF20" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AG20" t="n">
         <v>19</v>
@@ -3190,7 +3190,7 @@
         <v>120</v>
       </c>
       <c r="AK20" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AL20" t="n">
         <v>110</v>
@@ -3235,7 +3235,7 @@
         <v>2.12</v>
       </c>
       <c r="G21" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H21" t="n">
         <v>3.75</v>
@@ -3250,40 +3250,40 @@
         <v>3.65</v>
       </c>
       <c r="L21" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M21" t="n">
         <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O21" t="n">
         <v>1.41</v>
       </c>
       <c r="P21" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q21" t="n">
         <v>2.22</v>
       </c>
       <c r="R21" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S21" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="T21" t="n">
         <v>1.9</v>
       </c>
       <c r="U21" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V21" t="n">
         <v>1.33</v>
       </c>
       <c r="W21" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X21" t="n">
         <v>980</v>
@@ -3313,7 +3313,7 @@
         <v>16</v>
       </c>
       <c r="AG21" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AH21" t="n">
         <v>980</v>
@@ -3328,7 +3328,7 @@
         <v>980</v>
       </c>
       <c r="AL21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM21" t="n">
         <v>220</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G22" t="n">
         <v>1.52</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.53</v>
       </c>
       <c r="H22" t="n">
         <v>8.6</v>
       </c>
       <c r="I22" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J22" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K22" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L22" t="n">
         <v>1.46</v>
@@ -3391,37 +3391,37 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O22" t="n">
         <v>1.38</v>
       </c>
       <c r="P22" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q22" t="n">
         <v>2.12</v>
       </c>
       <c r="R22" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T22" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="U22" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V22" t="n">
         <v>1.12</v>
       </c>
       <c r="W22" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="X22" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
         <v>21</v>
@@ -3430,16 +3430,16 @@
         <v>75</v>
       </c>
       <c r="AA22" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="AB22" t="n">
         <v>6.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE22" t="n">
         <v>170</v>
@@ -3448,31 +3448,31 @@
         <v>7.6</v>
       </c>
       <c r="AG22" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI22" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AJ22" t="n">
         <v>12.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM22" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN22" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO22" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G23" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H23" t="n">
         <v>3.55</v>
@@ -3526,7 +3526,7 @@
         <v>1.14</v>
       </c>
       <c r="N23" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="O23" t="n">
         <v>1.63</v>
@@ -3535,7 +3535,7 @@
         <v>1.47</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
         <v>1.16</v>
@@ -3550,10 +3550,10 @@
         <v>1.66</v>
       </c>
       <c r="V23" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W23" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X23" t="n">
         <v>8.4</v>
@@ -3562,7 +3562,7 @@
         <v>10</v>
       </c>
       <c r="Z23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
@@ -3577,25 +3577,25 @@
         <v>23</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF23" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG23" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ23" t="n">
         <v>980</v>
       </c>
       <c r="AK23" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AL23" t="n">
         <v>1000</v>
@@ -3604,10 +3604,10 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
@@ -3649,7 +3649,7 @@
         <v>4.3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
         <v>3.45</v>
@@ -3661,16 +3661,16 @@
         <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O24" t="n">
         <v>1.41</v>
       </c>
       <c r="P24" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R24" t="n">
         <v>1.29</v>
@@ -3679,16 +3679,16 @@
         <v>4.2</v>
       </c>
       <c r="T24" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U24" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V24" t="n">
         <v>1.3</v>
       </c>
       <c r="W24" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="X24" t="n">
         <v>11</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="G25" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I25" t="n">
         <v>1.55</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.58</v>
       </c>
       <c r="J25" t="n">
         <v>4.6</v>
       </c>
       <c r="K25" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L25" t="n">
         <v>1.39</v>
@@ -3805,28 +3805,28 @@
         <v>2.08</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R25" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U25" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V25" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="W25" t="n">
         <v>1.16</v>
       </c>
       <c r="X25" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Y25" t="n">
         <v>8.4</v>
@@ -3838,7 +3838,7 @@
         <v>14.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AC25" t="n">
         <v>10</v>
@@ -3847,7 +3847,7 @@
         <v>9.6</v>
       </c>
       <c r="AE25" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF25" t="n">
         <v>60</v>
@@ -3856,7 +3856,7 @@
         <v>27</v>
       </c>
       <c r="AH25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
         <v>36</v>
@@ -3871,13 +3871,13 @@
         <v>100</v>
       </c>
       <c r="AM25" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN25" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AO25" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G26" t="n">
         <v>1.84</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.89</v>
       </c>
       <c r="H26" t="n">
         <v>4.3</v>
@@ -3919,7 +3919,7 @@
         <v>4.7</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K26" t="n">
         <v>4.4</v>
@@ -3931,7 +3931,7 @@
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O26" t="n">
         <v>1.29</v>
@@ -3958,10 +3958,10 @@
         <v>1.27</v>
       </c>
       <c r="W26" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="X26" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y26" t="n">
         <v>17.5</v>
@@ -3976,7 +3976,7 @@
         <v>9</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD26" t="n">
         <v>18.5</v>
@@ -3985,7 +3985,7 @@
         <v>60</v>
       </c>
       <c r="AF26" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG26" t="n">
         <v>9.800000000000001</v>
@@ -3997,10 +3997,10 @@
         <v>75</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK26" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL26" t="n">
         <v>34</v>
@@ -4066,13 +4066,13 @@
         <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O27" t="n">
         <v>1.45</v>
       </c>
       <c r="P27" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q27" t="n">
         <v>2.38</v>
@@ -4087,7 +4087,7 @@
         <v>2.2</v>
       </c>
       <c r="U27" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V27" t="n">
         <v>1.19</v>
@@ -4099,22 +4099,22 @@
         <v>11.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z27" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AA27" t="n">
         <v>240</v>
       </c>
       <c r="AB27" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC27" t="n">
         <v>8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE27" t="n">
         <v>1000</v>
@@ -4138,13 +4138,13 @@
         <v>22</v>
       </c>
       <c r="AL27" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="AM27" t="n">
         <v>240</v>
       </c>
       <c r="AN27" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO27" t="n">
         <v>230</v>
@@ -4177,13 +4177,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="G28" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="H28" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
         <v>6.8</v>
@@ -4198,31 +4198,31 @@
         <v>1.41</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
         <v>3.6</v>
       </c>
       <c r="O28" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P28" t="n">
         <v>1.91</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R28" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S28" t="n">
         <v>3.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U28" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V28" t="n">
         <v>1.17</v>
@@ -4231,7 +4231,7 @@
         <v>2.4</v>
       </c>
       <c r="X28" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y28" t="n">
         <v>21</v>
@@ -4243,7 +4243,7 @@
         <v>210</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC28" t="n">
         <v>11</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO28"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="G3" t="n">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="I3" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
         <v>1.35</v>
       </c>
       <c r="S3" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T3" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="U3" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="W3" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="X3" t="n">
         <v>980</v>
@@ -877,7 +877,7 @@
         <v>980</v>
       </c>
       <c r="AE3" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>980</v>
@@ -889,7 +889,7 @@
         <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ3" t="n">
         <v>980</v>
@@ -907,7 +907,7 @@
         <v>980</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="G4" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="H4" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I4" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="J4" t="n">
         <v>12</v>
       </c>
       <c r="K4" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L4" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P4" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q4" t="n">
         <v>1.19</v>
       </c>
       <c r="R4" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="S4" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="T4" t="n">
-        <v>2.26</v>
+        <v>1.94</v>
       </c>
       <c r="U4" t="n">
-        <v>1.65</v>
+        <v>1.88</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W4" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="X4" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1009,7 +1009,7 @@
         <v>980</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1021,7 +1021,7 @@
         <v>980</v>
       </c>
       <c r="AH4" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1036,10 +1036,10 @@
         <v>980</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="G5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H5" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="I5" t="n">
         <v>2.2</v>
@@ -1096,7 +1096,7 @@
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.39</v>
@@ -1105,10 +1105,10 @@
         <v>1.79</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S5" t="n">
         <v>4.1</v>
@@ -1132,7 +1132,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA5" t="n">
         <v>980</v>
@@ -1147,13 +1147,13 @@
         <v>11.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF5" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
         <v>980</v>
@@ -1168,7 +1168,7 @@
         <v>55</v>
       </c>
       <c r="AL5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM5" t="n">
         <v>140</v>
@@ -1177,7 +1177,7 @@
         <v>65</v>
       </c>
       <c r="AO5" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -1213,46 +1213,46 @@
         <v>1.86</v>
       </c>
       <c r="H6" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J6" t="n">
         <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="O6" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="P6" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="T6" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="U6" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="V6" t="n">
         <v>1.2</v>
@@ -1261,58 +1261,58 @@
         <v>2.16</v>
       </c>
       <c r="X6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AA6" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="AB6" t="n">
         <v>6.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AL6" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AN6" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G7" t="n">
         <v>2.5</v>
       </c>
       <c r="H7" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="I7" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
         <v>3.95</v>
@@ -1366,19 +1366,19 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R7" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S7" t="n">
         <v>2.12</v>
@@ -1390,13 +1390,13 @@
         <v>2.96</v>
       </c>
       <c r="V7" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W7" t="n">
         <v>1.66</v>
       </c>
       <c r="X7" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
         <v>23</v>
@@ -1408,7 +1408,7 @@
         <v>980</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AC7" t="n">
         <v>11.5</v>
@@ -1417,31 +1417,31 @@
         <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
         <v>13.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="n">
         <v>980</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
         <v>27</v>
       </c>
       <c r="AM7" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AN7" t="n">
         <v>10.5</v>
@@ -1486,13 +1486,13 @@
         <v>18</v>
       </c>
       <c r="I8" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J8" t="n">
         <v>7.4</v>
       </c>
       <c r="K8" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.23</v>
@@ -1510,25 +1510,25 @@
         <v>3.05</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="S8" t="n">
         <v>2.02</v>
       </c>
       <c r="T8" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V8" t="n">
         <v>1.05</v>
       </c>
       <c r="W8" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="X8" t="n">
         <v>50</v>
@@ -1558,19 +1558,19 @@
         <v>11.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
         <v>230</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AL8" t="n">
         <v>48</v>
@@ -1615,19 +1615,19 @@
         <v>1.22</v>
       </c>
       <c r="G9" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="H9" t="n">
         <v>17</v>
       </c>
       <c r="I9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J9" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="K9" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.3</v>
@@ -1636,28 +1636,28 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O9" t="n">
         <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="R9" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S9" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T9" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="U9" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
         <v>1.05</v>
@@ -1666,7 +1666,7 @@
         <v>5</v>
       </c>
       <c r="X9" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Y9" t="n">
         <v>60</v>
@@ -1684,10 +1684,10 @@
         <v>20</v>
       </c>
       <c r="AD9" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AE9" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="AF9" t="n">
         <v>7.8</v>
@@ -1699,7 +1699,7 @@
         <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AJ9" t="n">
         <v>10.5</v>
@@ -1711,13 +1711,13 @@
         <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AN9" t="n">
         <v>4.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>640</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10">
@@ -1750,16 +1750,16 @@
         <v>10.5</v>
       </c>
       <c r="G10" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="I10" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K10" t="n">
         <v>5.8</v>
@@ -1771,31 +1771,31 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O10" t="n">
         <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q10" t="n">
         <v>1.94</v>
       </c>
       <c r="R10" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S10" t="n">
         <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="U10" t="n">
         <v>1.58</v>
       </c>
       <c r="V10" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="W10" t="n">
         <v>1.07</v>
@@ -1807,7 +1807,7 @@
         <v>8</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AA10" t="n">
         <v>12.5</v>
@@ -1819,10 +1819,10 @@
         <v>15</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AF10" t="n">
         <v>170</v>
@@ -1834,7 +1834,7 @@
         <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H11" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I11" t="n">
         <v>2.52</v>
@@ -1897,7 +1897,7 @@
         <v>3.3</v>
       </c>
       <c r="K11" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L11" t="n">
         <v>1.47</v>
@@ -1906,19 +1906,19 @@
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O11" t="n">
         <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R11" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S11" t="n">
         <v>4.1</v>
@@ -1942,7 +1942,7 @@
         <v>11.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="AA11" t="n">
         <v>980</v>
@@ -1960,10 +1960,10 @@
         <v>980</v>
       </c>
       <c r="AF11" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AG11" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
@@ -1972,13 +1972,13 @@
         <v>980</v>
       </c>
       <c r="AJ11" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL11" t="n">
         <v>65</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>55</v>
       </c>
       <c r="AM11" t="n">
         <v>140</v>
@@ -1987,7 +1987,7 @@
         <v>55</v>
       </c>
       <c r="AO11" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
@@ -2020,19 +2020,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="H12" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="I12" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="J12" t="n">
         <v>7.6</v>
       </c>
       <c r="K12" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L12" t="n">
         <v>1.16</v>
@@ -2041,7 +2041,7 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>2.36</v>
+        <v>4.8</v>
       </c>
       <c r="O12" t="n">
         <v>1.08</v>
@@ -2050,7 +2050,7 @@
         <v>4.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="R12" t="n">
         <v>2.34</v>
@@ -2059,16 +2059,16 @@
         <v>1.64</v>
       </c>
       <c r="T12" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="U12" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V12" t="n">
         <v>4.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2086,7 +2086,7 @@
         <v>980</v>
       </c>
       <c r="AC12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AD12" t="n">
         <v>14</v>
@@ -2101,28 +2101,28 @@
         <v>55</v>
       </c>
       <c r="AH12" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AI12" t="n">
         <v>980</v>
       </c>
       <c r="AJ12" t="n">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="AK12" t="n">
         <v>160</v>
       </c>
       <c r="AL12" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM12" t="n">
         <v>100</v>
       </c>
       <c r="AN12" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="13">
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G13" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
         <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
         <v>3.7</v>
@@ -2176,7 +2176,7 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O13" t="n">
         <v>1.24</v>
@@ -2185,31 +2185,31 @@
         <v>2.28</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R13" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S13" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T13" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U13" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V13" t="n">
         <v>1.43</v>
       </c>
       <c r="W13" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X13" t="n">
         <v>18</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z13" t="n">
         <v>24</v>
@@ -2218,13 +2218,13 @@
         <v>55</v>
       </c>
       <c r="AB13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD13" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>14</v>
       </c>
       <c r="AE13" t="n">
         <v>34</v>
@@ -2236,16 +2236,16 @@
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ13" t="n">
         <v>32</v>
       </c>
       <c r="AK13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL13" t="n">
         <v>32</v>
@@ -2254,10 +2254,10 @@
         <v>980</v>
       </c>
       <c r="AN13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO13" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G14" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="H14" t="n">
         <v>4.7</v>
@@ -2323,13 +2323,13 @@
         <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S14" t="n">
         <v>3.55</v>
       </c>
       <c r="T14" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U14" t="n">
         <v>2.1</v>
@@ -2341,19 +2341,19 @@
         <v>2.04</v>
       </c>
       <c r="X14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="n">
         <v>110</v>
       </c>
       <c r="AB14" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC14" t="n">
         <v>8</v>
@@ -2362,7 +2362,7 @@
         <v>19</v>
       </c>
       <c r="AE14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF14" t="n">
         <v>11.5</v>
@@ -2371,13 +2371,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI14" t="n">
         <v>70</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
         <v>20</v>
@@ -2425,16 +2425,16 @@
         <v>1.86</v>
       </c>
       <c r="G15" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I15" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K15" t="n">
         <v>3.8</v>
@@ -2449,7 +2449,7 @@
         <v>3.45</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P15" t="n">
         <v>1.81</v>
@@ -2461,10 +2461,10 @@
         <v>1.3</v>
       </c>
       <c r="S15" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T15" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U15" t="n">
         <v>1.94</v>
@@ -2473,16 +2473,16 @@
         <v>1.24</v>
       </c>
       <c r="W15" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="X15" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y15" t="n">
         <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
         <v>150</v>
@@ -2527,7 +2527,7 @@
         <v>980</v>
       </c>
       <c r="AO15" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="G16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I16" t="n">
         <v>13</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
       </c>
       <c r="J16" t="n">
         <v>6.6</v>
       </c>
       <c r="K16" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L16" t="n">
         <v>1.24</v>
@@ -2581,58 +2581,58 @@
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="O16" t="n">
         <v>1.14</v>
       </c>
       <c r="P16" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R16" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="S16" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="T16" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U16" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V16" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="X16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z16" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AA16" t="n">
-        <v>620</v>
+        <v>460</v>
       </c>
       <c r="AB16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AE16" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AF16" t="n">
         <v>10</v>
@@ -2641,10 +2641,10 @@
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI16" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AJ16" t="n">
         <v>11</v>
@@ -2653,16 +2653,16 @@
         <v>12.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM16" t="n">
         <v>130</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AO16" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
@@ -2695,22 +2695,22 @@
         <v>3.35</v>
       </c>
       <c r="G17" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H17" t="n">
         <v>2.24</v>
       </c>
       <c r="I17" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J17" t="n">
         <v>3.6</v>
       </c>
       <c r="K17" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L17" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -2719,34 +2719,34 @@
         <v>4.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R17" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S17" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T17" t="n">
         <v>1.64</v>
       </c>
       <c r="U17" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V17" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="W17" t="n">
         <v>1.39</v>
       </c>
       <c r="X17" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="Y17" t="n">
         <v>13.5</v>
@@ -2782,7 +2782,7 @@
         <v>980</v>
       </c>
       <c r="AJ17" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK17" t="n">
         <v>980</v>
@@ -2791,7 +2791,7 @@
         <v>980</v>
       </c>
       <c r="AM17" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN17" t="n">
         <v>980</v>
@@ -2830,13 +2830,13 @@
         <v>3.05</v>
       </c>
       <c r="G18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H18" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I18" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="J18" t="n">
         <v>3.9</v>
@@ -2857,43 +2857,43 @@
         <v>1.19</v>
       </c>
       <c r="P18" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R18" t="n">
         <v>1.63</v>
       </c>
       <c r="S18" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T18" t="n">
         <v>1.56</v>
       </c>
       <c r="U18" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="V18" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="W18" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X18" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Y18" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA18" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC18" t="n">
         <v>12</v>
@@ -2902,19 +2902,19 @@
         <v>14.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF18" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AG18" t="n">
         <v>17</v>
       </c>
       <c r="AH18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AJ18" t="n">
         <v>60</v>
@@ -2923,7 +2923,7 @@
         <v>36</v>
       </c>
       <c r="AL18" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="n">
         <v>70</v>
@@ -2932,7 +2932,7 @@
         <v>23</v>
       </c>
       <c r="AO18" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="19">
@@ -2965,16 +2965,16 @@
         <v>3.45</v>
       </c>
       <c r="G19" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H19" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="I19" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="J19" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K19" t="n">
         <v>4.8</v>
@@ -2986,7 +2986,7 @@
         <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O19" t="n">
         <v>1.11</v>
@@ -2995,37 +2995,37 @@
         <v>3.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="R19" t="n">
         <v>2.06</v>
       </c>
       <c r="S19" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="T19" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="U19" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="V19" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W19" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X19" t="n">
         <v>44</v>
       </c>
       <c r="Y19" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="Z19" t="n">
         <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AB19" t="n">
         <v>980</v>
@@ -3040,28 +3040,28 @@
         <v>980</v>
       </c>
       <c r="AF19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM19" t="n">
         <v>42</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>48</v>
       </c>
       <c r="AN19" t="n">
         <v>970</v>
@@ -3097,67 +3097,67 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G20" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="I20" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="J20" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K20" t="n">
         <v>3.35</v>
       </c>
       <c r="L20" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M20" t="n">
         <v>1.11</v>
       </c>
       <c r="N20" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="O20" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="P20" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="R20" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="S20" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T20" t="n">
-        <v>2.12</v>
+        <v>1.93</v>
       </c>
       <c r="U20" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="V20" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="W20" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X20" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA20" t="n">
         <v>38</v>
@@ -3172,37 +3172,37 @@
         <v>14</v>
       </c>
       <c r="AE20" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF20" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK20" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL20" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AM20" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AN20" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AO20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G21" t="n">
         <v>2.24</v>
@@ -3250,7 +3250,7 @@
         <v>3.65</v>
       </c>
       <c r="L21" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M21" t="n">
         <v>1.09</v>
@@ -3262,10 +3262,10 @@
         <v>1.41</v>
       </c>
       <c r="P21" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="R21" t="n">
         <v>1.26</v>
@@ -3277,7 +3277,7 @@
         <v>1.9</v>
       </c>
       <c r="U21" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V21" t="n">
         <v>1.33</v>
@@ -3289,7 +3289,7 @@
         <v>980</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="Z21" t="n">
         <v>980</v>
@@ -3298,10 +3298,10 @@
         <v>110</v>
       </c>
       <c r="AB21" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
         <v>980</v>
@@ -3310,7 +3310,7 @@
         <v>70</v>
       </c>
       <c r="AF21" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AG21" t="n">
         <v>980</v>
@@ -3328,7 +3328,7 @@
         <v>980</v>
       </c>
       <c r="AL21" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM21" t="n">
         <v>220</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.51</v>
+        <v>3.4</v>
       </c>
       <c r="G22" t="n">
-        <v>1.52</v>
+        <v>4.1</v>
       </c>
       <c r="H22" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC22" t="n">
         <v>8.6</v>
       </c>
-      <c r="I22" t="n">
-        <v>9</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="X22" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>320</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AD22" t="n">
-        <v>32</v>
+        <v>14.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="AF22" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AH22" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AI22" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12.5</v>
+        <v>110</v>
       </c>
       <c r="AK22" t="n">
-        <v>17.5</v>
+        <v>80</v>
       </c>
       <c r="AL22" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AM22" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="AN22" t="n">
-        <v>9.199999999999999</v>
+        <v>110</v>
       </c>
       <c r="AO22" t="n">
-        <v>260</v>
+        <v>980</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.52</v>
+        <v>1.5</v>
       </c>
       <c r="G23" t="n">
-        <v>2.58</v>
+        <v>1.51</v>
       </c>
       <c r="H23" t="n">
-        <v>3.55</v>
+        <v>8.6</v>
       </c>
       <c r="I23" t="n">
-        <v>3.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="K23" t="n">
-        <v>3.05</v>
+        <v>4.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="M23" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>2.46</v>
+        <v>3.8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.63</v>
+        <v>1.34</v>
       </c>
       <c r="P23" t="n">
-        <v>1.47</v>
+        <v>1.99</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.16</v>
+        <v>1.37</v>
       </c>
       <c r="S23" t="n">
-        <v>6.2</v>
+        <v>3.6</v>
       </c>
       <c r="T23" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="U23" t="n">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="V23" t="n">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="W23" t="n">
-        <v>1.63</v>
+        <v>2.96</v>
       </c>
       <c r="X23" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN23" t="n">
         <v>8.4</v>
       </c>
-      <c r="Y23" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>100</v>
-      </c>
       <c r="AO23" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.12</v>
+        <v>2.52</v>
       </c>
       <c r="G24" t="n">
-        <v>2.14</v>
+        <v>2.58</v>
       </c>
       <c r="H24" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="J24" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="L24" t="n">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="N24" t="n">
-        <v>3.3</v>
+        <v>2.46</v>
       </c>
       <c r="O24" t="n">
-        <v>1.41</v>
+        <v>1.65</v>
       </c>
       <c r="P24" t="n">
-        <v>1.77</v>
+        <v>1.46</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.26</v>
+        <v>3.05</v>
       </c>
       <c r="R24" t="n">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="S24" t="n">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="U24" t="n">
-        <v>1.98</v>
+        <v>1.71</v>
       </c>
       <c r="V24" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="W24" t="n">
-        <v>1.87</v>
+        <v>1.63</v>
       </c>
       <c r="X24" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA24" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AC24" t="n">
         <v>7.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE24" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH24" t="n">
-        <v>19.5</v>
+        <v>36</v>
       </c>
       <c r="AI24" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="AK24" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AL24" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AM24" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AO24" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>7</v>
+        <v>2.14</v>
       </c>
       <c r="G25" t="n">
-        <v>7.6</v>
+        <v>2.16</v>
       </c>
       <c r="H25" t="n">
-        <v>1.53</v>
+        <v>4.1</v>
       </c>
       <c r="I25" t="n">
-        <v>1.55</v>
+        <v>4.2</v>
       </c>
       <c r="J25" t="n">
-        <v>4.6</v>
+        <v>3.35</v>
       </c>
       <c r="K25" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="P25" t="n">
-        <v>2.08</v>
+        <v>1.76</v>
       </c>
       <c r="Q25" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.86</v>
       </c>
-      <c r="R25" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.16</v>
-      </c>
       <c r="X25" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.4</v>
+        <v>12.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="AA25" t="n">
-        <v>14.5</v>
+        <v>90</v>
       </c>
       <c r="AB25" t="n">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>9.6</v>
+        <v>17</v>
       </c>
       <c r="AE25" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="AF25" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK25" t="n">
         <v>24</v>
       </c>
-      <c r="AI25" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>220</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>110</v>
-      </c>
       <c r="AL25" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="AM25" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN25" t="n">
-        <v>140</v>
+        <v>19.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>8.199999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,36 +3893,36 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.83</v>
+        <v>7</v>
       </c>
       <c r="G26" t="n">
-        <v>1.84</v>
+        <v>7.4</v>
       </c>
       <c r="H26" t="n">
-        <v>4.3</v>
+        <v>1.55</v>
       </c>
       <c r="I26" t="n">
-        <v>4.7</v>
+        <v>1.57</v>
       </c>
       <c r="J26" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="K26" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="L26" t="n">
         <v>1.38</v>
@@ -3931,94 +3931,94 @@
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P26" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="R26" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S26" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="T26" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="U26" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="V26" t="n">
-        <v>1.27</v>
+        <v>2.76</v>
       </c>
       <c r="W26" t="n">
-        <v>2.18</v>
+        <v>1.15</v>
       </c>
       <c r="X26" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y26" t="n">
-        <v>17.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF26" t="n">
         <v>60</v>
       </c>
-      <c r="AA26" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AG26" t="n">
-        <v>9.800000000000001</v>
+        <v>26</v>
       </c>
       <c r="AH26" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI26" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ26" t="n">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="AK26" t="n">
-        <v>18.5</v>
+        <v>100</v>
       </c>
       <c r="AL26" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="AM26" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AN26" t="n">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="AO26" t="n">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="G27" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="H27" t="n">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
       <c r="I27" t="n">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="J27" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="L27" t="n">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="M27" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="P27" t="n">
-        <v>1.67</v>
+        <v>2.06</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.38</v>
+        <v>1.88</v>
       </c>
       <c r="R27" t="n">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="S27" t="n">
-        <v>4.7</v>
+        <v>3.25</v>
       </c>
       <c r="T27" t="n">
-        <v>2.2</v>
+        <v>1.82</v>
       </c>
       <c r="U27" t="n">
-        <v>1.74</v>
+        <v>2.08</v>
       </c>
       <c r="V27" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="W27" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="X27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF27" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AG27" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>21</v>
       </c>
-      <c r="Z27" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AK27" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>400</v>
+        <v>34</v>
       </c>
       <c r="AM27" t="n">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="AN27" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AO27" t="n">
-        <v>230</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,125 +4163,260 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="G28" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I28" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J28" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K28" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="L28" t="n">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O28" t="n">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="P28" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.98</v>
+        <v>2.36</v>
       </c>
       <c r="R28" t="n">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="S28" t="n">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="T28" t="n">
-        <v>1.92</v>
+        <v>2.2</v>
       </c>
       <c r="U28" t="n">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="V28" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W28" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="X28" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y28" t="n">
         <v>21</v>
       </c>
       <c r="Z28" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AA28" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AE28" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="AG28" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="AI28" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK28" t="n">
         <v>22</v>
       </c>
       <c r="AL28" t="n">
+        <v>400</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Ind Medellin</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>America de Cali S.A</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+      <c r="I29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="X29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL29" t="n">
         <v>46</v>
       </c>
-      <c r="AM28" t="n">
+      <c r="AM29" t="n">
         <v>160</v>
       </c>
-      <c r="AN28" t="n">
+      <c r="AN29" t="n">
         <v>12.5</v>
       </c>
-      <c r="AO28" t="n">
+      <c r="AO29" t="n">
         <v>140</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -682,7 +682,7 @@
         <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>900</v>
+        <v>680</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="H3" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="I3" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
         <v>4.1</v>
@@ -823,91 +823,91 @@
         <v>1.42</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
         <v>3.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S3" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T3" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="U3" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V3" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="W3" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="X3" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH3" t="n">
         <v>1000</v>
       </c>
-      <c r="AF3" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>980</v>
-      </c>
       <c r="AI3" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
         <v>980</v>
       </c>
       <c r="AM3" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO3" t="n">
         <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -937,52 +937,52 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="G4" t="n">
         <v>1.13</v>
       </c>
       <c r="H4" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="K4" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O4" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="P4" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="R4" t="n">
-        <v>2.84</v>
+        <v>2.62</v>
       </c>
       <c r="S4" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="V4" t="n">
         <v>1.02</v>
@@ -991,10 +991,10 @@
         <v>8.6</v>
       </c>
       <c r="X4" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="Y4" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1009,7 +1009,7 @@
         <v>980</v>
       </c>
       <c r="AD4" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1036,10 +1036,10 @@
         <v>980</v>
       </c>
       <c r="AM4" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G5" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
         <v>2.12</v>
@@ -1084,7 +1084,7 @@
         <v>2.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>3.6</v>
@@ -1096,7 +1096,7 @@
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O5" t="n">
         <v>1.39</v>
@@ -1111,10 +1111,10 @@
         <v>1.29</v>
       </c>
       <c r="S5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U5" t="n">
         <v>1.98</v>
@@ -1123,46 +1123,46 @@
         <v>1.83</v>
       </c>
       <c r="W5" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X5" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AB5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AF5" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AH5" t="n">
         <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK5" t="n">
         <v>55</v>
@@ -1171,13 +1171,13 @@
         <v>70</v>
       </c>
       <c r="AM5" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO5" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="G6" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="H6" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="I6" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.53</v>
@@ -1231,61 +1231,61 @@
         <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="O6" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="S6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T6" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="U6" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="V6" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W6" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="X6" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="Y6" t="n">
         <v>15.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AA6" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
         <v>25</v>
       </c>
       <c r="AE6" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG6" t="n">
         <v>10.5</v>
@@ -1294,25 +1294,25 @@
         <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AM6" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AN6" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7">
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="H7" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="J7" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
         <v>1.44</v>
       </c>
       <c r="R7" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="S7" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="T7" t="n">
         <v>1.48</v>
       </c>
       <c r="U7" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="V7" t="n">
         <v>1.51</v>
       </c>
       <c r="W7" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="X7" t="n">
         <v>980</v>
@@ -1423,31 +1423,31 @@
         <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
         <v>14.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AJ7" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL7" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AM7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="G8" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="H8" t="n">
         <v>18</v>
       </c>
       <c r="I8" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="J8" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="K8" t="n">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P8" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="R8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.86</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.76</v>
       </c>
       <c r="V8" t="n">
         <v>1.05</v>
       </c>
       <c r="W8" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="X8" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Y8" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Z8" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AE8" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="AF8" t="n">
         <v>11.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
         <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL8" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AM8" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="G9" t="n">
         <v>1.24</v>
       </c>
       <c r="H9" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="I9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J9" t="n">
         <v>7.2</v>
       </c>
       <c r="K9" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.3</v>
@@ -1636,73 +1636,73 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P9" t="n">
         <v>2.48</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R9" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S9" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T9" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="V9" t="n">
         <v>1.05</v>
       </c>
       <c r="W9" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="X9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y9" t="n">
         <v>60</v>
       </c>
       <c r="Z9" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AD9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="n">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="AF9" t="n">
         <v>7.8</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AI9" t="n">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK9" t="n">
         <v>15.5</v>
@@ -1714,10 +1714,10 @@
         <v>280</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AO9" t="n">
-        <v>590</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="G10" t="n">
         <v>10.5</v>
       </c>
-      <c r="G10" t="n">
-        <v>14.5</v>
-      </c>
       <c r="H10" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="I10" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
         <v>5.1</v>
       </c>
-      <c r="K10" t="n">
-        <v>5.8</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O10" t="n">
         <v>1.31</v>
       </c>
       <c r="P10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1.96</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.94</v>
       </c>
       <c r="R10" t="n">
         <v>1.36</v>
       </c>
       <c r="S10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T10" t="n">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="U10" t="n">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="V10" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="W10" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z10" t="n">
         <v>8</v>
       </c>
-      <c r="Z10" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AA10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB10" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD10" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="AG10" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AI10" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -1885,67 +1885,67 @@
         <v>3.3</v>
       </c>
       <c r="G11" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H11" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="I11" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="J11" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
         <v>3.35</v>
       </c>
       <c r="L11" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M11" t="n">
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O11" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P11" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R11" t="n">
         <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U11" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="V11" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W11" t="n">
         <v>1.4</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
         <v>25</v>
       </c>
       <c r="AA11" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AB11" t="n">
         <v>11.5</v>
@@ -1957,7 +1957,7 @@
         <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="n">
         <v>40</v>
@@ -1978,16 +1978,16 @@
         <v>980</v>
       </c>
       <c r="AL11" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN11" t="n">
         <v>55</v>
       </c>
       <c r="AO11" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="G12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="H12" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="I12" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="J12" t="n">
         <v>7.6</v>
       </c>
       <c r="K12" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L12" t="n">
         <v>1.16</v>
@@ -2041,31 +2041,31 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>4.8</v>
+        <v>11.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P12" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="R12" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="S12" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="T12" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="U12" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="V12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="W12" t="n">
         <v>1.09</v>
@@ -2074,10 +2074,10 @@
         <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
         <v>13.5</v>
@@ -2092,34 +2092,34 @@
         <v>14</v>
       </c>
       <c r="AE12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF12" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AH12" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AI12" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="AK12" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AL12" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM12" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN12" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AO12" t="n">
         <v>2.82</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.65</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.7</v>
       </c>
       <c r="L13" t="n">
         <v>1.35</v>
@@ -2176,7 +2176,7 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O13" t="n">
         <v>1.24</v>
@@ -2185,46 +2185,46 @@
         <v>2.28</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R13" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S13" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U13" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V13" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="W13" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="X13" t="n">
         <v>18</v>
       </c>
       <c r="Y13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
         <v>34</v>
@@ -2251,13 +2251,13 @@
         <v>32</v>
       </c>
       <c r="AM13" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AN13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO13" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2290,19 +2290,19 @@
         <v>1.94</v>
       </c>
       <c r="G14" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I14" t="n">
         <v>4.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L14" t="n">
         <v>1.43</v>
@@ -2311,28 +2311,28 @@
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P14" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R14" t="n">
         <v>1.37</v>
       </c>
       <c r="S14" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V14" t="n">
         <v>1.26</v>
@@ -2341,7 +2341,7 @@
         <v>2.04</v>
       </c>
       <c r="X14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y14" t="n">
         <v>16.5</v>
@@ -2353,13 +2353,13 @@
         <v>110</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC14" t="n">
         <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE14" t="n">
         <v>60</v>
@@ -2371,25 +2371,25 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH14" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
         <v>20</v>
       </c>
       <c r="AL14" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM14" t="n">
         <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO14" t="n">
         <v>70</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="G15" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H15" t="n">
         <v>4.6</v>
       </c>
       <c r="I15" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
         <v>3.55</v>
@@ -2440,43 +2440,43 @@
         <v>3.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="R15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S15" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="T15" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="U15" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W15" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
         <v>980</v>
@@ -2485,7 +2485,7 @@
         <v>980</v>
       </c>
       <c r="AA15" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB15" t="n">
         <v>8.4</v>
@@ -2494,7 +2494,7 @@
         <v>8.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AE15" t="n">
         <v>75</v>
@@ -2506,10 +2506,10 @@
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="n">
         <v>980</v>
@@ -2521,13 +2521,13 @@
         <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN15" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AO15" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="G16" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H16" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K16" t="n">
         <v>6.6</v>
-      </c>
-      <c r="K16" t="n">
-        <v>7</v>
       </c>
       <c r="L16" t="n">
         <v>1.24</v>
@@ -2581,88 +2581,88 @@
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="O16" t="n">
         <v>1.14</v>
       </c>
       <c r="P16" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="R16" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="S16" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="T16" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="U16" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W16" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="X16" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y16" t="n">
         <v>55</v>
       </c>
       <c r="Z16" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AA16" t="n">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="AB16" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC16" t="n">
         <v>15.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AE16" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF16" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI16" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK16" t="n">
         <v>12.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AM16" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN16" t="n">
         <v>3.9</v>
       </c>
       <c r="AO16" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="G17" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="I17" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K17" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L17" t="n">
         <v>1.36</v>
@@ -2734,70 +2734,70 @@
         <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U17" t="n">
         <v>2.36</v>
       </c>
       <c r="V17" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W17" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="X17" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AA17" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AB17" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AC17" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AF17" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AG17" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AH17" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AI17" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AJ17" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="n">
         <v>980</v>
       </c>
       <c r="AL17" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM17" t="n">
         <v>75</v>
       </c>
       <c r="AN17" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AO17" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -2827,52 +2827,52 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
         <v>3.2</v>
       </c>
       <c r="H18" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I18" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="J18" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K18" t="n">
         <v>4.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="R18" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S18" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T18" t="n">
         <v>1.56</v>
       </c>
       <c r="U18" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="V18" t="n">
         <v>1.73</v>
@@ -2926,13 +2926,13 @@
         <v>40</v>
       </c>
       <c r="AM18" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AO18" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G19" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="H19" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="I19" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="J19" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K19" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
         <v>1.21</v>
@@ -2986,37 +2986,37 @@
         <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O19" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P19" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Q19" t="n">
         <v>1.34</v>
       </c>
       <c r="R19" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="S19" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="T19" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="U19" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="V19" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="X19" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="Y19" t="n">
         <v>980</v>
@@ -3031,16 +3031,16 @@
         <v>980</v>
       </c>
       <c r="AC19" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AD19" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AF19" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AG19" t="n">
         <v>980</v>
@@ -3049,25 +3049,25 @@
         <v>15</v>
       </c>
       <c r="AI19" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AJ19" t="n">
         <v>65</v>
       </c>
       <c r="AK19" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AL19" t="n">
         <v>980</v>
       </c>
       <c r="AM19" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AN19" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AO19" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="20">
@@ -3097,112 +3097,112 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="G20" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="I20" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L20" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="M20" t="n">
         <v>1.11</v>
       </c>
       <c r="N20" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="O20" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="P20" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R20" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S20" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="T20" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V20" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="W20" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="X20" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="Y20" t="n">
         <v>8.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA20" t="n">
         <v>38</v>
       </c>
       <c r="AB20" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF20" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AG20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI20" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AJ20" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AK20" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AL20" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AM20" t="n">
         <v>170</v>
       </c>
       <c r="AN20" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AO20" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -3232,25 +3232,25 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G21" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="H21" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="L21" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M21" t="n">
         <v>1.09</v>
@@ -3259,34 +3259,34 @@
         <v>3.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P21" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R21" t="n">
         <v>1.26</v>
       </c>
       <c r="S21" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U21" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V21" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W21" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X21" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="Y21" t="n">
         <v>980</v>
@@ -3295,31 +3295,31 @@
         <v>980</v>
       </c>
       <c r="AA21" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB21" t="n">
         <v>980</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="AD21" t="n">
         <v>980</v>
       </c>
       <c r="AE21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI21" t="n">
         <v>70</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>85</v>
       </c>
       <c r="AJ21" t="n">
         <v>980</v>
@@ -3370,22 +3370,22 @@
         <v>3.4</v>
       </c>
       <c r="G22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>2.46</v>
+        <v>2.32</v>
       </c>
       <c r="I22" t="n">
-        <v>2.7</v>
+        <v>2.58</v>
       </c>
       <c r="J22" t="n">
         <v>2.86</v>
       </c>
       <c r="K22" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="M22" t="n">
         <v>1.13</v>
@@ -3394,19 +3394,19 @@
         <v>2.48</v>
       </c>
       <c r="O22" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="P22" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="R22" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S22" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="T22" t="n">
         <v>2</v>
@@ -3415,7 +3415,7 @@
         <v>1.61</v>
       </c>
       <c r="V22" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="W22" t="n">
         <v>1.33</v>
@@ -3427,19 +3427,19 @@
         <v>8.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA22" t="n">
         <v>980</v>
       </c>
       <c r="AB22" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AC22" t="n">
         <v>8.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE22" t="n">
         <v>980</v>
@@ -3448,22 +3448,22 @@
         <v>980</v>
       </c>
       <c r="AG22" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AH22" t="n">
         <v>980</v>
       </c>
       <c r="AI22" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ22" t="n">
         <v>110</v>
       </c>
       <c r="AK22" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL22" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM22" t="n">
         <v>250</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G23" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="H23" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I23" t="n">
         <v>8.6</v>
-      </c>
-      <c r="I23" t="n">
-        <v>8.800000000000001</v>
       </c>
       <c r="J23" t="n">
         <v>4.4</v>
@@ -3526,34 +3526,34 @@
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O23" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P23" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R23" t="n">
         <v>1.37</v>
       </c>
       <c r="S23" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T23" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U23" t="n">
         <v>1.81</v>
       </c>
       <c r="V23" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W23" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="X23" t="n">
         <v>14</v>
@@ -3565,10 +3565,10 @@
         <v>75</v>
       </c>
       <c r="AA23" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC23" t="n">
         <v>10.5</v>
@@ -3589,19 +3589,19 @@
         <v>27</v>
       </c>
       <c r="AI23" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ23" t="n">
         <v>12.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM23" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AN23" t="n">
         <v>8.4</v>
@@ -3640,109 +3640,109 @@
         <v>2.52</v>
       </c>
       <c r="G24" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I24" t="n">
         <v>3.7</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K24" t="n">
         <v>3.05</v>
       </c>
       <c r="L24" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="M24" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R24" t="n">
         <v>1.15</v>
       </c>
-      <c r="N24" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="S24" t="n">
+        <v>7</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U24" t="n">
         <v>1.65</v>
       </c>
-      <c r="P24" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S24" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.71</v>
-      </c>
       <c r="V24" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W24" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X24" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH24" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ24" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AK24" t="n">
         <v>980</v>
       </c>
       <c r="AL24" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AN24" t="n">
         <v>980</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25">
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G25" t="n">
         <v>2.14</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2.16</v>
       </c>
       <c r="H25" t="n">
         <v>4.1</v>
@@ -3784,10 +3784,10 @@
         <v>4.2</v>
       </c>
       <c r="J25" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K25" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L25" t="n">
         <v>1.48</v>
@@ -3814,16 +3814,16 @@
         <v>4.3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="U25" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V25" t="n">
         <v>1.31</v>
       </c>
       <c r="W25" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X25" t="n">
         <v>11</v>
@@ -3844,7 +3844,7 @@
         <v>7.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE25" t="n">
         <v>60</v>
@@ -3859,10 +3859,10 @@
         <v>19.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK25" t="n">
         <v>24</v>
@@ -3877,7 +3877,7 @@
         <v>19.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="G26" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H26" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I26" t="n">
         <v>1.55</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.57</v>
       </c>
       <c r="J26" t="n">
         <v>4.6</v>
@@ -3937,13 +3937,13 @@
         <v>1.28</v>
       </c>
       <c r="P26" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q26" t="n">
         <v>1.81</v>
       </c>
       <c r="R26" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S26" t="n">
         <v>3.1</v>
@@ -3952,13 +3952,13 @@
         <v>1.94</v>
       </c>
       <c r="U26" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V26" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="W26" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X26" t="n">
         <v>18</v>
@@ -3967,13 +3967,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z26" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA26" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC26" t="n">
         <v>10</v>
@@ -3985,10 +3985,10 @@
         <v>16</v>
       </c>
       <c r="AF26" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH26" t="n">
         <v>24</v>
@@ -3997,22 +3997,22 @@
         <v>34</v>
       </c>
       <c r="AJ26" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AK26" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL26" t="n">
         <v>95</v>
       </c>
       <c r="AM26" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN26" t="n">
         <v>120</v>
       </c>
       <c r="AO26" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="27">
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="G27" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="H27" t="n">
         <v>4.3</v>
       </c>
       <c r="I27" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K27" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L27" t="n">
         <v>1.38</v>
@@ -4078,31 +4078,31 @@
         <v>1.88</v>
       </c>
       <c r="R27" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S27" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="U27" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V27" t="n">
         <v>1.27</v>
       </c>
       <c r="W27" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X27" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y27" t="n">
         <v>17.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA27" t="n">
         <v>130</v>
@@ -4111,7 +4111,7 @@
         <v>9</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD27" t="n">
         <v>18.5</v>
@@ -4132,7 +4132,7 @@
         <v>75</v>
       </c>
       <c r="AJ27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK27" t="n">
         <v>18.5</v>
@@ -4147,7 +4147,7 @@
         <v>12</v>
       </c>
       <c r="AO27" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
@@ -4177,13 +4177,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="G28" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="H28" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
         <v>6.6</v>
@@ -4192,7 +4192,7 @@
         <v>3.6</v>
       </c>
       <c r="K28" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L28" t="n">
         <v>1.52</v>
@@ -4201,55 +4201,55 @@
         <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O28" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P28" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R28" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S28" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T28" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="U28" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="V28" t="n">
         <v>1.18</v>
       </c>
       <c r="W28" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="X28" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z28" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA28" t="n">
         <v>240</v>
       </c>
       <c r="AB28" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
@@ -4261,7 +4261,7 @@
         <v>10.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="n">
         <v>140</v>
@@ -4270,16 +4270,16 @@
         <v>17.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL28" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AM28" t="n">
         <v>240</v>
       </c>
       <c r="AN28" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AO28" t="n">
         <v>230</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G29" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="H29" t="n">
         <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J29" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L29" t="n">
         <v>1.41</v>
@@ -4348,31 +4348,31 @@
         <v>1.98</v>
       </c>
       <c r="R29" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S29" t="n">
         <v>3.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U29" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V29" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W29" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="X29" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y29" t="n">
         <v>20</v>
       </c>
       <c r="Z29" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA29" t="n">
         <v>210</v>
@@ -4402,19 +4402,19 @@
         <v>110</v>
       </c>
       <c r="AJ29" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM29" t="n">
         <v>160</v>
       </c>
       <c r="AN29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO29" t="n">
         <v>140</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO29"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Armenian Premier League</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,75 +653,75 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ararat Armenia</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FC Shirak</t>
+          <t>SK Poltava</t>
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H2" t="n">
+        <v>48</v>
+      </c>
+      <c r="I2" t="n">
+        <v>65</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M2" t="n">
         <v>1.01</v>
       </c>
-      <c r="G2" t="n">
-        <v>290</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="I2" t="n">
-        <v>32</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K2" t="n">
-        <v>680</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.04</v>
-      </c>
       <c r="N2" t="n">
-        <v>1.24</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.21</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.16</v>
+        <v>3.4</v>
       </c>
       <c r="S2" t="n">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -736,10 +736,10 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,10 +748,10 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Romanian Liga II</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ACS Sepsi OSK</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Poli Iasi</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.71</v>
+        <v>3.6</v>
       </c>
       <c r="G3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.78</v>
       </c>
-      <c r="H3" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.19</v>
-      </c>
       <c r="W3" t="n">
-        <v>2.28</v>
+        <v>1.37</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="AC3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD3" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AE3" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AF3" t="n">
-        <v>10.5</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.4</v>
+        <v>15.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="AJ3" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AO3" t="n">
         <v>21</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>ACS Petrolul 52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SK Poltava</t>
+          <t>FC Metaloglobus Bucuresti</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.1</v>
+        <v>1.75</v>
       </c>
       <c r="G4" t="n">
-        <v>1.13</v>
+        <v>1.76</v>
       </c>
       <c r="H4" t="n">
-        <v>28</v>
+        <v>6.2</v>
       </c>
       <c r="I4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="X4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z4" t="n">
         <v>55</v>
       </c>
-      <c r="J4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="X4" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>180</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB4" t="n">
-        <v>980</v>
+        <v>6.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF4" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AG4" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ4" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.14</v>
+        <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Stal Rzeszow</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Pogon Grodzisk Mazowiecki</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.85</v>
+        <v>2.34</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>2.48</v>
       </c>
       <c r="H5" t="n">
-        <v>2.12</v>
+        <v>2.7</v>
       </c>
       <c r="I5" t="n">
-        <v>2.2</v>
+        <v>2.94</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>3.35</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.39</v>
+        <v>1.14</v>
       </c>
       <c r="P5" t="n">
-        <v>1.79</v>
+        <v>3.05</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.18</v>
+        <v>1.43</v>
       </c>
       <c r="R5" t="n">
-        <v>1.29</v>
+        <v>1.81</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>2.14</v>
       </c>
       <c r="T5" t="n">
-        <v>1.92</v>
+        <v>1.48</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>2.92</v>
       </c>
       <c r="V5" t="n">
-        <v>1.83</v>
+        <v>1.52</v>
       </c>
       <c r="W5" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="X5" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC5" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AD5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG5" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AH5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI5" t="n">
         <v>980</v>
       </c>
-      <c r="AI5" t="n">
-        <v>44</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="AL5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM5" t="n">
         <v>70</v>
       </c>
-      <c r="AM5" t="n">
-        <v>130</v>
-      </c>
       <c r="AN5" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AO5" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,96 +1193,96 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FC Metaloglobus Bucuresti</t>
+          <t>Kryvbas Krivyi Rih</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.78</v>
+        <v>1.3</v>
       </c>
       <c r="G6" t="n">
-        <v>1.79</v>
+        <v>1.31</v>
       </c>
       <c r="H6" t="n">
-        <v>5.8</v>
+        <v>11.5</v>
       </c>
       <c r="I6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
         <v>6.4</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.94</v>
-      </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>1.64</v>
+        <v>2.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.42</v>
+        <v>1.51</v>
       </c>
       <c r="R6" t="n">
-        <v>1.23</v>
+        <v>1.73</v>
       </c>
       <c r="S6" t="n">
-        <v>4.8</v>
+        <v>2.28</v>
       </c>
       <c r="T6" t="n">
-        <v>2.22</v>
+        <v>1.88</v>
       </c>
       <c r="U6" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="W6" t="n">
-        <v>2.26</v>
+        <v>4.2</v>
       </c>
       <c r="X6" t="n">
-        <v>10.5</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>970</v>
+        <v>130</v>
       </c>
       <c r="AA6" t="n">
-        <v>200</v>
+        <v>510</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.6</v>
+        <v>11.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.4</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AE6" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AF6" t="n">
         <v>9.199999999999999</v>
@@ -1291,34 +1291,34 @@
         <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI6" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="AM6" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="AN6" t="n">
-        <v>16.5</v>
+        <v>4.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Stal Rzeszow</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pogon Grodzisk Mazowiecki</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.32</v>
+        <v>1.23</v>
       </c>
       <c r="G7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H7" t="n">
+        <v>19</v>
+      </c>
+      <c r="I7" t="n">
+        <v>23</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T7" t="n">
         <v>2.44</v>
       </c>
-      <c r="H7" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.48</v>
-      </c>
       <c r="U7" t="n">
-        <v>2.94</v>
+        <v>1.58</v>
       </c>
       <c r="V7" t="n">
-        <v>1.51</v>
+        <v>1.05</v>
       </c>
       <c r="W7" t="n">
-        <v>1.69</v>
+        <v>5.2</v>
       </c>
       <c r="X7" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="Y7" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Z7" t="n">
-        <v>28</v>
+        <v>250</v>
       </c>
       <c r="AA7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>19.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="AE7" t="n">
-        <v>44</v>
+        <v>510</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>14.5</v>
+        <v>60</v>
       </c>
       <c r="AI7" t="n">
-        <v>980</v>
+        <v>350</v>
       </c>
       <c r="AJ7" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AK7" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>70</v>
+        <v>360</v>
       </c>
       <c r="AN7" t="n">
-        <v>10</v>
+        <v>4.3</v>
       </c>
       <c r="AO7" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Shakhtar</t>
+          <t>Akritas Chlorakas</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Kryvbas Krivyi Rih</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.22</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>1.24</v>
+        <v>10.5</v>
       </c>
       <c r="H8" t="n">
-        <v>18</v>
+        <v>1.42</v>
       </c>
       <c r="I8" t="n">
-        <v>19.5</v>
+        <v>1.43</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>8</v>
+        <v>5.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>6.8</v>
+        <v>3.75</v>
       </c>
       <c r="O8" t="n">
-        <v>1.14</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>1.96</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.46</v>
+        <v>1.96</v>
       </c>
       <c r="R8" t="n">
-        <v>1.8</v>
+        <v>1.35</v>
       </c>
       <c r="S8" t="n">
-        <v>2.14</v>
+        <v>3.55</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="U8" t="n">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="V8" t="n">
-        <v>1.05</v>
+        <v>3.3</v>
       </c>
       <c r="W8" t="n">
-        <v>5.1</v>
+        <v>1.11</v>
       </c>
       <c r="X8" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>65</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>200</v>
+        <v>9.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
-        <v>60</v>
+        <v>10.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>270</v>
+        <v>16.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>11.5</v>
+        <v>85</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>38</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AI8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>460</v>
+      </c>
+      <c r="AK8" t="n">
         <v>190</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>14</v>
-      </c>
       <c r="AL8" t="n">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="AM8" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.5</v>
+        <v>300</v>
       </c>
       <c r="AO8" t="n">
-        <v>300</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Universitatea Cluj</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.21</v>
+        <v>3.35</v>
       </c>
       <c r="G9" t="n">
-        <v>1.24</v>
+        <v>3.55</v>
       </c>
       <c r="H9" t="n">
-        <v>17.5</v>
+        <v>2.44</v>
       </c>
       <c r="I9" t="n">
-        <v>23</v>
+        <v>2.54</v>
       </c>
       <c r="J9" t="n">
-        <v>7.2</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>8.4</v>
+        <v>3.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.3</v>
+        <v>1.49</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>5.3</v>
+        <v>3.25</v>
       </c>
       <c r="O9" t="n">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="P9" t="n">
-        <v>2.48</v>
+        <v>1.74</v>
       </c>
       <c r="Q9" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.64</v>
       </c>
-      <c r="R9" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.05</v>
-      </c>
       <c r="W9" t="n">
-        <v>5.1</v>
+        <v>1.4</v>
       </c>
       <c r="X9" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL9" t="n">
         <v>60</v>
       </c>
-      <c r="Z9" t="n">
-        <v>230</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>75</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>430</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>340</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>55</v>
-      </c>
       <c r="AM9" t="n">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.3</v>
+        <v>48</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Akritas Chlorakas</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="H10" t="n">
-        <v>1.43</v>
+        <v>1.24</v>
       </c>
       <c r="I10" t="n">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>7.6</v>
       </c>
       <c r="K10" t="n">
-        <v>5.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L10" t="n">
-        <v>1.41</v>
+        <v>1.16</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>3.85</v>
+        <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.31</v>
+        <v>1.07</v>
       </c>
       <c r="P10" t="n">
-        <v>1.98</v>
+        <v>4.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.96</v>
+        <v>1.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.36</v>
+        <v>2.44</v>
       </c>
       <c r="S10" t="n">
-        <v>3.5</v>
+        <v>1.64</v>
       </c>
       <c r="T10" t="n">
-        <v>2.18</v>
+        <v>1.61</v>
       </c>
       <c r="U10" t="n">
-        <v>1.72</v>
+        <v>2.34</v>
       </c>
       <c r="V10" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="W10" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.4</v>
+        <v>23</v>
       </c>
       <c r="Z10" t="n">
-        <v>8</v>
+        <v>14.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AF10" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="AG10" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="AJ10" t="n">
         <v>420</v>
       </c>
       <c r="AK10" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AL10" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="AM10" t="n">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.199999999999999</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Universitatea Cluj</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H11" t="n">
         <v>3.3</v>
       </c>
-      <c r="G11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.44</v>
-      </c>
       <c r="I11" t="n">
-        <v>2.54</v>
+        <v>3.35</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="L11" t="n">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>3.25</v>
+        <v>4.9</v>
       </c>
       <c r="O11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.42</v>
       </c>
-      <c r="P11" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.64</v>
-      </c>
       <c r="W11" t="n">
-        <v>1.4</v>
+        <v>1.72</v>
       </c>
       <c r="X11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN11" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y11" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>55</v>
-      </c>
       <c r="AO11" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10.5</v>
+        <v>1.93</v>
       </c>
       <c r="G12" t="n">
-        <v>12</v>
+        <v>1.95</v>
       </c>
       <c r="H12" t="n">
-        <v>1.24</v>
+        <v>4.6</v>
       </c>
       <c r="I12" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.27</v>
       </c>
-      <c r="J12" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="W12" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="X12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB12" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="L12" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="AC12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF12" t="n">
         <v>11.5</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD12" t="n">
+      <c r="AG12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN12" t="n">
         <v>14</v>
       </c>
-      <c r="AE12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>400</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>90</v>
-      </c>
       <c r="AO12" t="n">
-        <v>2.82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.3</v>
+        <v>1.87</v>
       </c>
       <c r="G13" t="n">
-        <v>2.34</v>
+        <v>1.94</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="I13" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J13" t="n">
         <v>3.5</v>
       </c>
-      <c r="J13" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K13" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="O13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.24</v>
       </c>
-      <c r="P13" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.4</v>
-      </c>
       <c r="W13" t="n">
-        <v>1.74</v>
+        <v>2.06</v>
       </c>
       <c r="X13" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="Z13" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AA13" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AB13" t="n">
-        <v>13.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>19.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AF13" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
       </c>
       <c r="AH13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN13" t="n">
         <v>15</v>
       </c>
-      <c r="AI13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>14</v>
-      </c>
       <c r="AO13" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>LKP Motor Lublin</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.94</v>
+        <v>3.15</v>
       </c>
       <c r="G14" t="n">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="H14" t="n">
-        <v>4.6</v>
+        <v>2.38</v>
       </c>
       <c r="I14" t="n">
-        <v>4.8</v>
+        <v>2.42</v>
       </c>
       <c r="J14" t="n">
         <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>1.97</v>
+        <v>2.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="R14" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="S14" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="U14" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="V14" t="n">
-        <v>1.26</v>
+        <v>1.7</v>
       </c>
       <c r="W14" t="n">
-        <v>2.04</v>
+        <v>1.44</v>
       </c>
       <c r="X14" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="Y14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z14" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AA14" t="n">
         <v>34</v>
       </c>
-      <c r="AA14" t="n">
-        <v>110</v>
-      </c>
       <c r="AB14" t="n">
-        <v>9</v>
+        <v>15.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="AF14" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.800000000000001</v>
+        <v>17</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI14" t="n">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="AK14" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AN14" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.88</v>
+        <v>1.3</v>
       </c>
       <c r="G15" t="n">
-        <v>1.94</v>
+        <v>1.31</v>
       </c>
       <c r="H15" t="n">
-        <v>4.6</v>
+        <v>11</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>6.4</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="M15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.08</v>
       </c>
-      <c r="N15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.25</v>
-      </c>
       <c r="W15" t="n">
-        <v>2.06</v>
+        <v>4.2</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="Y15" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="Z15" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AA15" t="n">
-        <v>140</v>
+        <v>770</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.4</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.6</v>
+        <v>15.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>19.5</v>
+        <v>42</v>
       </c>
       <c r="AE15" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="AF15" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AJ15" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AM15" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>15</v>
+        <v>3.85</v>
       </c>
       <c r="AO15" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.31</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>1.33</v>
+        <v>3.15</v>
       </c>
       <c r="H16" t="n">
-        <v>11.5</v>
+        <v>2.26</v>
       </c>
       <c r="I16" t="n">
-        <v>12</v>
+        <v>2.34</v>
       </c>
       <c r="J16" t="n">
-        <v>6.4</v>
+        <v>3.95</v>
       </c>
       <c r="K16" t="n">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="P16" t="n">
-        <v>3.2</v>
+        <v>2.66</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="R16" t="n">
-        <v>1.87</v>
+        <v>1.66</v>
       </c>
       <c r="S16" t="n">
-        <v>2.08</v>
+        <v>2.42</v>
       </c>
       <c r="T16" t="n">
-        <v>1.79</v>
+        <v>1.56</v>
       </c>
       <c r="U16" t="n">
-        <v>2.2</v>
+        <v>2.68</v>
       </c>
       <c r="V16" t="n">
-        <v>1.09</v>
+        <v>1.74</v>
       </c>
       <c r="W16" t="n">
-        <v>4.1</v>
+        <v>1.46</v>
       </c>
       <c r="X16" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="Y16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL16" t="n">
         <v>55</v>
       </c>
-      <c r="Z16" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>470</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>27</v>
-      </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.9</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>150</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LKP Motor Lublin</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H17" t="n">
-        <v>2.28</v>
+        <v>1.95</v>
       </c>
       <c r="I17" t="n">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P17" t="n">
         <v>3.75</v>
       </c>
-      <c r="K17" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.18</v>
-      </c>
       <c r="Q17" t="n">
-        <v>1.79</v>
+        <v>1.33</v>
       </c>
       <c r="R17" t="n">
-        <v>1.46</v>
+        <v>2.12</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="T17" t="n">
-        <v>1.66</v>
+        <v>1.4</v>
       </c>
       <c r="U17" t="n">
-        <v>2.36</v>
+        <v>3.3</v>
       </c>
       <c r="V17" t="n">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="X17" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="Y17" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="Z17" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AA17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI17" t="n">
         <v>32</v>
       </c>
-      <c r="AB17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>46</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ17" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK17" t="n">
         <v>980</v>
       </c>
       <c r="AL17" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AN17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO17" t="n">
-        <v>15</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="G18" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="H18" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="I18" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="J18" t="n">
-        <v>3.95</v>
+        <v>3.05</v>
       </c>
       <c r="K18" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="L18" t="n">
-        <v>1.29</v>
+        <v>1.55</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>5.8</v>
+        <v>2.74</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.48</v>
       </c>
       <c r="P18" t="n">
-        <v>2.68</v>
+        <v>1.58</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.57</v>
+        <v>2.46</v>
       </c>
       <c r="R18" t="n">
-        <v>1.64</v>
+        <v>1.21</v>
       </c>
       <c r="S18" t="n">
-        <v>2.44</v>
+        <v>4.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
-        <v>2.66</v>
+        <v>1.8</v>
       </c>
       <c r="V18" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W18" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="X18" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.5</v>
+        <v>8</v>
       </c>
       <c r="Z18" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB18" t="n">
-        <v>23</v>
+        <v>11.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>7.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AF18" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AG18" t="n">
         <v>17</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AI18" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AJ18" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AK18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO18" t="n">
         <v>36</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,75 +2948,75 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>3.65</v>
+        <v>2.36</v>
       </c>
       <c r="H19" t="n">
-        <v>1.94</v>
+        <v>3.55</v>
       </c>
       <c r="I19" t="n">
-        <v>1.99</v>
+        <v>4.1</v>
       </c>
       <c r="J19" t="n">
-        <v>4.6</v>
+        <v>3.15</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>3.55</v>
       </c>
       <c r="L19" t="n">
-        <v>1.21</v>
+        <v>1.48</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>9.199999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
-        <v>3.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.34</v>
+        <v>2.2</v>
       </c>
       <c r="R19" t="n">
-        <v>2.1</v>
+        <v>1.27</v>
       </c>
       <c r="S19" t="n">
-        <v>1.85</v>
+        <v>4.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.41</v>
+        <v>1.88</v>
       </c>
       <c r="U19" t="n">
-        <v>3.25</v>
+        <v>1.93</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.37</v>
+        <v>1.74</v>
       </c>
       <c r="X19" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="Y19" t="n">
         <v>980</v>
@@ -3025,49 +3025,49 @@
         <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AB19" t="n">
         <v>980</v>
       </c>
       <c r="AC19" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AE19" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AF19" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AG19" t="n">
         <v>980</v>
       </c>
       <c r="AH19" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AJ19" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AK19" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AL19" t="n">
         <v>980</v>
       </c>
       <c r="AM19" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="AN19" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AO19" t="n">
-        <v>6.2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.55</v>
+        <v>2.82</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="H20" t="n">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="I20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N20" t="n">
         <v>2.46</v>
       </c>
-      <c r="J20" t="n">
-        <v>3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.78</v>
-      </c>
       <c r="O20" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="P20" t="n">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.46</v>
+        <v>2.8</v>
       </c>
       <c r="R20" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="S20" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="U20" t="n">
-        <v>1.84</v>
+        <v>1.65</v>
       </c>
       <c r="V20" t="n">
-        <v>1.69</v>
+        <v>1.48</v>
       </c>
       <c r="W20" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="X20" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="Z20" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AA20" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="AD20" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AE20" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AF20" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AH20" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK20" t="n">
         <v>70</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>60</v>
-      </c>
       <c r="AL20" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="F21" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T21" t="n">
         <v>2.16</v>
       </c>
-      <c r="G21" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.88</v>
-      </c>
       <c r="U21" t="n">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="V21" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="W21" t="n">
-        <v>1.78</v>
+        <v>2.88</v>
       </c>
       <c r="X21" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y21" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="Z21" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AA21" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="AB21" t="n">
-        <v>980</v>
+        <v>7.4</v>
       </c>
       <c r="AC21" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AE21" t="n">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="AF21" t="n">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG21" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH21" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AI21" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AJ21" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="AN21" t="n">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.4</v>
+        <v>2.56</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="H22" t="n">
-        <v>2.32</v>
+        <v>3.55</v>
       </c>
       <c r="I22" t="n">
-        <v>2.58</v>
+        <v>3.65</v>
       </c>
       <c r="J22" t="n">
-        <v>2.86</v>
+        <v>2.98</v>
       </c>
       <c r="K22" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S22" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U22" t="n">
         <v>1.63</v>
       </c>
-      <c r="M22" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S22" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.61</v>
-      </c>
       <c r="V22" t="n">
-        <v>1.64</v>
+        <v>1.37</v>
       </c>
       <c r="W22" t="n">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="X22" t="n">
-        <v>10</v>
+        <v>6.8</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AA22" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="n">
-        <v>980</v>
+        <v>6.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.6</v>
+        <v>7</v>
       </c>
       <c r="AD22" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AF22" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AG22" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AH22" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AI22" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AJ22" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO22" t="n">
         <v>110</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>110</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>980</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.51</v>
+        <v>2.14</v>
       </c>
       <c r="G23" t="n">
-        <v>1.52</v>
+        <v>2.16</v>
       </c>
       <c r="H23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X23" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB23" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="I23" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W23" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="X23" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z23" t="n">
+      <c r="AC23" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI23" t="n">
         <v>75</v>
       </c>
-      <c r="AA23" t="n">
-        <v>290</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI23" t="n">
+      <c r="AJ23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM23" t="n">
         <v>130</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>170</v>
-      </c>
       <c r="AN23" t="n">
-        <v>8.4</v>
+        <v>20</v>
       </c>
       <c r="AO23" t="n">
-        <v>210</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.52</v>
+        <v>7.2</v>
       </c>
       <c r="G24" t="n">
-        <v>2.6</v>
+        <v>7.4</v>
       </c>
       <c r="H24" t="n">
-        <v>3.55</v>
+        <v>1.53</v>
       </c>
       <c r="I24" t="n">
-        <v>3.7</v>
+        <v>1.54</v>
       </c>
       <c r="J24" t="n">
-        <v>2.98</v>
+        <v>4.6</v>
       </c>
       <c r="K24" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S24" t="n">
         <v>3.05</v>
       </c>
-      <c r="L24" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="M24" t="n">
+      <c r="T24" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="W24" t="n">
         <v>1.16</v>
       </c>
-      <c r="N24" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S24" t="n">
-        <v>7</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.62</v>
-      </c>
       <c r="X24" t="n">
-        <v>7.4</v>
+        <v>18.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z24" t="n">
-        <v>23</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>6.8</v>
+        <v>26</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.2</v>
+        <v>10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>18</v>
+        <v>9.6</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="AG24" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AH24" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>220</v>
+      </c>
+      <c r="AK24" t="n">
         <v>110</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>980</v>
-      </c>
       <c r="AL24" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AM24" t="n">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="AN24" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AO24" t="n">
-        <v>140</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.12</v>
+        <v>1.79</v>
       </c>
       <c r="G25" t="n">
-        <v>2.14</v>
+        <v>1.82</v>
       </c>
       <c r="H25" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I25" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J25" t="n">
         <v>4.2</v>
       </c>
-      <c r="J25" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K25" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>1.76</v>
+        <v>2.08</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.28</v>
+        <v>1.88</v>
       </c>
       <c r="R25" t="n">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="S25" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.99</v>
+        <v>1.81</v>
       </c>
       <c r="U25" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="V25" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="W25" t="n">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="X25" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AA25" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE25" t="n">
         <v>60</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AH25" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI25" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AK25" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AM25" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN25" t="n">
-        <v>19.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>7.2</v>
+        <v>1.74</v>
       </c>
       <c r="G26" t="n">
-        <v>7.6</v>
+        <v>1.77</v>
       </c>
       <c r="H26" t="n">
-        <v>1.54</v>
+        <v>6</v>
       </c>
       <c r="I26" t="n">
-        <v>1.55</v>
+        <v>6.4</v>
       </c>
       <c r="J26" t="n">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="K26" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S26" t="n">
         <v>4.8</v>
       </c>
-      <c r="L26" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N26" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.1</v>
-      </c>
       <c r="T26" t="n">
-        <v>1.94</v>
+        <v>2.22</v>
       </c>
       <c r="U26" t="n">
-        <v>1.98</v>
+        <v>1.74</v>
       </c>
       <c r="V26" t="n">
-        <v>2.84</v>
+        <v>1.18</v>
       </c>
       <c r="W26" t="n">
-        <v>1.14</v>
+        <v>2.28</v>
       </c>
       <c r="X26" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.800000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>8.800000000000001</v>
+        <v>50</v>
       </c>
       <c r="AA26" t="n">
-        <v>13.5</v>
+        <v>240</v>
       </c>
       <c r="AB26" t="n">
-        <v>26</v>
+        <v>6.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>9.6</v>
+        <v>27</v>
       </c>
       <c r="AE26" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="AG26" t="n">
-        <v>27</v>
+        <v>10.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI26" t="n">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="AJ26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>610</v>
+      </c>
+      <c r="AM26" t="n">
         <v>240</v>
       </c>
-      <c r="AK26" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>130</v>
-      </c>
       <c r="AN26" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="AO26" t="n">
-        <v>7.6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,395 +4028,125 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="G27" t="n">
-        <v>1.84</v>
+        <v>1.67</v>
       </c>
       <c r="H27" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="n">
         <v>4.3</v>
       </c>
-      <c r="I27" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L27" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="P27" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="Q27" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U27" t="n">
         <v>1.88</v>
       </c>
-      <c r="R27" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2.12</v>
-      </c>
       <c r="V27" t="n">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="W27" t="n">
-        <v>2.18</v>
+        <v>2.48</v>
       </c>
       <c r="X27" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="Z27" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AA27" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="AB27" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF27" t="n">
         <v>9.6</v>
       </c>
-      <c r="AD27" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AG27" t="n">
-        <v>9.4</v>
+        <v>12</v>
       </c>
       <c r="AH27" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AJ27" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AK27" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AM27" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AN27" t="n">
         <v>12</v>
       </c>
       <c r="AO27" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2025-12-01</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Racing Club</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Tigre</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
-      </c>
-      <c r="I28" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W28" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="X28" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>48</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>600</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>240</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2025-12-01</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Ind Medellin</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>America de Cali S.A</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="H29" t="n">
-        <v>6</v>
-      </c>
-      <c r="I29" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>4</v>
-      </c>
-      <c r="K29" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N29" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="X29" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>210</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO29" t="n">
         <v>140</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO27"/>
+  <dimension ref="A1:AO26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,75 +653,75 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SK Poltava</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.08</v>
+        <v>6.6</v>
       </c>
       <c r="G2" t="n">
-        <v>1.09</v>
+        <v>7.4</v>
       </c>
       <c r="H2" t="n">
-        <v>48</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>65</v>
+        <v>3.75</v>
       </c>
       <c r="J2" t="n">
-        <v>15.5</v>
+        <v>1.7</v>
       </c>
       <c r="K2" t="n">
-        <v>19.5</v>
+        <v>1.72</v>
       </c>
       <c r="L2" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.15</v>
+        <v>2.12</v>
       </c>
       <c r="R2" t="n">
-        <v>3.4</v>
+        <v>1.12</v>
       </c>
       <c r="S2" t="n">
-        <v>1.15</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>1.14</v>
       </c>
       <c r="X2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -736,34 +736,34 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>1.84</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -772,13 +772,13 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -793,127 +793,127 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>ACS Petrolul 52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>FC Metaloglobus Bucuresti</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.6</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>3.7</v>
+        <v>1.02</v>
       </c>
       <c r="H3" t="n">
-        <v>2.24</v>
+        <v>280</v>
       </c>
       <c r="I3" t="n">
-        <v>2.28</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>48</v>
       </c>
       <c r="K3" t="n">
-        <v>3.55</v>
+        <v>85</v>
       </c>
       <c r="L3" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.31</v>
+        <v>2.52</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="T3" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL3" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="Z3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>60</v>
-      </c>
       <c r="AM3" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AN3" t="n">
-        <v>48</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>Stal Rzeszow</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FC Metaloglobus Bucuresti</t>
+          <t>Pogon Grodzisk Mazowiecki</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.75</v>
+        <v>2.38</v>
       </c>
       <c r="G4" t="n">
-        <v>1.76</v>
+        <v>2.48</v>
       </c>
       <c r="H4" t="n">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>6.6</v>
+        <v>2.96</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.52</v>
+        <v>1.26</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>2.94</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.49</v>
+        <v>1.15</v>
       </c>
       <c r="P4" t="n">
-        <v>1.64</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>1.48</v>
       </c>
       <c r="R4" t="n">
-        <v>1.23</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>2.18</v>
       </c>
       <c r="T4" t="n">
-        <v>2.24</v>
+        <v>1.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.72</v>
+        <v>2.86</v>
       </c>
       <c r="V4" t="n">
-        <v>1.18</v>
+        <v>1.51</v>
       </c>
       <c r="W4" t="n">
-        <v>2.3</v>
+        <v>1.67</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="Z4" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="AA4" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.6</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="AF4" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AI4" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17.5</v>
+        <v>36</v>
       </c>
       <c r="AK4" t="n">
         <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AM4" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>350</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,31 +1063,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Stal Rzeszow</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pogon Grodzisk Mazowiecki</t>
+          <t>Kryvbas Krivyi Rih</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.34</v>
+        <v>1.25</v>
       </c>
       <c r="G5" t="n">
-        <v>2.48</v>
+        <v>1.26</v>
       </c>
       <c r="H5" t="n">
-        <v>2.7</v>
+        <v>14.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2.94</v>
+        <v>16</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>6.8</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>7.4</v>
       </c>
       <c r="L5" t="n">
         <v>1.25</v>
@@ -1096,94 +1096,94 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P5" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="R5" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="S5" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="T5" t="n">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>2.92</v>
+        <v>1.94</v>
       </c>
       <c r="V5" t="n">
-        <v>1.52</v>
+        <v>1.06</v>
       </c>
       <c r="W5" t="n">
-        <v>1.67</v>
+        <v>4.7</v>
       </c>
       <c r="X5" t="n">
         <v>34</v>
       </c>
       <c r="Y5" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Z5" t="n">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="AA5" t="n">
-        <v>980</v>
+        <v>610</v>
       </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AE5" t="n">
-        <v>44</v>
+        <v>660</v>
       </c>
       <c r="AF5" t="n">
-        <v>23</v>
+        <v>8.6</v>
       </c>
       <c r="AG5" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>14.5</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AJ5" t="n">
-        <v>60</v>
+        <v>10.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AL5" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>3.85</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Shakhtar</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Kryvbas Krivyi Rih</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>21</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L6" t="n">
         <v>1.3</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.26</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="R6" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="S6" t="n">
-        <v>2.28</v>
+        <v>2.56</v>
       </c>
       <c r="T6" t="n">
-        <v>1.88</v>
+        <v>2.36</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="V6" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="W6" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="X6" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y6" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>220</v>
+      </c>
+      <c r="AA6" t="n">
         <v>1000</v>
       </c>
-      <c r="Z6" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>510</v>
-      </c>
       <c r="AB6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AD6" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="AE6" t="n">
-        <v>180</v>
+        <v>420</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK6" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AM6" t="n">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Akritas Chlorakas</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.23</v>
+        <v>9.4</v>
       </c>
       <c r="G7" t="n">
-        <v>1.24</v>
+        <v>11</v>
       </c>
       <c r="H7" t="n">
-        <v>19</v>
+        <v>1.41</v>
       </c>
       <c r="I7" t="n">
-        <v>23</v>
+        <v>1.43</v>
       </c>
       <c r="J7" t="n">
-        <v>7.2</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>8.6</v>
+        <v>5.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>5.3</v>
+        <v>3.75</v>
       </c>
       <c r="O7" t="n">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>2.48</v>
+        <v>1.94</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.64</v>
+        <v>1.96</v>
       </c>
       <c r="R7" t="n">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>2.58</v>
+        <v>3.55</v>
       </c>
       <c r="T7" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="V7" t="n">
-        <v>1.05</v>
+        <v>3.3</v>
       </c>
       <c r="W7" t="n">
-        <v>5.2</v>
+        <v>1.1</v>
       </c>
       <c r="X7" t="n">
-        <v>32</v>
+        <v>16.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>60</v>
+        <v>7.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>250</v>
+        <v>7.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.800000000000001</v>
+        <v>28</v>
       </c>
       <c r="AC7" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>90</v>
+        <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>510</v>
+        <v>16.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.199999999999999</v>
+        <v>140</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="AH7" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AI7" t="n">
-        <v>350</v>
+        <v>48</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>530</v>
       </c>
       <c r="AK7" t="n">
-        <v>17.5</v>
+        <v>240</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="AM7" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.3</v>
+        <v>320</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Akritas Chlorakas</t>
+          <t>Universitatea Cluj</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8.800000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="G8" t="n">
-        <v>10.5</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.42</v>
+        <v>2.46</v>
       </c>
       <c r="I8" t="n">
-        <v>1.43</v>
+        <v>2.54</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
       <c r="L8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.41</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.32</v>
-      </c>
       <c r="P8" t="n">
-        <v>1.96</v>
+        <v>1.79</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.96</v>
+        <v>2.26</v>
       </c>
       <c r="R8" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="T8" t="n">
-        <v>2.18</v>
+        <v>1.89</v>
       </c>
       <c r="U8" t="n">
-        <v>1.71</v>
+        <v>1.99</v>
       </c>
       <c r="V8" t="n">
-        <v>3.3</v>
+        <v>1.64</v>
       </c>
       <c r="W8" t="n">
-        <v>1.11</v>
+        <v>1.4</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.4</v>
+        <v>18</v>
       </c>
       <c r="AA8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD8" t="n">
         <v>12</v>
       </c>
-      <c r="AB8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AE8" t="n">
-        <v>16.5</v>
+        <v>32</v>
       </c>
       <c r="AF8" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>15.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AJ8" t="n">
-        <v>460</v>
+        <v>65</v>
       </c>
       <c r="AK8" t="n">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="AL8" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="AM8" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="n">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.199999999999999</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Universitatea Cluj</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.35</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>3.55</v>
+        <v>13</v>
       </c>
       <c r="H9" t="n">
-        <v>2.44</v>
+        <v>1.25</v>
       </c>
       <c r="I9" t="n">
-        <v>2.54</v>
+        <v>1.28</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>7.6</v>
       </c>
       <c r="K9" t="n">
-        <v>3.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>1.49</v>
+        <v>1.15</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="P9" t="n">
-        <v>1.74</v>
+        <v>4.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.26</v>
+        <v>1.26</v>
       </c>
       <c r="R9" t="n">
-        <v>1.28</v>
+        <v>2.34</v>
       </c>
       <c r="S9" t="n">
-        <v>4.3</v>
+        <v>1.68</v>
       </c>
       <c r="T9" t="n">
-        <v>1.88</v>
+        <v>1.64</v>
       </c>
       <c r="U9" t="n">
-        <v>1.99</v>
+        <v>2.36</v>
       </c>
       <c r="V9" t="n">
-        <v>1.64</v>
+        <v>4.5</v>
       </c>
       <c r="W9" t="n">
-        <v>1.4</v>
+        <v>1.08</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.199999999999999</v>
+        <v>20</v>
       </c>
       <c r="Z9" t="n">
         <v>14.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.6</v>
+        <v>26</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>32</v>
+        <v>13.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AI9" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AJ9" t="n">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="AK9" t="n">
-        <v>44</v>
+        <v>450</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AM9" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN9" t="n">
         <v>130</v>
       </c>
-      <c r="AN9" t="n">
-        <v>48</v>
-      </c>
       <c r="AO9" t="n">
-        <v>29</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>2.3</v>
       </c>
       <c r="G10" t="n">
-        <v>13</v>
+        <v>2.32</v>
       </c>
       <c r="H10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.24</v>
       </c>
-      <c r="I10" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="J10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N10" t="n">
-        <v>11</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.07</v>
-      </c>
       <c r="P10" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="R10" t="n">
-        <v>2.44</v>
+        <v>1.52</v>
       </c>
       <c r="S10" t="n">
-        <v>1.64</v>
+        <v>2.84</v>
       </c>
       <c r="T10" t="n">
         <v>1.61</v>
       </c>
       <c r="U10" t="n">
-        <v>2.34</v>
+        <v>2.56</v>
       </c>
       <c r="V10" t="n">
-        <v>4.5</v>
+        <v>1.41</v>
       </c>
       <c r="W10" t="n">
-        <v>1.08</v>
+        <v>1.75</v>
       </c>
       <c r="X10" t="n">
-        <v>80</v>
+        <v>19.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="Z10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN10" t="n">
         <v>14.5</v>
       </c>
-      <c r="AA10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>85</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>160</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>420</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>160</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>120</v>
-      </c>
       <c r="AO10" t="n">
-        <v>3.15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.34</v>
+        <v>1.92</v>
       </c>
       <c r="G11" t="n">
-        <v>2.38</v>
+        <v>1.93</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="I11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S11" t="n">
         <v>3.35</v>
       </c>
-      <c r="J11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.88</v>
-      </c>
       <c r="T11" t="n">
-        <v>1.6</v>
+        <v>1.84</v>
       </c>
       <c r="U11" t="n">
-        <v>2.56</v>
+        <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="W11" t="n">
-        <v>1.72</v>
+        <v>2.06</v>
       </c>
       <c r="X11" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="n">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="AB11" t="n">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC11" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE11" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AF11" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AJ11" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM11" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN11" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,126 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>LKP Motor Lublin</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.93</v>
+        <v>3.1</v>
       </c>
       <c r="G12" t="n">
-        <v>1.95</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
-        <v>4.6</v>
+        <v>2.36</v>
       </c>
       <c r="I12" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="J12" t="n">
         <v>3.65</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>1.96</v>
+        <v>2.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.02</v>
+        <v>1.76</v>
       </c>
       <c r="R12" t="n">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="S12" t="n">
-        <v>3.55</v>
+        <v>2.94</v>
       </c>
       <c r="T12" t="n">
-        <v>1.83</v>
+        <v>1.61</v>
       </c>
       <c r="U12" t="n">
-        <v>2.12</v>
+        <v>2.46</v>
       </c>
       <c r="V12" t="n">
-        <v>1.27</v>
+        <v>1.71</v>
       </c>
       <c r="W12" t="n">
-        <v>2.04</v>
+        <v>1.44</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Y12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z12" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z12" t="n">
-        <v>34</v>
-      </c>
       <c r="AA12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM12" t="n">
         <v>100</v>
       </c>
-      <c r="AB12" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>110</v>
-      </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AO12" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G13" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="H13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I13" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
         <v>3.7</v>
@@ -2176,46 +2176,46 @@
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P13" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R13" t="n">
         <v>1.33</v>
       </c>
       <c r="S13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T13" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V13" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W13" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="X13" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="Y13" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AA13" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="AB13" t="n">
         <v>8.4</v>
@@ -2224,13 +2224,13 @@
         <v>8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AF13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
@@ -2239,13 +2239,13 @@
         <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AJ13" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
         <v>980</v>
@@ -2254,16 +2254,16 @@
         <v>140</v>
       </c>
       <c r="AN13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LKP Motor Lublin</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>7</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P14" t="n">
         <v>3.15</v>
       </c>
-      <c r="G14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.2</v>
-      </c>
       <c r="Q14" t="n">
-        <v>1.78</v>
+        <v>1.44</v>
       </c>
       <c r="R14" t="n">
-        <v>1.47</v>
+        <v>1.85</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>2.12</v>
       </c>
       <c r="T14" t="n">
-        <v>1.63</v>
+        <v>1.81</v>
       </c>
       <c r="U14" t="n">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="V14" t="n">
-        <v>1.7</v>
+        <v>1.08</v>
       </c>
       <c r="W14" t="n">
-        <v>1.44</v>
+        <v>4.2</v>
       </c>
       <c r="X14" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="Y14" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>440</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK14" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>980</v>
-      </c>
       <c r="AL14" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AN14" t="n">
-        <v>26</v>
+        <v>3.85</v>
       </c>
       <c r="AO14" t="n">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,126 +2408,126 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.3</v>
+        <v>3.35</v>
       </c>
       <c r="G15" t="n">
-        <v>1.31</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
-        <v>11</v>
+        <v>2.14</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>2.2</v>
       </c>
       <c r="J15" t="n">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>7</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="R15" t="n">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="S15" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.78</v>
+        <v>1.51</v>
       </c>
       <c r="U15" t="n">
-        <v>2.18</v>
+        <v>2.68</v>
       </c>
       <c r="V15" t="n">
-        <v>1.08</v>
+        <v>1.84</v>
       </c>
       <c r="W15" t="n">
-        <v>4.2</v>
+        <v>1.41</v>
       </c>
       <c r="X15" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Y15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>60</v>
       </c>
-      <c r="Z15" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>770</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AK15" t="n">
-        <v>12.5</v>
+        <v>32</v>
       </c>
       <c r="AL15" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.85</v>
+        <v>21</v>
       </c>
       <c r="AO15" t="n">
-        <v>160</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="G16" t="n">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="H16" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="I16" t="n">
-        <v>2.34</v>
+        <v>1.94</v>
       </c>
       <c r="J16" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="L16" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>9.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="P16" t="n">
-        <v>2.66</v>
+        <v>3.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="R16" t="n">
-        <v>1.66</v>
+        <v>2.16</v>
       </c>
       <c r="S16" t="n">
-        <v>2.42</v>
+        <v>1.81</v>
       </c>
       <c r="T16" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="U16" t="n">
-        <v>2.68</v>
+        <v>3.3</v>
       </c>
       <c r="V16" t="n">
-        <v>1.74</v>
+        <v>2.04</v>
       </c>
       <c r="W16" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="X16" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.5</v>
+        <v>40</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AB16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC16" t="n">
         <v>22</v>
       </c>
-      <c r="AC16" t="n">
-        <v>11</v>
-      </c>
       <c r="AD16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI16" t="n">
         <v>22</v>
       </c>
-      <c r="AF16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>32</v>
-      </c>
       <c r="AJ16" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AK16" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM16" t="n">
         <v>55</v>
       </c>
-      <c r="AM16" t="n">
-        <v>65</v>
-      </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AO16" t="n">
-        <v>11</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,126 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G17" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="H17" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>2.46</v>
       </c>
       <c r="J17" t="n">
-        <v>4.6</v>
+        <v>3.05</v>
       </c>
       <c r="K17" t="n">
-        <v>4.9</v>
+        <v>3.35</v>
       </c>
       <c r="L17" t="n">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>9.4</v>
+        <v>2.84</v>
       </c>
       <c r="O17" t="n">
-        <v>1.1</v>
+        <v>1.48</v>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>1.59</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.33</v>
+        <v>2.46</v>
       </c>
       <c r="R17" t="n">
-        <v>2.12</v>
+        <v>1.21</v>
       </c>
       <c r="S17" t="n">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.4</v>
+        <v>1.99</v>
       </c>
       <c r="U17" t="n">
-        <v>3.3</v>
+        <v>1.83</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="W17" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="X17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA17" t="n">
         <v>55</v>
       </c>
-      <c r="Y17" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>980</v>
-      </c>
       <c r="AB17" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>22</v>
+        <v>7.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF17" t="n">
         <v>26</v>
       </c>
-      <c r="AF17" t="n">
-        <v>70</v>
-      </c>
       <c r="AG17" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="AJ17" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AK17" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AL17" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AM17" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AN17" t="n">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="AO17" t="n">
-        <v>6.2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I18" t="n">
         <v>3.55</v>
       </c>
-      <c r="G18" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.44</v>
-      </c>
       <c r="J18" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K18" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>2.74</v>
+        <v>3.15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="P18" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.46</v>
+        <v>2.28</v>
       </c>
       <c r="R18" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="V18" t="n">
-        <v>1.69</v>
+        <v>1.4</v>
       </c>
       <c r="W18" t="n">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="X18" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB18" t="n">
         <v>11.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.6</v>
+        <v>30</v>
       </c>
       <c r="AD18" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AE18" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AF18" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AH18" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO18" t="n">
         <v>65</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.2</v>
+        <v>3.15</v>
       </c>
       <c r="G19" t="n">
-        <v>2.36</v>
+        <v>3.5</v>
       </c>
       <c r="H19" t="n">
-        <v>3.55</v>
+        <v>2.68</v>
       </c>
       <c r="I19" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="J19" t="n">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="K19" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="N19" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.64</v>
       </c>
       <c r="P19" t="n">
-        <v>1.72</v>
+        <v>1.46</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="S19" t="n">
-        <v>4.1</v>
+        <v>6.4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="U19" t="n">
-        <v>1.93</v>
+        <v>1.71</v>
       </c>
       <c r="V19" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="W19" t="n">
-        <v>1.74</v>
+        <v>1.41</v>
       </c>
       <c r="X19" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA19" t="n">
         <v>980</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>95</v>
       </c>
       <c r="AB19" t="n">
         <v>980</v>
       </c>
       <c r="AC19" t="n">
-        <v>17.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD19" t="n">
         <v>980</v>
       </c>
       <c r="AE19" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
         <v>980</v>
       </c>
       <c r="AG19" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AH19" t="n">
         <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AJ19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>270</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>85</v>
+      </c>
+      <c r="AO19" t="n">
         <v>980</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.82</v>
+        <v>1.55</v>
       </c>
       <c r="G20" t="n">
-        <v>3.45</v>
+        <v>1.56</v>
       </c>
       <c r="H20" t="n">
-        <v>2.58</v>
+        <v>7.6</v>
       </c>
       <c r="I20" t="n">
-        <v>3.5</v>
+        <v>7.8</v>
       </c>
       <c r="J20" t="n">
-        <v>2.64</v>
+        <v>4.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
       <c r="M20" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>2.46</v>
+        <v>3.9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="P20" t="n">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.8</v>
+        <v>1.98</v>
       </c>
       <c r="R20" t="n">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="S20" t="n">
-        <v>6.2</v>
+        <v>3.6</v>
       </c>
       <c r="T20" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="U20" t="n">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="V20" t="n">
-        <v>1.48</v>
+        <v>1.14</v>
       </c>
       <c r="W20" t="n">
-        <v>1.38</v>
+        <v>2.78</v>
       </c>
       <c r="X20" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="Z20" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AB20" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD20" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AE20" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AF20" t="n">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="AG20" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>70</v>
+        <v>16.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO20" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.52</v>
+        <v>2.6</v>
       </c>
       <c r="G21" t="n">
-        <v>1.53</v>
+        <v>2.64</v>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>3.55</v>
       </c>
       <c r="I21" t="n">
-        <v>8.4</v>
+        <v>3.65</v>
       </c>
       <c r="J21" t="n">
-        <v>4.4</v>
+        <v>2.96</v>
       </c>
       <c r="K21" t="n">
-        <v>4.5</v>
+        <v>2.98</v>
       </c>
       <c r="L21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P21" t="n">
         <v>1.42</v>
       </c>
-      <c r="M21" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.99</v>
-      </c>
       <c r="Q21" t="n">
-        <v>1.99</v>
+        <v>3.25</v>
       </c>
       <c r="R21" t="n">
-        <v>1.37</v>
+        <v>1.14</v>
       </c>
       <c r="S21" t="n">
-        <v>3.55</v>
+        <v>7.2</v>
       </c>
       <c r="T21" t="n">
-        <v>2.16</v>
+        <v>2.44</v>
       </c>
       <c r="U21" t="n">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="V21" t="n">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="W21" t="n">
-        <v>2.88</v>
+        <v>1.61</v>
       </c>
       <c r="X21" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF21" t="n">
         <v>14</v>
       </c>
-      <c r="Y21" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>270</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AG21" t="n">
-        <v>9.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AH21" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AI21" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ21" t="n">
-        <v>12.5</v>
+        <v>42</v>
       </c>
       <c r="AK21" t="n">
-        <v>16.5</v>
+        <v>46</v>
       </c>
       <c r="AL21" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AM21" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="AN21" t="n">
-        <v>8.4</v>
+        <v>180</v>
       </c>
       <c r="AO21" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.56</v>
+        <v>2.14</v>
       </c>
       <c r="G22" t="n">
-        <v>2.6</v>
+        <v>2.16</v>
       </c>
       <c r="H22" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.98</v>
+        <v>3.4</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="L22" t="n">
-        <v>1.7</v>
+        <v>1.49</v>
       </c>
       <c r="M22" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q22" t="n">
         <v>2.3</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3.25</v>
-      </c>
       <c r="R22" t="n">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="S22" t="n">
-        <v>7.2</v>
+        <v>4.4</v>
       </c>
       <c r="T22" t="n">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="U22" t="n">
-        <v>1.63</v>
+        <v>1.95</v>
       </c>
       <c r="V22" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="W22" t="n">
-        <v>1.62</v>
+        <v>1.86</v>
       </c>
       <c r="X22" t="n">
-        <v>6.8</v>
+        <v>11</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.6</v>
+        <v>12.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AA22" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO22" t="n">
         <v>80</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>280</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.14</v>
+        <v>7.6</v>
       </c>
       <c r="G23" t="n">
-        <v>2.16</v>
+        <v>7.8</v>
       </c>
       <c r="H23" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="I23" t="n">
-        <v>4.2</v>
+        <v>1.51</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="K23" t="n">
-        <v>3.45</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="M23" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="P23" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.28</v>
+        <v>1.8</v>
       </c>
       <c r="R23" t="n">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="S23" t="n">
-        <v>4.3</v>
+        <v>3.05</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U23" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V23" t="n">
-        <v>1.31</v>
+        <v>2.96</v>
       </c>
       <c r="W23" t="n">
-        <v>1.86</v>
+        <v>1.14</v>
       </c>
       <c r="X23" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Y23" t="n">
-        <v>12.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z23" t="n">
-        <v>29</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA23" t="n">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.199999999999999</v>
+        <v>27</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>9.6</v>
       </c>
       <c r="AE23" t="n">
-        <v>60</v>
+        <v>15.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AH23" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ23" t="n">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="AK23" t="n">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="AL23" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AM23" t="n">
         <v>130</v>
       </c>
       <c r="AN23" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="AO23" t="n">
-        <v>75</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>7.2</v>
+        <v>1.79</v>
       </c>
       <c r="G24" t="n">
-        <v>7.4</v>
+        <v>1.83</v>
       </c>
       <c r="H24" t="n">
-        <v>1.53</v>
+        <v>4.7</v>
       </c>
       <c r="I24" t="n">
-        <v>1.54</v>
+        <v>5.2</v>
       </c>
       <c r="J24" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="R24" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="S24" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="T24" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="U24" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="V24" t="n">
-        <v>2.84</v>
+        <v>1.24</v>
       </c>
       <c r="W24" t="n">
-        <v>1.16</v>
+        <v>2.18</v>
       </c>
       <c r="X24" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD24" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y24" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AE24" t="n">
-        <v>15.5</v>
+        <v>400</v>
       </c>
       <c r="AF24" t="n">
-        <v>65</v>
+        <v>11.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>26</v>
+        <v>9.4</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL24" t="n">
         <v>34</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>220</v>
-      </c>
-      <c r="AK24" t="n">
+      <c r="AM24" t="n">
         <v>110</v>
       </c>
-      <c r="AL24" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>130</v>
-      </c>
       <c r="AN24" t="n">
-        <v>120</v>
+        <v>11.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>7.6</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="G25" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="H25" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="I25" t="n">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="J25" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="K25" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="P25" t="n">
-        <v>2.08</v>
+        <v>1.67</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.88</v>
+        <v>2.4</v>
       </c>
       <c r="R25" t="n">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="S25" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="T25" t="n">
-        <v>1.81</v>
+        <v>2.22</v>
       </c>
       <c r="U25" t="n">
-        <v>2.08</v>
+        <v>1.75</v>
       </c>
       <c r="V25" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="W25" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="X25" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Y25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>570</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN25" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AO25" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,261 +3893,126 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="G26" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I26" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="J26" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="K26" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="M26" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="O26" t="n">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.42</v>
+        <v>1.95</v>
       </c>
       <c r="R26" t="n">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="S26" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="T26" t="n">
-        <v>2.22</v>
+        <v>1.94</v>
       </c>
       <c r="U26" t="n">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="V26" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="W26" t="n">
-        <v>2.28</v>
+        <v>2.56</v>
       </c>
       <c r="X26" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="Y26" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="Z26" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AA26" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AB26" t="n">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF26" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AG26" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AI26" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AJ26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK26" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>610</v>
+        <v>42</v>
       </c>
       <c r="AM26" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="AN26" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AO26" t="n">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2025-12-01</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Ind Medellin</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>America de Cali S.A</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="H27" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W27" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="X27" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>210</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AO24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Stal Rzeszow</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Pogon Grodzisk Mazowiecki</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6.6</v>
+        <v>1.29</v>
       </c>
       <c r="G2" t="n">
-        <v>7.4</v>
+        <v>1.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>32</v>
       </c>
       <c r="I2" t="n">
-        <v>3.75</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>1.7</v>
+        <v>4.9</v>
       </c>
       <c r="K2" t="n">
-        <v>1.72</v>
+        <v>5.1</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,34 +691,34 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="P2" t="n">
-        <v>1.85</v>
+        <v>1.05</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.12</v>
+        <v>17</v>
       </c>
       <c r="R2" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>8.800000000000001</v>
+        <v>75</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="V2" t="n">
-        <v>1.4</v>
+        <v>1.02</v>
       </c>
       <c r="W2" t="n">
-        <v>1.14</v>
+        <v>4.3</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,37 +733,37 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>1.53</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.84</v>
+        <v>8.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>4.7</v>
+        <v>130</v>
       </c>
       <c r="AE2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.4</v>
+        <v>100</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -772,13 +772,13 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FC Metaloglobus Bucuresti</t>
+          <t>Kryvbas Krivyi Rih</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.01</v>
+        <v>27</v>
       </c>
       <c r="G3" t="n">
-        <v>1.02</v>
+        <v>32</v>
       </c>
       <c r="H3" t="n">
-        <v>280</v>
+        <v>1.31</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>1.37</v>
       </c>
       <c r="J3" t="n">
-        <v>48</v>
+        <v>4.2</v>
       </c>
       <c r="K3" t="n">
-        <v>85</v>
+        <v>5.1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,16 +832,16 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.52</v>
+        <v>1.52</v>
       </c>
       <c r="S3" t="n">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -850,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -874,10 +874,10 @@
         <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>1.53</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -886,34 +886,34 @@
         <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>590</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.83</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Stal Rzeszow</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pogon Grodzisk Mazowiecki</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="G4" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>2.02</v>
       </c>
       <c r="I4" t="n">
-        <v>2.96</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
+        <v>100</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R4" t="n">
         <v>4</v>
       </c>
-      <c r="K4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.8</v>
-      </c>
       <c r="S4" t="n">
-        <v>2.18</v>
+        <v>1.02</v>
       </c>
       <c r="T4" t="n">
-        <v>1.5</v>
+        <v>2.44</v>
       </c>
       <c r="U4" t="n">
-        <v>2.86</v>
+        <v>1.64</v>
       </c>
       <c r="V4" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.67</v>
+        <v>100</v>
       </c>
       <c r="X4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>790</v>
       </c>
       <c r="AL4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AO4" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Shakhtar</t>
+          <t>Akritas Chlorakas</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Kryvbas Krivyi Rih</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.25</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>1.26</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>14.5</v>
+        <v>1.71</v>
       </c>
       <c r="I5" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AI5" t="n">
         <v>16</v>
       </c>
-      <c r="J5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W5" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="X5" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>170</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>610</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>660</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>160</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="AL5" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AM5" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.85</v>
+        <v>220</v>
       </c>
       <c r="AO5" t="n">
-        <v>310</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Universitatea Cluj</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="S6" t="n">
+        <v>22</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="W6" t="n">
         <v>1.21</v>
       </c>
-      <c r="G6" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="H6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>21</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W6" t="n">
-        <v>5.1</v>
-      </c>
       <c r="X6" t="n">
-        <v>32</v>
+        <v>4.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>55</v>
+        <v>4.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB6" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>21</v>
+        <v>8.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="n">
-        <v>420</v>
+        <v>85</v>
       </c>
       <c r="AF6" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="n">
+        <v>370</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>300</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AK6" t="n">
-        <v>15.5</v>
+        <v>330</v>
       </c>
       <c r="AL6" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Akritas Chlorakas</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>9.4</v>
+        <v>7.4</v>
       </c>
       <c r="G7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH7" t="n">
         <v>11</v>
       </c>
-      <c r="H7" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>140</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>34</v>
-      </c>
       <c r="AI7" t="n">
-        <v>48</v>
+        <v>14.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>530</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="AL7" t="n">
-        <v>220</v>
+        <v>42</v>
       </c>
       <c r="AM7" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="AN7" t="n">
-        <v>320</v>
+        <v>70</v>
       </c>
       <c r="AO7" t="n">
-        <v>8</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Universitatea Cluj</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="G8" t="n">
-        <v>3.5</v>
+        <v>5.8</v>
       </c>
       <c r="H8" t="n">
-        <v>2.46</v>
+        <v>1.8</v>
       </c>
       <c r="I8" t="n">
-        <v>2.54</v>
+        <v>1.81</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3.25</v>
+        <v>6.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>1.79</v>
+        <v>2.12</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.26</v>
+        <v>1.87</v>
       </c>
       <c r="R8" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="S8" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="T8" t="n">
-        <v>1.89</v>
+        <v>1.47</v>
       </c>
       <c r="U8" t="n">
-        <v>1.99</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
-        <v>1.64</v>
+        <v>1.2</v>
       </c>
       <c r="W8" t="n">
-        <v>1.4</v>
+        <v>1.02</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.4</v>
+        <v>6.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>18</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK8" t="n">
         <v>36</v>
       </c>
-      <c r="AB8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>44</v>
-      </c>
       <c r="AL8" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AM8" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AN8" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AO8" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>1.34</v>
       </c>
       <c r="G9" t="n">
-        <v>13</v>
+        <v>1.36</v>
       </c>
       <c r="H9" t="n">
-        <v>1.25</v>
+        <v>15.5</v>
       </c>
       <c r="I9" t="n">
-        <v>1.28</v>
+        <v>17</v>
       </c>
       <c r="J9" t="n">
-        <v>7.6</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>8.800000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>4.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.08</v>
+        <v>1.26</v>
       </c>
       <c r="P9" t="n">
-        <v>4.3</v>
+        <v>1.84</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.26</v>
+        <v>2.14</v>
       </c>
       <c r="R9" t="n">
-        <v>2.34</v>
+        <v>1.23</v>
       </c>
       <c r="S9" t="n">
-        <v>1.68</v>
+        <v>5.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.64</v>
+        <v>2.04</v>
       </c>
       <c r="U9" t="n">
-        <v>2.36</v>
+        <v>1.93</v>
       </c>
       <c r="V9" t="n">
-        <v>4.5</v>
+        <v>1.06</v>
       </c>
       <c r="W9" t="n">
-        <v>1.08</v>
+        <v>3.8</v>
       </c>
       <c r="X9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL9" t="n">
         <v>80</v>
       </c>
-      <c r="Y9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ9" t="n">
+      <c r="AM9" t="n">
         <v>390</v>
       </c>
-      <c r="AK9" t="n">
-        <v>450</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>180</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>210</v>
-      </c>
       <c r="AN9" t="n">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
-        <v>2.84</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.3</v>
+        <v>1.29</v>
       </c>
       <c r="G10" t="n">
-        <v>2.32</v>
+        <v>1.3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>12.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3.35</v>
+        <v>13.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>6.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>6.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>4.9</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="P10" t="n">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="R10" t="n">
-        <v>1.52</v>
+        <v>1.89</v>
       </c>
       <c r="S10" t="n">
-        <v>2.84</v>
+        <v>2.08</v>
       </c>
       <c r="T10" t="n">
-        <v>1.61</v>
+        <v>1.81</v>
       </c>
       <c r="U10" t="n">
-        <v>2.56</v>
+        <v>2.22</v>
       </c>
       <c r="V10" t="n">
-        <v>1.41</v>
+        <v>1.08</v>
       </c>
       <c r="W10" t="n">
-        <v>1.75</v>
+        <v>4.3</v>
       </c>
       <c r="X10" t="n">
-        <v>19.5</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.5</v>
+        <v>55</v>
       </c>
       <c r="Z10" t="n">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="AA10" t="n">
-        <v>70</v>
+        <v>440</v>
       </c>
       <c r="AB10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.199999999999999</v>
+        <v>15.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AE10" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="AF10" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AI10" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AJ10" t="n">
-        <v>30</v>
+        <v>11.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AL10" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AM10" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>14.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>26</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>LKP Motor Lublin</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.92</v>
+        <v>2.96</v>
       </c>
       <c r="G11" t="n">
-        <v>1.93</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>4.6</v>
+        <v>2.52</v>
       </c>
       <c r="I11" t="n">
-        <v>4.8</v>
+        <v>2.54</v>
       </c>
       <c r="J11" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.7</v>
       </c>
-      <c r="K11" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="R11" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="S11" t="n">
-        <v>3.35</v>
+        <v>2.9</v>
       </c>
       <c r="T11" t="n">
-        <v>1.84</v>
+        <v>1.62</v>
       </c>
       <c r="U11" t="n">
-        <v>2.16</v>
+        <v>2.54</v>
       </c>
       <c r="V11" t="n">
-        <v>1.26</v>
+        <v>1.64</v>
       </c>
       <c r="W11" t="n">
-        <v>2.06</v>
+        <v>1.5</v>
       </c>
       <c r="X11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH11" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>18</v>
-      </c>
       <c r="AI11" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="AK11" t="n">
-        <v>19.5</v>
+        <v>32</v>
       </c>
       <c r="AL11" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AO11" t="n">
-        <v>75</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LKP Motor Lublin</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>1.73</v>
       </c>
       <c r="H12" t="n">
-        <v>2.36</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>2.4</v>
+        <v>6.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>4.7</v>
+        <v>3.35</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>2.24</v>
+        <v>1.79</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.76</v>
+        <v>2.22</v>
       </c>
       <c r="R12" t="n">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
       <c r="S12" t="n">
-        <v>2.94</v>
+        <v>4.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.61</v>
+        <v>2.06</v>
       </c>
       <c r="U12" t="n">
-        <v>2.46</v>
+        <v>1.83</v>
       </c>
       <c r="V12" t="n">
-        <v>1.71</v>
+        <v>1.18</v>
       </c>
       <c r="W12" t="n">
-        <v>1.44</v>
+        <v>2.34</v>
       </c>
       <c r="X12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y12" t="n">
         <v>18</v>
       </c>
-      <c r="Y12" t="n">
-        <v>13</v>
-      </c>
       <c r="Z12" t="n">
-        <v>16.5</v>
+        <v>46</v>
       </c>
       <c r="AA12" t="n">
-        <v>32</v>
+        <v>190</v>
       </c>
       <c r="AB12" t="n">
-        <v>16</v>
+        <v>7.2</v>
       </c>
       <c r="AC12" t="n">
         <v>8.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>11.5</v>
+        <v>25</v>
       </c>
       <c r="AE12" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="n">
-        <v>24</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG12" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>17</v>
       </c>
-      <c r="AH12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>55</v>
-      </c>
       <c r="AK12" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AM12" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="AN12" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>16</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.88</v>
+        <v>3.75</v>
       </c>
       <c r="G13" t="n">
-        <v>1.92</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>4.7</v>
+        <v>1.86</v>
       </c>
       <c r="I13" t="n">
-        <v>5.1</v>
+        <v>1.91</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="K13" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.44</v>
+        <v>1.19</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>3.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O13" t="n">
-        <v>1.35</v>
+        <v>1.1</v>
       </c>
       <c r="P13" t="n">
-        <v>1.87</v>
+        <v>3.85</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="V13" t="n">
         <v>2.08</v>
       </c>
-      <c r="R13" t="n">
+      <c r="W13" t="n">
         <v>1.33</v>
       </c>
-      <c r="S13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2.1</v>
-      </c>
       <c r="X13" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="Y13" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE13" t="n">
         <v>17.5</v>
       </c>
-      <c r="Z13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD13" t="n">
+      <c r="AF13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI13" t="n">
         <v>21</v>
       </c>
-      <c r="AE13" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI13" t="n">
+      <c r="AJ13" t="n">
         <v>130</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>21</v>
-      </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AL13" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AM13" t="n">
-        <v>140</v>
+        <v>960</v>
       </c>
       <c r="AN13" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AO13" t="n">
-        <v>120</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.29</v>
+        <v>3.45</v>
       </c>
       <c r="G14" t="n">
-        <v>1.31</v>
+        <v>3.55</v>
       </c>
       <c r="H14" t="n">
-        <v>12</v>
+        <v>2.1</v>
       </c>
       <c r="I14" t="n">
-        <v>12.5</v>
+        <v>2.16</v>
       </c>
       <c r="J14" t="n">
-        <v>6.6</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>3.15</v>
+        <v>2.68</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="R14" t="n">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="S14" t="n">
-        <v>2.12</v>
+        <v>2.38</v>
       </c>
       <c r="T14" t="n">
-        <v>1.81</v>
+        <v>1.51</v>
       </c>
       <c r="U14" t="n">
-        <v>2.14</v>
+        <v>2.74</v>
       </c>
       <c r="V14" t="n">
-        <v>1.08</v>
+        <v>1.87</v>
       </c>
       <c r="W14" t="n">
-        <v>4.2</v>
+        <v>1.39</v>
       </c>
       <c r="X14" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="Y14" t="n">
-        <v>60</v>
+        <v>15.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
-        <v>440</v>
+        <v>27</v>
       </c>
       <c r="AB14" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG14" t="n">
         <v>15.5</v>
       </c>
-      <c r="AD14" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="AK14" t="n">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="AL14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM14" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.85</v>
+        <v>22</v>
       </c>
       <c r="AO14" t="n">
-        <v>160</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="G15" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="H15" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="I15" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.29</v>
+        <v>1.54</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>6</v>
+        <v>2.88</v>
       </c>
       <c r="O15" t="n">
-        <v>1.17</v>
+        <v>1.48</v>
       </c>
       <c r="P15" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.58</v>
+        <v>2.46</v>
       </c>
       <c r="R15" t="n">
-        <v>1.68</v>
+        <v>1.21</v>
       </c>
       <c r="S15" t="n">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
       <c r="T15" t="n">
-        <v>1.51</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
-        <v>2.68</v>
+        <v>1.83</v>
       </c>
       <c r="V15" t="n">
-        <v>1.84</v>
+        <v>1.69</v>
       </c>
       <c r="W15" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="X15" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="Y15" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z15" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z15" t="n">
-        <v>23</v>
-      </c>
       <c r="AA15" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>11.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AD15" t="n">
         <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AF15" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AG15" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="AJ15" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AK15" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AM15" t="n">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="n">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="AO15" t="n">
-        <v>9.800000000000001</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,126 +2543,126 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.75</v>
+        <v>2.36</v>
       </c>
       <c r="G16" t="n">
-        <v>3.9</v>
+        <v>2.52</v>
       </c>
       <c r="H16" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>1.94</v>
+        <v>3.6</v>
       </c>
       <c r="J16" t="n">
-        <v>4.5</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="n">
-        <v>4.9</v>
+        <v>3.35</v>
       </c>
       <c r="L16" t="n">
-        <v>1.2</v>
+        <v>1.51</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>9.4</v>
+        <v>3.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.33</v>
+        <v>2.28</v>
       </c>
       <c r="R16" t="n">
-        <v>2.16</v>
+        <v>1.26</v>
       </c>
       <c r="S16" t="n">
-        <v>1.81</v>
+        <v>4.3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.4</v>
+        <v>1.89</v>
       </c>
       <c r="U16" t="n">
-        <v>3.3</v>
+        <v>1.96</v>
       </c>
       <c r="V16" t="n">
-        <v>2.04</v>
+        <v>1.38</v>
       </c>
       <c r="W16" t="n">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="X16" t="n">
-        <v>55</v>
+        <v>11.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>960</v>
+      </c>
+      <c r="AE16" t="n">
         <v>48</v>
       </c>
-      <c r="AB16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>26</v>
-      </c>
       <c r="AF16" t="n">
-        <v>75</v>
+        <v>970</v>
       </c>
       <c r="AG16" t="n">
         <v>18.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AK16" t="n">
         <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="AN16" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AO16" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="G17" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="H17" t="n">
-        <v>2.3</v>
+        <v>2.72</v>
       </c>
       <c r="I17" t="n">
-        <v>2.46</v>
+        <v>2.96</v>
       </c>
       <c r="J17" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="L17" t="n">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="N17" t="n">
-        <v>2.84</v>
+        <v>2.54</v>
       </c>
       <c r="O17" t="n">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="P17" t="n">
-        <v>1.59</v>
+        <v>1.46</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.46</v>
+        <v>2.96</v>
       </c>
       <c r="R17" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.99</v>
+        <v>2.22</v>
       </c>
       <c r="U17" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="V17" t="n">
-        <v>1.69</v>
+        <v>1.51</v>
       </c>
       <c r="W17" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="X17" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD17" t="n">
         <v>16.5</v>
       </c>
-      <c r="AA17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AE17" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AF17" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>16.5</v>
+        <v>27</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AI17" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AJ17" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="AK17" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AL17" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="AN17" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AO17" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.4</v>
+        <v>1.57</v>
       </c>
       <c r="G18" t="n">
-        <v>2.58</v>
+        <v>1.58</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>7.6</v>
       </c>
       <c r="I18" t="n">
-        <v>3.55</v>
+        <v>7.8</v>
       </c>
       <c r="J18" t="n">
-        <v>3.15</v>
+        <v>4.3</v>
       </c>
       <c r="K18" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.15</v>
+        <v>3.95</v>
       </c>
       <c r="O18" t="n">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="P18" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.28</v>
+        <v>1.97</v>
       </c>
       <c r="R18" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="S18" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="T18" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U18" t="n">
         <v>1.88</v>
       </c>
-      <c r="U18" t="n">
-        <v>1.93</v>
-      </c>
       <c r="V18" t="n">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="W18" t="n">
-        <v>1.64</v>
+        <v>2.74</v>
       </c>
       <c r="X18" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>13</v>
       </c>
-      <c r="Y18" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>980</v>
-      </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="AN18" t="n">
-        <v>32</v>
+        <v>8.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.15</v>
+        <v>2.6</v>
       </c>
       <c r="G19" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H19" t="n">
         <v>3.5</v>
       </c>
-      <c r="H19" t="n">
-        <v>2.68</v>
-      </c>
       <c r="I19" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="J19" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="K19" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="L19" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="M19" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="N19" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="O19" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="P19" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="S19" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="T19" t="n">
-        <v>2.14</v>
+        <v>2.44</v>
       </c>
       <c r="U19" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="V19" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="W19" t="n">
-        <v>1.41</v>
+        <v>1.6</v>
       </c>
       <c r="X19" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AA19" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AB19" t="n">
-        <v>980</v>
+        <v>6.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="AD19" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AG19" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AI19" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AJ19" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="AK19" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AL19" t="n">
         <v>95</v>
       </c>
       <c r="AM19" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AN19" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AO19" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.55</v>
+        <v>2.16</v>
       </c>
       <c r="G20" t="n">
-        <v>1.56</v>
+        <v>2.18</v>
       </c>
       <c r="H20" t="n">
-        <v>7.6</v>
+        <v>4.1</v>
       </c>
       <c r="I20" t="n">
-        <v>7.8</v>
+        <v>4.2</v>
       </c>
       <c r="J20" t="n">
-        <v>4.4</v>
+        <v>3.35</v>
       </c>
       <c r="K20" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.98</v>
+        <v>2.38</v>
       </c>
       <c r="R20" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="S20" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="T20" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="U20" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W20" t="n">
         <v>1.85</v>
       </c>
-      <c r="V20" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2.78</v>
-      </c>
       <c r="X20" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="AA20" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="AB20" t="n">
         <v>7.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AF20" t="n">
-        <v>8.4</v>
+        <v>12</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK20" t="n">
         <v>25</v>
       </c>
-      <c r="AI20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AL20" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AM20" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN20" t="n">
-        <v>8.800000000000001</v>
+        <v>22</v>
       </c>
       <c r="AO20" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.6</v>
+        <v>7.8</v>
       </c>
       <c r="G21" t="n">
-        <v>2.64</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>3.55</v>
+        <v>1.49</v>
       </c>
       <c r="I21" t="n">
-        <v>3.65</v>
+        <v>1.5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.96</v>
+        <v>4.8</v>
       </c>
       <c r="K21" t="n">
-        <v>2.98</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.7</v>
+        <v>1.38</v>
       </c>
       <c r="M21" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>2.32</v>
+        <v>4.3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.72</v>
+        <v>1.28</v>
       </c>
       <c r="P21" t="n">
-        <v>1.42</v>
+        <v>2.14</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.25</v>
+        <v>1.83</v>
       </c>
       <c r="R21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3</v>
+      </c>
+      <c r="W21" t="n">
         <v>1.14</v>
       </c>
-      <c r="S21" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.61</v>
-      </c>
       <c r="X21" t="n">
-        <v>6.8</v>
+        <v>18.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>22</v>
+        <v>8.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="AB21" t="n">
-        <v>6.8</v>
+        <v>26</v>
       </c>
       <c r="AC21" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>17.5</v>
+        <v>9.6</v>
       </c>
       <c r="AE21" t="n">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AH21" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>270</v>
+      </c>
+      <c r="AK21" t="n">
         <v>120</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>46</v>
-      </c>
       <c r="AL21" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AM21" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="AN21" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AO21" t="n">
-        <v>110</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.14</v>
+        <v>1.83</v>
       </c>
       <c r="G22" t="n">
-        <v>2.16</v>
+        <v>1.85</v>
       </c>
       <c r="H22" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" t="n">
         <v>4.1</v>
       </c>
-      <c r="I22" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L22" t="n">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="P22" t="n">
-        <v>1.75</v>
+        <v>2.06</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.3</v>
+        <v>1.89</v>
       </c>
       <c r="R22" t="n">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="S22" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="U22" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V22" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="W22" t="n">
-        <v>1.86</v>
+        <v>2.18</v>
       </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AA22" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>390</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO22" t="n">
         <v>90</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>7.6</v>
+        <v>1.76</v>
       </c>
       <c r="G23" t="n">
-        <v>7.8</v>
+        <v>1.78</v>
       </c>
       <c r="H23" t="n">
-        <v>1.5</v>
+        <v>6.2</v>
       </c>
       <c r="I23" t="n">
-        <v>1.51</v>
+        <v>6.6</v>
       </c>
       <c r="J23" t="n">
-        <v>4.8</v>
+        <v>3.55</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="L23" t="n">
-        <v>1.36</v>
+        <v>1.54</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>4.5</v>
+        <v>2.98</v>
       </c>
       <c r="O23" t="n">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="P23" t="n">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.8</v>
+        <v>2.44</v>
       </c>
       <c r="R23" t="n">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
       <c r="S23" t="n">
-        <v>3.05</v>
+        <v>4.9</v>
       </c>
       <c r="T23" t="n">
-        <v>1.98</v>
+        <v>2.26</v>
       </c>
       <c r="U23" t="n">
-        <v>1.95</v>
+        <v>1.72</v>
       </c>
       <c r="V23" t="n">
-        <v>2.96</v>
+        <v>1.18</v>
       </c>
       <c r="W23" t="n">
-        <v>1.14</v>
+        <v>2.28</v>
       </c>
       <c r="X23" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.800000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>8.800000000000001</v>
+        <v>55</v>
       </c>
       <c r="AA23" t="n">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="AB23" t="n">
-        <v>27</v>
+        <v>6.4</v>
       </c>
       <c r="AC23" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG23" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD23" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>28</v>
-      </c>
       <c r="AH23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK23" t="n">
         <v>24</v>
       </c>
-      <c r="AI23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>240</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>110</v>
-      </c>
       <c r="AL23" t="n">
-        <v>100</v>
+        <v>660</v>
       </c>
       <c r="AM23" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="AN23" t="n">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="AO23" t="n">
-        <v>7.2</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,396 +3623,126 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="G24" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="H24" t="n">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="I24" t="n">
-        <v>5.2</v>
+        <v>7.2</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K24" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="P24" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="R24" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="S24" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="U24" t="n">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="V24" t="n">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="W24" t="n">
-        <v>2.18</v>
+        <v>2.52</v>
       </c>
       <c r="X24" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Z24" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AA24" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AD24" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="AE24" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="AF24" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG24" t="n">
-        <v>9.4</v>
+        <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="AJ24" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AK24" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AL24" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AM24" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="AN24" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2025-12-01</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Racing Club</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Tigre</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="H25" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W25" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="X25" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>570</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2025-12-01</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Ind Medellin</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>America de Cali S.A</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="H26" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N26" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W26" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="X26" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>110</v>
+        <v>1.35</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>1.36</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>14</v>
       </c>
       <c r="I2" t="n">
-        <v>1.01</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>5.1</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,34 +691,34 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.11</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>8.6</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>1.04</v>
+        <v>1.93</v>
       </c>
       <c r="Q2" t="n">
-        <v>12</v>
+        <v>2.06</v>
       </c>
       <c r="R2" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>4.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.4</v>
+        <v>1.96</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>100</v>
+        <v>1.07</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,43 +733,43 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,531 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1000</v>
+        <v>1.58</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>1.59</v>
       </c>
       <c r="H4" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="I4" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="R4" t="n">
-        <v>5.5</v>
+        <v>1.45</v>
       </c>
       <c r="S4" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="T4" t="n">
-        <v>1.4</v>
+        <v>1.84</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>500</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>2.68</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Chilean Primera Division</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-12-01</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Audax Italiano</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Nublense</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="X5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>970</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM5" t="n">
         <v>110</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-12-01</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Racing Club</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Tigre</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="X6" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>210</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-12-01</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Ind Medellin</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>America de Cali S.A</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="X7" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,78 +653,78 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.35</v>
+        <v>3.45</v>
       </c>
       <c r="G2" t="n">
-        <v>1.36</v>
+        <v>3.55</v>
       </c>
       <c r="H2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J2" t="n">
-        <v>5.1</v>
+        <v>1.56</v>
       </c>
       <c r="K2" t="n">
-        <v>5.3</v>
+        <v>1.57</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>10</v>
       </c>
       <c r="P2" t="n">
-        <v>1.93</v>
+        <v>1.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>65</v>
       </c>
       <c r="R2" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>4.6</v>
+        <v>420</v>
       </c>
       <c r="T2" t="n">
-        <v>1.96</v>
+        <v>21</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="W2" t="n">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>1.73</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,43 +733,43 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.4</v>
+        <v>30</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.7</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>370</v>
       </c>
       <c r="AK2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,261 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.84</v>
+        <v>2.24</v>
       </c>
       <c r="G3" t="n">
-        <v>1.86</v>
+        <v>2.28</v>
       </c>
       <c r="H3" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.45</v>
+        <v>2.58</v>
       </c>
       <c r="K3" t="n">
-        <v>3.55</v>
+        <v>2.66</v>
       </c>
       <c r="L3" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.52</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.84</v>
+        <v>1.32</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="S3" t="n">
-        <v>6</v>
+        <v>2.48</v>
       </c>
       <c r="T3" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W3" t="n">
-        <v>2.16</v>
+        <v>1.77</v>
       </c>
       <c r="X3" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF3" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>4.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>32</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AI3" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AL3" t="n">
         <v>21</v>
       </c>
-      <c r="AK3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>70</v>
-      </c>
       <c r="AM3" t="n">
-        <v>290</v>
+        <v>100</v>
       </c>
       <c r="AN3" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AO3" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-12-01</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ind Medellin</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>America de Cali S.A</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="X4" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>990</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
